--- a/nl_sql_results/nltosql-perfect_table_subsetter-snails-Native-oracle-nlsqlmodel_gpt-4.1-nano.xlsx
+++ b/nl_sql_results/nltosql-perfect_table_subsetter-snails-Native-oracle-nlsqlmodel_gpt-4.1-nano.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) turtleCount  from tblFieldDataTurtleMeasurements where age = '5' </t>
+          <t xml:space="preserve">select count(*) turtleCount  from tblFieldDataTurtleMeasurements where age = '5'  </t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -540,11 +540,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationID, count(*) turtleCount from tblFieldDataTurtleMeasurements group by locationID </t>
+          <t xml:space="preserve">select locationID, count(*) turtleCount from tblFieldDataTurtleMeasurements group by locationID  </t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -579,7 +579,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(weight) turtleWeight from tblFieldDataTurtleMeasurements </t>
+          <t xml:space="preserve">select avg(weight) turtleWeight from tblFieldDataTurtleMeasurements  </t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -620,11 +620,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct t.locationID from tblFieldDataTurtleMeasurements t join tblFieldDataSnakeDataCollection s on t.LocationID = s.LocationID </t>
+          <t xml:space="preserve">select distinct t.locationID from tblFieldDataTurtleMeasurements t join tblFieldDataSnakeDataCollection s on t.LocationID = s.LocationID  </t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -654,23 +654,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SELECT LocationID, COUNT(DISTINCT Trap_</t>
+          <t>SELECT LocationID, COUNT(*) AS Total_Traps
+FROM tblFieldDataMinnowTrapSurveys
+GROUP BY LocationID</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationID, count(distinct [trap_#]) trapCount from tblFieldDataMinnowTrapSurveys group by locationID </t>
+          <t xml:space="preserve">select locationID, count(distinct [trap_#]) trapCount from tblFieldDataMinnowTrapSurveys group by locationID  </t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -700,7 +702,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationid, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by LocationID </t>
+          <t xml:space="preserve">select locationid, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by LocationID  </t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -739,7 +741,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">select locationID, [Trap_#], sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by locationID, [Trap_#] </t>
+          <t xml:space="preserve">select locationID, [Trap_#], sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys group by locationID, [Trap_#]  </t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -781,7 +783,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">select stage, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys where locationID = 'ASIS_HERPS_20H' group by stage </t>
+          <t xml:space="preserve">select stage, sum(count) minnowCountSum from tblFieldDataMinnowTrapSurveys where locationID = 'ASIS_HERPS_20H' group by stage  </t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -825,7 +827,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(tempc) avgTemp from tblFieldDataWaterProperties where locationId in ( 	select locationId  	from tblFieldDataAmphibianCallCounts ) </t>
+          <t xml:space="preserve">select avg(tempc) avgTemp from tblFieldDataWaterProperties where locationId in ( 	select locationId  	from tblFieldDataAmphibianCallCounts )  </t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -874,7 +876,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(tempc) avgTempC, avg(salinity) avgSalinity, avg(conductivity) avgConduct, avg(pH) avgPH from tblFieldDataWaterProperties w, tblFieldDataTurtleTrapSurveys t where w. recordid in ( 	select recordid from tblFieldDataTurtleTrapSurveys )  </t>
+          <t xml:space="preserve">select avg(tempc) avgTempC, avg(salinity) avgSalinity, avg(conductivity) avgConduct, avg(pH) avgPH from tblFieldDataWaterProperties w, tblFieldDataTurtleTrapSurveys t where w. recordid in ( 	select recordid from tblFieldDataTurtleTrapSurveys )   </t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -910,24 +912,24 @@
         <is>
           <t>SELECT f.RecordID, f.Comments
 FROM tblFieldDataTurtleMeasurements f
-JOIN tblFieldDataTurtleTrapSurveys t ON f.EventID = t.EventID AND f.LocationID = t.LocationID
+JOIN tblFieldDataTurtleTrapSurveys t ON f.RecordID = t.RecordID
 WHERE f.Sex != t.Sex</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">select t.RecordID, m.comments from tblFieldDataTurtleTrapSurveys t join tblFieldDataTurtleMeasurements m on t.RecordID = m.RecordID  	and m.sex &lt;&gt; t.sex </t>
+          <t xml:space="preserve">select t.RecordID, m.comments from tblFieldDataTurtleTrapSurveys t join tblFieldDataTurtleMeasurements m on t.RecordID = m.RecordID  	and m.sex &lt;&gt; t.sex  </t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -955,7 +957,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sex, max(weight) heaviestWeight from tblFieldDataTurtleMeasurements group by sex </t>
+          <t xml:space="preserve">select sex, max(weight) heaviestWeight from tblFieldDataTurtleMeasurements group by sex  </t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -987,21 +989,25 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SELECT MAX(SVL) FROM tblFieldDataSnakeDataCollection</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 svl  from tblFieldDataSnakeDataCollection order by svl desc </t>
+          <t xml:space="preserve">select  svl  from tblFieldDataSnakeDataCollection order by svl desc limit 1 </t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-1</v>
+        <v>225</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1042,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sex, avg(weight) avgWeight, avg(svl) avgSvl from tblFieldDataSnakeDataCollection group by sex </t>
+          <t xml:space="preserve">select sex, avg(weight) avgWeight, avg(svl) avgSvl from tblFieldDataSnakeDataCollection group by sex  </t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1082,7 +1088,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [Species_Code], avg(TLength) avgTLength, avg(Weight) avgWeight from tblFieldDataSnakeDataCollection group by [Species_Code] </t>
+          <t xml:space="preserve">select [Species_Code], avg(TLength) avgTLength, avg(Weight) avgWeight from tblFieldDataSnakeDataCollection group by [Species_Code]  </t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1116,16 +1122,16 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SELECT ol.[Agency/Title], COUNT(ft.RecordID) AS MeasurementCount
-FROM tblFieldDataTurtleMeasurements ft
-JOIN tlinkObservers to ON ft.EventID = to.EventID
-JOIN Observer_LU ol ON to.ObsInits = ol.ObsInits
+          <t>SELECT ol.[Agency/Title], COUNT(*) AS MeasurementCount
+FROM tblFieldDataTurtleMeasurements AS t
+JOIN tlinkObservers AS l ON t.EventID = l.EventID
+JOIN Observer_LU AS ol ON l.ObsInits = ol.ObsInits
 GROUP BY ol.[Agency/Title]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [Agency/Title], count(distinct recordID) from tblFieldDataTurtleMeasurements t join tlinkObservers ol on t.EventID = ol.EventID join Observer_LU o on o.obsinits = ol.obsinits group by [Agency/Title] </t>
+          <t xml:space="preserve">select [Agency/Title], count(distinct recordID) from tblFieldDataTurtleMeasurements t join tlinkObservers ol on t.EventID = ol.EventID join Observer_LU o on o.obsinits = ol.obsinits group by [Agency/Title]  </t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1136,7 +1142,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1173,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">select e.Eventid  from tblEvents e join tblEventDataHerps ed on e.eventid = ed.EventID join tlinkObservers ol on ed.EventID = ol.EventID join Observer_LU o on ol.ObsInits = o.ObsInits where year = 2004  	and firstName = 'allison' 	and lastName = 'turner' </t>
+          <t xml:space="preserve">select e.Eventid  from tblEvents e join tblEventDataHerps ed on e.eventid = ed.EventID join tlinkObservers ol on ed.EventID = ol.EventID join Observer_LU o on ol.ObsInits = o.ObsInits where year = 2004  	and firstName = 'allison' 	and lastName = 'turner'  </t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1209,7 +1215,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct o.ObsInits, firstName, lastName  from tlinkObservers ol join Observer_LU o on ol.ObsInits = o.ObsInits join tblFieldDataTurtleMeasurements tm on tm.EventID = ol.EventID </t>
+          <t xml:space="preserve">select distinct o.ObsInits, firstName, lastName  from tlinkObservers ol join Observer_LU o on ol.ObsInits = o.ObsInits join tblFieldDataTurtleMeasurements tm on tm.EventID = ol.EventID  </t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1248,7 +1254,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct [species_code]) speciesCount from tblFieldDataGreenCardObservations </t>
+          <t xml:space="preserve">select count(distinct [species_code]) speciesCount from tblFieldDataGreenCardObservations  </t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1284,8 +1290,8 @@
         <is>
           <t>SELECT 
     l.LocationID,
-    AVG(l.UTMX) AS Avg_UTMX,
-    AVG(l.UTMY) AS Avg_UTMY
+    AVG(l.UTMX) AS AvgUTMX,
+    AVG(l.UTMY) AS AvgUTMY
 FROM 
     tblLocationsPoints l
 JOIN 
@@ -1296,11 +1302,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">select l.locationId, avg(UTMX) X, avg(UTMY) Y from tblFieldDataTimeConstrainedSearches df join tblLocationsPoints l on df.LocationID = l.LocationID group by l.locationId </t>
+          <t xml:space="preserve">select l.locationId, avg(UTMX) X, avg(UTMY) Y from tblFieldDataTimeConstrainedSearches df join tblLocationsPoints l on df.LocationID = l.LocationID group by l.locationId  </t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
@@ -1338,7 +1344,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">select description, count(*) minnowCount from tlustage s join tblFieldDataMinnowTrapSurveys m on s.stage = m.stage group by description </t>
+          <t xml:space="preserve">select description, count(*) minnowCount from tlustage s join tblFieldDataMinnowTrapSurveys m on s.stage = m.stage group by description  </t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1377,7 +1383,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">select AbundanceID, AbundanceText from tblAbundance_LU where Abundance = 'Occasional' </t>
+          <t xml:space="preserve">select AbundanceID, AbundanceText from tblAbundance_LU where Abundance = 'Occasional'  </t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1411,18 +1417,16 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SELECT DISTINCT LocationID
-FROM tblFieldDataCoverBoard
-WHERE Type = 'wood'</t>
+          <t>SELECT DISTINCT LocationID FROM tblFieldDataCoverBoard WHERE Type = 'wood'</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct LocationID  from tblFieldDataCoverBoard where type = 'Wood' </t>
+          <t xml:space="preserve">select distinct LocationID  from tblFieldDataCoverBoard where type = 'Wood'  </t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -1457,7 +1461,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [Board_#], type  from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID where siteid = '18CB1' and [Board_#] &lt;&gt; 0 </t>
+          <t xml:space="preserve">select [Board_#], type  from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID where siteid = '18CB1' and [Board_#] &lt;&gt; 0  </t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1491,22 +1495,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SELECT AVG(EDH.AirTemp) AS AverageAirTemp
-FROM tblEventDataHerps AS EDH
-JOIN tblFieldDataCoverBoard AS FDCB ON EDH.EventID = FDCB.EventID
-JOIN tblLocations AS LOC ON FDCB.LocationID = LOC.LocationID
-WHERE FDCB.Type = 'wood'
-  AND LOC.SiteID = '30CB2'
-  AND EDH.Clouds &gt; 0</t>
+          <t>SELECT AVG(edh.AirTemp) AS AverageAirTemp
+FROM tblEventDataHerps AS edh
+JOIN tblFieldDataCoverBoard AS fdc ON edh.EventID = fdc.EventID
+JOIN tblLocations AS loc ON fdc.LocationID = loc.LocationID
+WHERE fdc.Type = 'wood'
+  AND loc.SiteID = '30CB2'
+  AND edh.Clouds &gt; 0</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(AirTemp) as avgTemp  from tblFieldDataCoverBoard cb join tblEventDataHerps ev on cb.EventID = ev.EventID join tblLocations l on cb.LocationID = l.LocationID where Type = 'Metal' and SiteId = '30CB2' and weather = 'cloudy' </t>
+          <t xml:space="preserve">select avg(AirTemp) as avgTemp  from tblFieldDataCoverBoard cb join tblEventDataHerps ev on cb.EventID = ev.EventID join tblLocations l on cb.LocationID = l.LocationID where Type = 'Metal' and SiteId = '30CB2' and weather = 'cloudy'  </t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -1544,11 +1548,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">select behavior, count(*) as recordCount from tblFieldDataSnakeDataCollection where capturemethod = 'coverboard' group by behavior </t>
+          <t xml:space="preserve">select behavior, count(*) as recordCount from tblFieldDataSnakeDataCollection where capturemethod = 'coverboard' group by behavior  </t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -1585,7 +1589,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Behavior, CaptureMethod  from tblFieldDataSnakeDataCollection where notes like '%rafters%' </t>
+          <t xml:space="preserve">select Behavior, CaptureMethod  from tblFieldDataSnakeDataCollection where notes like '%rafters%'  </t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1621,17 +1625,17 @@
         <is>
           <t>SELECT 
     lp.PointID, 
-    fdc.SnakeID, 
-    fdc.Board_</t>
+    fd.SnakeID, 
+    fd.Board_</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PointID, SnakeID, [Board_#], UTMX, UTMY from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID join tblLocationsPoints lp on l.LocationID = lp.LocationID where Recapture = 'new' and siteid = '18CB1' </t>
+          <t xml:space="preserve">select PointID, SnakeID, [Board_#], UTMX, UTMY from tblFieldDataCoverBoard cb join tblLocations l on cb.LocationID = l.LocationID join tblLocationsPoints lp on l.LocationID = lp.LocationID where Recapture = 'new' and siteid = '18CB1'  </t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -1666,7 +1670,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct o.ObsInits from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEvents e on tlo.EventID = e.EventID join tblFieldDataCoverBoard cb on e.EventID = cb.EventID </t>
+          <t xml:space="preserve">select distinct o.ObsInits from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEvents e on tlo.EventID = e.EventID join tblFieldDataCoverBoard cb on e.EventID = cb.EventID  </t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1702,7 +1706,7 @@
         <is>
           <t>SELECT 
     Weather, 
-    COUNT(*) AS EventCount, 
+    COUNT(EventID) AS EventCount, 
     AVG(AirTemp) AS AvgAirTemp, 
     AVG(WaterTemp) AS AvgWaterTemp
 FROM 
@@ -1713,11 +1717,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">select weather, count(*) eventCount, avg(airtemp) avgAirTemp, avg(watertemp) avgWaterTemp  from tblEventDataHerps group by weather </t>
+          <t xml:space="preserve">select weather, count(*) eventCount, avg(airtemp) avgAirTemp, avg(watertemp) avgWaterTemp  from tblEventDataHerps group by weather  </t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
@@ -1747,22 +1751,18 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SELECT 
-    ObsInits, 
-    AVG(AirTemp) AS AverageAirTemp
-FROM 
-    tblEventDataHerps
-GROUP BY 
-    ObsInits</t>
+          <t>SELECT ObsInits, AVG(AirTemp) AS AverageAirTemp
+FROM tblEventDataHerps
+GROUP BY ObsInits</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">select o.ObsInits, avg(airtemp) avgAirTemp from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEventDataHerps e on tlo.EventID = e.EventID group by o.ObsInits </t>
+          <t xml:space="preserve">select o.ObsInits, avg(airtemp) avgAirTemp from Observer_LU o join tlinkObservers tlo on o.ObsInits = tlo.ObsInits join tblEventDataHerps e on tlo.EventID = e.EventID group by o.ObsInits  </t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">select weather, avg(airtemp) avgAirTemp  from tblEventDataHerps group by weather </t>
+          <t xml:space="preserve">select weather, avg(airtemp) avgAirTemp  from tblEventDataHerps group by weather  </t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">select description  from tluProject where project = 'WQ' </t>
+          <t xml:space="preserve">select description  from tluProject where project = 'WQ'  </t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">select parktype  from tluParkCode where parkcode = 'ASIS' </t>
+          <t xml:space="preserve">select parktype  from tluParkCode where parkcode = 'ASIS'  </t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">select text  from tluEvidenceCode where [evidence_code] = 'DOR' </t>
+          <t xml:space="preserve">select text  from tluEvidenceCode where [evidence_code] = 'DOR'  </t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">select habitat, description  from tluMicroHabitat where habitat in ('Temporary Pond', 'Permanent Pond') </t>
+          <t xml:space="preserve">select habitat, description  from tluMicroHabitat where habitat in ('Temporary Pond', 'Permanent Pond')  </t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">select [trap_type], count(*) recordCount from tblFieldDataTurtleTrapSurveys group by [Trap_Type] </t>
+          <t xml:space="preserve">select [trap_type], count(*) recordCount from tblFieldDataTurtleTrapSurveys group by [Trap_Type]  </t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct t.locationid from tblLocations l join tblFieldDataTurtleTrapSurveys t on l.LocationID = t.LocationID where [trap_type] = 'crab' </t>
+          <t xml:space="preserve">select distinct t.locationid from tblLocations l join tblFieldDataTurtleTrapSurveys t on l.LocationID = t.LocationID where [trap_type] = 'crab'  </t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sex, avg([carapace_length]) avgCarLen, avg([carapace_width]) avgCarWid,  			avg([plastron_length]) avgPlasLen, avg([plastron_width]) avgPlasWid, 			avg(weight) avgWeight from tblFieldDataTurtleMeasurements group by sex </t>
+          <t xml:space="preserve">select sex, avg([carapace_length]) avgCarLen, avg([carapace_width]) avgCarWid,  			avg([plastron_length]) avgPlasLen, avg([plastron_width]) avgPlasWid, 			avg(weight) avgWeight from tblFieldDataTurtleMeasurements group by sex  </t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2122,18 +2122,16 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) AS NumberOfMeasurements
-FROM tblFieldDataTurtleMeasurements
-WHERE Gravid = 1</t>
+          <t>SELECT COUNT(*) FROM tblFieldDataTurtleMeasurements WHERE Gravid = 1</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) gravidCount from tblFieldDataTurtleMeasurements where gravid = 1 </t>
+          <t xml:space="preserve">select count(*) gravidCount from tblFieldDataTurtleMeasurements where gravid = 1  </t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
@@ -2170,7 +2168,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct CommonName, SpCode, genus, subgenus  from tbl_Nests join tlu_PlantSpecies on tbl_Nests.SpCode = tlu_PlantSpecies.SpeciesCode order by CommonName </t>
+          <t xml:space="preserve">select distinct CommonName, SpCode, genus, subgenus  from tbl_Nests join tlu_PlantSpecies on tbl_Nests.SpCode = tlu_PlantSpecies.SpeciesCode order by CommonName  </t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2212,7 +2210,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct CommonName  from tlu_PlantSpecies where SpeciesCode not in ( 	select distinct SpCode from tbl_Nests 	) </t>
+          <t xml:space="preserve">select distinct CommonName  from tlu_PlantSpecies where SpeciesCode not in ( 	select distinct SpCode from tbl_Nests 	)  </t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2244,21 +2242,30 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>SELECT genus, COUNT(DISTINCT Nest_ID) AS NestCount
+FROM tlu_PlantSpecies
+JOIN tbl_Nests ON tlu_PlantSpecies.SpeciesCode = tbl_Nests.SpCode
+GROUP BY genus
+ORDER BY NestCount DESC
+LIMIT 5</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TOP 5 genus, count(*) as NestCount  from tlu_PlantSpecies join tbl_Nests on tlu_PlantSpecies.SpeciesCode = tbl_Nests.SpCode group by genus order by NestCount desc </t>
+          <t xml:space="preserve">select  genus, count(*) as NestCount  from tlu_PlantSpecies join tbl_Nests on tlu_PlantSpecies.SpeciesCode = tbl_Nests.SpCode group by genus order by NestCount desc limit 5 </t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>-1</v>
+        <v>291</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2293,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve">select *  from tlu_DecayStage </t>
+          <t xml:space="preserve">select *  from tlu_DecayStage  </t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -2325,7 +2332,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Event_ID)  from tbl_Deadwood </t>
+          <t xml:space="preserve">select count(distinct Event_ID)  from tbl_Deadwood  </t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2361,17 +2368,17 @@
         <is>
           <t>SELECT Event_ID, COUNT(DISTINCT Decay) AS Unique_Decay_Logs
 FROM tbl_Deadwood
-WHERE Decay IS NOT NULL AND Decay != ''
+WHERE Decay IS NOT NULL
 GROUP BY Event_ID</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_ID, count(*)  from tbl_Deadwood  group by Event_ID </t>
+          <t xml:space="preserve">select Event_ID, count(*)  from tbl_Deadwood  group by Event_ID  </t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -2404,25 +2411,30 @@
           <t>SELECT ds.DecayStage_Descr, COUNT(d.Data_ID) AS Count
 FROM tbl_Deadwood d
 JOIN tlu_DecayStage ds ON d.Decay = ds.DecayStage_ID
-GROUP BY ds.DecayStage_Descr
-ORDER BY Count DESC
-LIMIT 1</t>
+WHERE d.Event_ID = (
+    SELECT Event_ID
+    FROM tbl_Deadwood
+    GROUP BY Event_ID
+    ORDER BY COUNT(*) DESC
+    LIMIT 1
+)
+GROUP BY ds.DecayStage_Descr</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr, count(*) as numLogs  from tbl_Deadwood join tlu_DecayStage on tbl_Deadwood.Decay = tlu_DecayStage.DecayStage_ID where Event_ID in ( 	select TOP 1 Event_ID from tbl_Deadwood group by Event_ID order by count(*) desc ) group by DecayStage_Descr </t>
+          <t xml:space="preserve">select DecayStage_Descr, count(*) as numLogs  from tbl_Deadwood join tlu_DecayStage on tbl_Deadwood.Decay = tlu_DecayStage.DecayStage_ID where Event_ID in ( 	select Event_ID from tbl_Deadwood group by Event_ID order by count(*) desc limit 1 ) group by DecayStage_Descr  </t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2475,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT e.Event_ID, Deadwood_Count, Nest_Count  FROM tbl_Events AS e JOIN (     SELECT Event_ID, COUNT(*) AS Deadwood_Count     FROM tbl_Deadwood     GROUP BY Event_ID ) AS dw ON e.Event_ID = dw.Event_ID JOIN (     SELECT Event_ID, COUNT(*) AS Nest_Count     FROM tbl_Nests     GROUP BY Event_ID ) AS ne ON e.Event_ID = ne.Event_ID order by Deadwood_Count desc </t>
+          <t xml:space="preserve">SELECT e.Event_ID, Deadwood_Count, Nest_Count  FROM tbl_Events AS e JOIN (     SELECT Event_ID, COUNT(*) AS Deadwood_Count     FROM tbl_Deadwood     GROUP BY Event_ID ) AS dw ON e.Event_ID = dw.Event_ID JOIN (     SELECT Event_ID, COUNT(*) AS Nest_Count     FROM tbl_Nests     GROUP BY Event_ID ) AS ne ON e.Event_ID = ne.Event_ID order by Deadwood_Count desc  </t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2500,29 +2512,29 @@
           <t>SELECT l.Plot_ID, l.X_Coord, l.Y_Coord, l.Directions
 FROM tbl_Locations l
 JOIN (
-    SELECT e.Location_ID, COUNT(*) AS subplot_count
+    SELECT e.Location_ID, COUNT(*) AS nest_count
     FROM tbl_Events e
-    WHERE e.Event_Notes LIKE '%nested subplot%'
+    JOIN tbl_Nests n ON e.Event_ID = n.Event_ID
     GROUP BY e.Location_ID
-) sub ON l.Location_ID = sub.Location_ID
-ORDER BY sub.subplot_count DESC
-LIMIT 1</t>
+    ORDER BY nest_count DESC
+    LIMIT 1
+) AS sub ON l.Location_ID = sub.Location_ID</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT Plot_ID, X_Coord, Y_Coord, Directions  from tbl_Locations l JOIN tbl_Events e on e.Location_ID = l.Location_ID WHERE e.Event_ID in ( 	SELECT TOP 1 Event_ID  	from tbl_Nests  	group by Event_ID  	order by count(*)  ) </t>
+          <t xml:space="preserve">SELECT Plot_ID, X_Coord, Y_Coord, Directions  from tbl_Locations l JOIN tbl_Events e on e.Location_ID = l.Location_ID WHERE e.Event_ID in ( 	SELECT Event_ID  	from tbl_Nests  	group by Event_ID  	order by count(*) limit 1  )  </t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2565,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(DBH) AvgDBH from tbl_Overstory o join tlu_PlantSpecies p on o.SpCode = p.SpeciesCode where genus = 'Acer' </t>
+          <t xml:space="preserve">select avg(DBH) AvgDBH from tbl_Overstory o join tlu_PlantSpecies p on o.SpCode = p.SpeciesCode where genus = 'Acer'  </t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2595,7 +2607,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CanPos_Name, count(*) as treeCount from tlu_Can_Pos p join tbl_Overstory o on p.CanPos_Num = o.CanPos group by CanPos_Name </t>
+          <t xml:space="preserve">select CanPos_Name, count(*) as treeCount from tlu_Can_Pos p join tbl_Overstory o on p.CanPos_Num = o.CanPos group by CanPos_Name  </t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2639,7 +2651,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CommonName, TreeTag from tlu_PlantSpecies s join tbl_Overstory o on s.SpeciesCode = o.SpCode join tlu_Tree_Cond c on o.TreeCond = c.TreeCond_Num where TreeCond_Text = 'down' </t>
+          <t xml:space="preserve">select CommonName, TreeTag from tlu_PlantSpecies s join tbl_Overstory o on s.SpeciesCode = o.SpCode join tlu_Tree_Cond c on o.TreeCond = c.TreeCond_Num where TreeCond_Text = 'down'  </t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2681,7 +2693,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve">select spcode, count(*) as saplingCount from tbl_Saplings group by spcode having count(*) &gt; 20 </t>
+          <t xml:space="preserve">select spcode, count(*) as saplingCount from tbl_Saplings group by spcode having count(*) &gt; 20  </t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2720,7 +2732,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) as SaplingCount from tbl_Saplings where DClass3 &gt; 10 </t>
+          <t xml:space="preserve">select count(*) as SaplingCount from tbl_Saplings where DClass3 &gt; 10  </t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2761,7 +2773,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SpCode, max(Density) seedlingDensity from tbl_Seedlings group by SpCode </t>
+          <t xml:space="preserve">select SpCode, max(Density) seedlingDensity from tbl_Seedlings group by SpCode  </t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2800,7 +2812,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Event_ID) EventCount from tbl_Seedlings </t>
+          <t xml:space="preserve">select count(distinct Event_ID) EventCount from tbl_Seedlings  </t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2842,7 +2854,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve">select directions  from tbl_Tree_Tags t join tbl_Locations l on t.Location_ID = l.Location_ID where Tree_Tag_ID = 6 </t>
+          <t xml:space="preserve">select directions  from tbl_Tree_Tags t join tbl_Locations l on t.Location_ID = l.Location_ID where Tree_Tag_ID = 6  </t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2881,7 +2893,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription, Loc_Notes  from tbl_locations where Elevation &gt; 4000 </t>
+          <t xml:space="preserve">select SiteDescription, Loc_Notes  from tbl_locations where Elevation &gt; 4000  </t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2932,7 +2944,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_ID, CoverClass_Text, count(*) NestCount from tlu_Cover_Cls cc join tbl_Nests n on cc.CoverClass_Num = n.Cover group by Event_ID, CoverClass_Text </t>
+          <t xml:space="preserve">select Event_ID, CoverClass_Text, count(*) NestCount from tlu_Cover_Cls cc join tbl_Nests n on cc.CoverClass_Num = n.Cover group by Event_ID, CoverClass_Text  </t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2973,7 +2985,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Witness_Azimuth, Witness_stake from tbl_WitnessTrees where Witness_DBH &lt; 30 </t>
+          <t xml:space="preserve">select Witness_Azimuth, Witness_stake from tbl_WitnessTrees where Witness_DBH &lt; 30  </t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -3015,7 +3027,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve">select genus, species, count(*) treeCount from tlu_PlantSpecies s join tbl_WitnessTrees w on s.SpeciesCode = w.Witness_SpCode group by genus, species </t>
+          <t xml:space="preserve">select genus, species, count(*) treeCount from tlu_PlantSpecies s join tbl_WitnessTrees w on s.SpeciesCode = w.Witness_SpCode group by genus, species  </t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -3051,25 +3063,25 @@
         <is>
           <t>SELECT r.ListedName, r.ValidName
 FROM tlu_Roads_and_Trails r
-JOIN tbl_Locations l ON r.Layer = 'Trail' AND r.ListedName = l.Trail
-JOIN tbl_Events e ON l.Location_ID = e.Location_ID
+JOIN tbl_Locations l ON l.Trail = r.ListedName
+JOIN tbl_Events e ON e.Location_ID = l.Location_ID
 WHERE e.Event_ID = 2</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ListedName, ValidName  from tlu_Roads_and_Trails rt join tbl_locations l on l.Trail = rt.ListedName join tbl_Events e on e.Location_ID = l.Location_ID where e.Event_ID = 2 </t>
+          <t xml:space="preserve">select ListedName, ValidName  from tlu_Roads_and_Trails rt join tbl_locations l on l.Trail = rt.ListedName join tbl_Events e on e.Location_ID = l.Location_ID where e.Event_ID = 2  </t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3119,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve">select State, County, count(*) tagCount from tlu_PlaceNames pn join tbl_locations l on pn.id = l.PlaceNameID join tbl_Tree_Tags tg on l.Location_ID = tg.Location_ID group by State, County </t>
+          <t xml:space="preserve">select State, County, count(*) tagCount from tlu_PlaceNames pn join tbl_locations l on pn.id = l.PlaceNameID join tbl_Tree_Tags tg on l.Location_ID = tg.Location_ID group by State, County  </t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -3141,18 +3153,16 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SELECT Name, utmE AS East, utmN AS North
-FROM tlu_PlaceNames
-WHERE County = 'Blount'</t>
+          <t>SELECT Name, utmE, utmN FROM tlu_PlaceNames WHERE County = 'Blount'</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> select Name, utmE, utmN   from tlu_PlaceNames  where county = 'Blount' </t>
+          <t xml:space="preserve"> select Name, utmE, utmN   from tlu_PlaceNames  where county = 'Blount'  </t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -3190,7 +3200,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve">select t.TopoPosition from tlu_topo_position t join tbl_Locations l on l.Topo_Position = t.ID where x_coord = 269647 and y_coord = 3943851 </t>
+          <t xml:space="preserve">select t.TopoPosition from tlu_topo_position t join tbl_Locations l on l.Topo_Position = t.ID where x_coord = 269647 and y_coord = 3943851  </t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -3229,7 +3239,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Cond_Num from tlu_live_dead where Cond_Text = 'Dead' </t>
+          <t xml:space="preserve">select Cond_Num from tlu_live_dead where Cond_Text = 'Dead'  </t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -3268,7 +3278,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve">select pres_text  from tlu_presence where pres_num = 3 </t>
+          <t xml:space="preserve">select pres_text  from tlu_presence where pres_num = 3  </t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -3307,7 +3317,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Datum  from tsys_App_Defaults  </t>
+          <t xml:space="preserve">select Datum  from tsys_App_Defaults   </t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -3351,7 +3361,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct genus, species, CommonName from tlu_PlantSpecies sp join tbl_Overstory os on sp.SpeciesCode = os.SpCode join tbl_Tree_Tags tt on tt.Tree_Tag_ID = os.TreeTag join tbl_locations l on l.Location_ID = tt.Location_ID join tlu_PlaceNames pn on pn.ID = l.PlaceNameID where county = 'Swain' </t>
+          <t xml:space="preserve">select distinct genus, species, CommonName from tlu_PlantSpecies sp join tbl_Overstory os on sp.SpeciesCode = os.SpCode join tbl_Tree_Tags tt on tt.Tree_Tag_ID = os.TreeTag join tbl_locations l on l.Location_ID = tt.Location_ID join tlu_PlaceNames pn on pn.ID = l.PlaceNameID where county = 'Swain'  </t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -3396,7 +3406,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve">select species, CommonName from tlu_PlantSpecies sp where exists( 	select overstory_id  	from tbl_Overstory  	where SpCode = sp.SpeciesCode ) and not exists ( 	select Seedlings_ID  	from tbl_Seedlings  	where SpCode = sp.SpeciesCode ) </t>
+          <t xml:space="preserve">select species, CommonName from tlu_PlantSpecies sp where exists( 	select overstory_id  	from tbl_Overstory  	where SpCode = sp.SpeciesCode ) and not exists ( 	select Seedlings_ID  	from tbl_Seedlings  	where SpCode = sp.SpeciesCode )  </t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -3435,7 +3445,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Xcoord, Ycoord  from tbl_Tree_Tags where tag = 652 </t>
+          <t xml:space="preserve">select Xcoord, Ycoord  from tbl_Tree_Tags where tag = 652  </t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3469,7 +3479,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SELECT c.CoverClass_Text, COUNT(n.Nest_ID) AS Num_Nests
+          <t>SELECT c.CoverClass_Text, COUNT(n.Nest_ID) AS Nest_Count
 FROM tlu_Cover_Cls c
 LEFT JOIN tbl_Nests n ON c.CoverClass_Num = n.Cover
 GROUP BY c.CoverClass_Text</t>
@@ -3477,11 +3487,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CoverClass_Text, count(*) NestedSubplotCount from tbl_nests n join tlu_Cover_Cls r2 on n.r2 = r2.CoverClass_Num group by CoverClass_Text </t>
+          <t xml:space="preserve">select CoverClass_Text, count(*) NestedSubplotCount from tbl_nests n join tlu_Cover_Cls r2 on n.r2 = r2.CoverClass_Num group by CoverClass_Text  </t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -3511,21 +3521,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SELECT p.Pres_Text, COUNT(*) AS Subplot_Count
+          <t>SELECT p.Pres_Text, COUNT(n.Nest_ID) AS Subplot_Count
 FROM tlu_Presence p
-JOIN tbl_Nests n ON 
-    n.Presence_First = p.Pres_Num
-WHERE n.Module = 1
+JOIN tbl_Nests n ON n.Presence_First = p.Pres_Num
+WHERE n.Module = (
+    SELECT MIN(n2.Module)
+    FROM tbl_Nests n2
+    WHERE n2.Event_ID = n.Event_ID
+)
 GROUP BY p.Pres_Text</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve">select pres_text, count(*) NestedSubplotCount from tbl_nests n join tlu_Presence p on n.Presence_First = p.Pres_Num group by pres_text </t>
+          <t xml:space="preserve">select pres_text, count(*) NestedSubplotCount from tbl_nests n join tlu_Presence p on n.Presence_First = p.Pres_Num group by pres_text  </t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -3562,11 +3575,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve">select decay, max(MPD) maxMPD from tbl_Deadwood group by decay </t>
+          <t xml:space="preserve">select decay, max(MPD) maxMPD from tbl_Deadwood group by decay  </t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H75" t="b">
         <v>1</v>
@@ -3603,11 +3616,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve">select decay, max(length) maxLength from tbl_Deadwood group by decay </t>
+          <t xml:space="preserve">select decay, max(length) maxLength from tbl_Deadwood group by decay  </t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -3640,27 +3653,27 @@
           <t>SELECT DecayStage_Descr
 FROM tlu_DecayStage
 WHERE DecayStage_ID = (
-    SELECT DecayStage_ID
-    FROM tlu_DecayStage
-    ORDER BY CAST(DecayStage_ID AS REAL) ASC
+    SELECT Decay
+    FROM tbl_Deadwood
+    ORDER BY MPD ASC
     LIMIT 1
 )</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select top 1 decay 	from tbl_Deadwood 	order by MPD asc ) </t>
+          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select decay 	from tbl_Deadwood 	order by MPD asc limit 1 )  </t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -3686,27 +3699,27 @@
           <t>SELECT DecayStage_Descr
 FROM tlu_DecayStage
 WHERE DecayStage_ID = (
-    SELECT DecayStage_ID
-    FROM tlu_DecayStage
-ORDER BY LENGTH(DecayStage_Descr) ASC
-LIMIT 1
+    SELECT Decay
+    FROM tbl_Deadwood
+    ORDER BY Length ASC
+    LIMIT 1
 )</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select top 1 decay 	from tbl_Deadwood 	order by Length asc ) </t>
+          <t xml:space="preserve">select DecayStage_Descr from tlu_DecayStage ds where ds.DecayStage_ID in ( 	select decay 	from tbl_Deadwood 	order by Length asc limit 1 )  </t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -3736,7 +3749,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription, slope, Aspect, Loc_Notes, Accuracy_Notes from tbl_Locations where slope_shape = 'convex' </t>
+          <t xml:space="preserve">select SiteDescription, slope, Aspect, Loc_Notes, Accuracy_Notes from tbl_Locations where slope_shape = 'convex'  </t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3775,7 +3788,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve">select QuadName from tbl_Locations where Topo_Position = 7 </t>
+          <t xml:space="preserve">select QuadName from tbl_Locations where Topo_Position = 7  </t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3809,26 +3822,26 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SELECT t.TreeCond_Text, COUNT(s.Saplings_ID) AS SaplingCount
-FROM tlu_Tree_Cond t
-LEFT JOIN tbl_Saplings s ON t.TreeCond_Num = s.Condition
-GROUP BY t.TreeCond_Text</t>
+          <t>SELECT TreeCond_Text, COUNT(*) AS Sapling_Count
+FROM tlu_Tree_Cond
+JOIN tbl_Saplings ON tlu_Tree_Cond.TreeCond_Num = tbl_Saplings.Condition
+GROUP BY TreeCond_Text</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TreeCond_Text, count(*) saplingCount from tbl_Saplings s join tlu_Tree_Cond c on s.Condition = c.TreeCond_Num group by TreeCond_Text </t>
+          <t xml:space="preserve">select TreeCond_Text, count(*) saplingCount from tbl_Saplings s join tlu_Tree_Cond c on s.Condition = c.TreeCond_Num group by TreeCond_Text  </t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3869,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t xml:space="preserve">select notes  from VERTEBRATES where Ownership = 'BLM' and Common_Name like 'gray wolf' </t>
+          <t xml:space="preserve">select notes  from VERTEBRATES where Ownership = 'BLM' and Common_Name like 'gray wolf'  </t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -3897,7 +3910,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obsCount from VERTEBRATES where observer like 'Stefanic' or observer like 'Dennis Hauser' </t>
+          <t xml:space="preserve">select count(*) obsCount from VERTEBRATES where observer like 'Stefanic' or observer like 'Dennis Hauser'  </t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3946,7 +3959,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve">select definition, count(*) deerCount from breeding_codes bc join VERTEBRATES v on bc.Breed = v.BREED where Common_Name = 'mule deer' group by definition </t>
+          <t xml:space="preserve">select definition, count(*) deerCount from breeding_codes bc join VERTEBRATES v on bc.Breed = v.BREED where Common_Name = 'mule deer' group by definition  </t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -3985,7 +3998,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name, Genus_species  from INVERTEBRATES where class like 'arachnida' </t>
+          <t xml:space="preserve">select Common_Name, Genus_species  from INVERTEBRATES where class like 'arachnida'  </t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -4027,7 +4040,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct family  from INVERTEBRATES i where not exists ( 	select Invert_Family  	from Invert_Family 	where Invert_Family = i.Family ) and family IS NOT NULL </t>
+          <t xml:space="preserve">select distinct family  from INVERTEBRATES i where not exists ( 	select Invert_Family  	from Invert_Family 	where Invert_Family = i.Family ) and family IS NOT NULL  </t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -4061,18 +4074,16 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SELECT DISTINCT Species
-FROM Roadkill
-WHERE HWY_Mile_Marker = '235'</t>
+          <t>SELECT DISTINCT Species FROM Roadkill WHERE HWY_Mile_Marker = '235'</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Species  from Roadkill where HWY_Mile_Marker = '235' </t>
+          <t xml:space="preserve">select distinct Species  from Roadkill where HWY_Mile_Marker = '235'  </t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H87" t="b">
         <v>1</v>
@@ -4110,11 +4121,11 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Month, count(*) roadkillCount from Roadkill where year = 2014 group by Month </t>
+          <t xml:space="preserve">select Month, count(*) roadkillCount from Roadkill where year = 2014 group by Month  </t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
@@ -4149,7 +4160,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t xml:space="preserve">select comments  from roadkill where year &lt; 1990 </t>
+          <t xml:space="preserve">select comments  from roadkill where year &lt; 1990  </t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -4190,11 +4201,11 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) deerCount from roadkill where species like 'mule deer' and year = 2015 </t>
+          <t xml:space="preserve">select count(*) deerCount from roadkill where species like 'mule deer' and year = 2015  </t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -4224,20 +4235,17 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM Roadkill rk
-WHERE EXISTS (
-    SELECT 1 FROM VERTEBRATES v
-    WHERE rk.Date = v.Date
-)</t>
+          <t>SELECT COUNT(*) FROM Roadkill
+WHERE Date IN (SELECT Date FROM VERTEBRATES)</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) recordCount from Roadkill r where exists( 	select *  	from vertebrates 	where r.Date = Date ) </t>
+          <t xml:space="preserve">select count(*) recordCount from Roadkill r where exists( 	select *  	from vertebrates 	where r.Date = Date )  </t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="H91" t="b">
         <v>1</v>
@@ -4265,21 +4273,28 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>SELECT Species, Year, Month
+FROM Roadkill
+ORDER BY CAST(number_killed AS INTEGER) DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 species, year, month  from Roadkill order by number_killed desc </t>
+          <t xml:space="preserve">select  species, year, month  from Roadkill order by number_killed desc limit 1 </t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>-1</v>
+        <v>218</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -4318,7 +4333,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t xml:space="preserve">select definition, vertHabCount, invertHabCount from HABITAT_CODES h join ( 	select Habitat, count(*) vertHabCount 	from VERTEBRATES 	group by habitat ) v on v.Habitat = h.Code join ( 	select Habitat, count(*) invertHabCount 	from INVERTEBRATES 	group by habitat ) i on i.Habitat = h.Code </t>
+          <t xml:space="preserve">select definition, vertHabCount, invertHabCount from HABITAT_CODES h join ( 	select Habitat, count(*) vertHabCount 	from VERTEBRATES 	group by habitat ) v on v.Habitat = h.Code join ( 	select Habitat, count(*) invertHabCount 	from INVERTEBRATES 	group by habitat ) i on i.Habitat = h.Code  </t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -4364,7 +4379,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve">select definition from HABITAT_CODES where code in ( 	select Habitat 	from INVERTEBRATES 	group by habitat 	having count(*) &gt; 40 ) </t>
+          <t xml:space="preserve">select definition from HABITAT_CODES where code in ( 	select Habitat 	from INVERTEBRATES 	group by habitat 	having count(*) &gt; 40 )  </t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -4403,14 +4418,14 @@
 WHERE EXISTS (
     SELECT 1
     FROM VERTEBRATES V
-    WHERE I.Date = V.Date
-      AND I.Habitat = V.Habitat
+    WHERE V.Date = I.Date
+      AND V.Habitat = I.Habitat
 )</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t xml:space="preserve">select date, observer, Common_Name  from INVERTEBRATES i where exists ( 	select *  	from VERTEBRATES 	where i.date = date and i.Habitat = Habitat ) </t>
+          <t xml:space="preserve">select date, observer, Common_Name  from INVERTEBRATES i where exists ( 	select *  	from VERTEBRATES 	where i.date = date and i.Habitat = Habitat )  </t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -4448,22 +4463,27 @@
     i.Observer AS Invertebrate_Observer,
     v.Observer AS Vertebrate_Observer,
     i.Date,
-    hc.Definition AS Habitat_Definition
+    h.Definition AS Habitat_Definition
 FROM 
     INVERTEBRATES i
 JOIN 
-    VERTEBRATES v ON i.Habitat = v.Habitat AND i.Date = v.Date
+    VERTEBRATES v ON 
+        i.Habitat = v.Habitat AND 
+        DATE(i.Date) = DATE(v.Date)
 JOIN 
-    HABITAT_CODES hc ON i.Habitat = hc.Code</t>
+    HABITAT_CODES h ON 
+        i.Habitat = h.Code
+WHERE 
+    DATE(i.Date) = DATE(v.Date)</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve">select i.Observer, v.Observer, i.date, Definition from HABITAT_CODES h join INVERTEBRATES i on i.Habitat = h.Code join VERTEBRATES v on v.date = i.date and v.Habitat = i.Habitat </t>
+          <t xml:space="preserve">select i.Observer, v.Observer, i.date, Definition from HABITAT_CODES h join INVERTEBRATES i on i.Habitat = h.Code join VERTEBRATES v on v.date = i.date and v.Habitat = i.Habitat  </t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="H96" t="b">
         <v>1</v>
@@ -4500,7 +4520,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES group by OBS_TYPE </t>
+          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES group by OBS_TYPE  </t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -4539,7 +4559,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve">select location  from INVERTEBRATES where Genus_species like 'Trichodes ornatus' </t>
+          <t xml:space="preserve">select location  from INVERTEBRATES where Genus_species like 'Trichodes ornatus'  </t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -4584,18 +4604,18 @@
     FROM VERTEBRATES
     GROUP BY Observer
     HAVING COUNT(*) &gt; 0
-) AS ObserversTypes
+) AS Observations
 GROUP BY Observer
 HAVING COUNT(DISTINCT Type) = 1</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct observer from INVERTEBRATES except select distinct observer from VERTEBRATES </t>
+          <t xml:space="preserve">select distinct observer from INVERTEBRATES except select distinct observer from VERTEBRATES  </t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -4630,7 +4650,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t xml:space="preserve">select UTMN, UTME  from INVERTEBRATES where Common_Name like 'western white' </t>
+          <t xml:space="preserve">select UTMN, UTME  from INVERTEBRATES where Common_Name like 'western white'  </t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -4666,23 +4686,23 @@
         <is>
           <t>SELECT Common_Name, Scientific_Name
 FROM VERTEBRATES
-WHERE UTMN = 4814897 AND UTME = 291766</t>
+WHERE UTMN = 4814897 AND UTMX = 291766</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name, Scientific_Name from VERTEBRATES where UTMN = 4814897 and UTME = 291766 </t>
+          <t xml:space="preserve">select Common_Name, Scientific_Name from VERTEBRATES where UTMN = 4814897 and UTME = 291766  </t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4733,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct species from Roadkill where species not in ( 	select Common_Name 	from VERTEBRATES ) </t>
+          <t xml:space="preserve">select distinct species from Roadkill where species not in ( 	select Common_Name 	from VERTEBRATES )  </t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -4755,7 +4775,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t xml:space="preserve">select family, max(number) maxNum from INVERTEBRATES  where number IS NOT NULL group by family </t>
+          <t xml:space="preserve">select family, max(number) maxNum from INVERTEBRATES  where number IS NOT NULL group by family  </t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -4794,7 +4814,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) errorCount from Paste_Errors where Species like 'deer' </t>
+          <t xml:space="preserve">select count(*) errorCount from Paste_Errors where Species like 'deer'  </t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -4833,7 +4853,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct [order] from INVERTEBRATES where class like 'Insecta' </t>
+          <t xml:space="preserve">select distinct [order] from INVERTEBRATES where class like 'Insecta'  </t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -4875,7 +4895,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES where location like 'Hot springs' group by OBS_TYPE </t>
+          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from INVERTEBRATES where location like 'Hot springs' group by OBS_TYPE  </t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -4909,15 +4929,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>SELECT SURVEY, COUNT(*) AS Observation_Count
+          <t>SELECT OBS_TYPE, COUNT(*) AS Observation_Count
 FROM VERTEBRATES
 WHERE Observer = 'stefanic'
-GROUP BY SURVEY</t>
+GROUP BY OBS_TYPE</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t xml:space="preserve">select survey, count(*) stefCount from VERTEBRATES where observer like 'stefanic' group by survey </t>
+          <t xml:space="preserve">select survey, count(*) stefCount from VERTEBRATES where observer like 'stefanic' group by survey  </t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -4956,7 +4976,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Scientific_Name from WILDLIFE_MASTERLIST where Common_Name like 'moose' </t>
+          <t xml:space="preserve">select Scientific_Name from WILDLIFE_MASTERLIST where Common_Name like 'moose'  </t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -4998,7 +5018,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Location, count(*) gameCount from roadkill where Big_Game like 'yes' group by Location </t>
+          <t xml:space="preserve">select Location, count(*) gameCount from roadkill where Big_Game like 'yes' group by Location  </t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -5032,16 +5052,18 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM VERTEBRATES WHERE CLASS = 'Mammal'</t>
+          <t>SELECT COUNT(*) AS Mammal_Observations
+FROM VERTEBRATES
+WHERE CLASS = 'Mammal'</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) mammalCount from VERTEBRATES v join class c on c.Class = v.CLASS where Field2 = 'Mammal' </t>
+          <t xml:space="preserve">select count(*) mammalCount from VERTEBRATES v join class c on c.Class = v.CLASS where Field2 = 'Mammal'  </t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
@@ -5079,7 +5101,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t xml:space="preserve">select species, Common_Name,  Scientific_Name, Definition, number from VERTEBRATES v join HABITAT_CODES h on v.Habitat = h.Code where number &gt; 100 </t>
+          <t xml:space="preserve">select species, Common_Name,  Scientific_Name, Definition, number from VERTEBRATES v join HABITAT_CODES h on v.Habitat = h.Code where number &gt; 100  </t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -5122,7 +5144,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Scientific_Name  from WILDLIFE_MASTERLIST where Scientific_Name not in ( 	select Scientific_Name 	from VERTEBRATES ) </t>
+          <t xml:space="preserve">select Scientific_Name  from WILDLIFE_MASTERLIST where Scientific_Name not in ( 	select Scientific_Name 	from VERTEBRATES )  </t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -5165,7 +5187,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name  from WILDLIFE_MASTERLIST ml where not exists ( 	select * 	from INVERTEBRATES 	where ml.Common_Name = Common_Name ) </t>
+          <t xml:space="preserve">select Common_Name  from WILDLIFE_MASTERLIST ml where not exists ( 	select * 	from INVERTEBRATES 	where ml.Common_Name = Common_Name )  </t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -5211,7 +5233,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct species  from Roadkill r where year = 2014 and not exists ( 	select species  	from Roadkill 	where year = 2015 and r.Species = Species ) </t>
+          <t xml:space="preserve">select distinct species  from Roadkill r where year = 2014 and not exists ( 	select species  	from Roadkill 	where year = 2015 and r.Species = Species )  </t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -5243,21 +5265,30 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>SELECT HWY_Mile_Marker, COUNT(*) AS observation_count
+FROM Roadkill
+WHERE Year = '2021'
+GROUP BY HWY_Mile_Marker
+ORDER BY observation_count DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 HWY_Mile_Marker from roadkill where year = 2021 group by HWY_Mile_Marker order by count(location) desc </t>
+          <t xml:space="preserve">select  HWY_Mile_Marker from roadkill where year = 2021 group by HWY_Mile_Marker order by count(location) desc limit 1 </t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>-1</v>
+        <v>229</v>
       </c>
       <c r="H115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -5288,7 +5319,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from VERTEBRATES where observer = 'Buckley' group by OBS_TYPE </t>
+          <t xml:space="preserve">select OBS_TYPE, count(*) obsCount from VERTEBRATES where observer = 'Buckley' group by OBS_TYPE  </t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -5329,7 +5360,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t xml:space="preserve">select notes  from VERTEBRATES where Observer like 'stefanic' and Common_Name like 'dusky flycatcher' </t>
+          <t xml:space="preserve">select notes  from VERTEBRATES where Observer like 'stefanic' and Common_Name like 'dusky flycatcher'  </t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -5363,25 +5394,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>SELECT Common_Name, Genus_species, Class, Family, "Order"
+          <t>SELECT Common_Name, Genus_species, Class, Family, Order
 FROM INVERTEBRATES
 WHERE Location = 'Arco Tunnel'</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name, Genus_species, class, family, [order] from invertebrates where location like 'Arco Tunnel' </t>
+          <t xml:space="preserve">select Common_Name, Genus_species, class, family, [order] from invertebrates where location like 'Arco Tunnel'  </t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -5412,11 +5443,11 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t xml:space="preserve">select location, count(*) obsCount from INVERTEBRATES where location not like 'unknown' and observer like 'Munts' group by location </t>
+          <t xml:space="preserve">select location, count(*) obsCount from INVERTEBRATES where location not like 'unknown' and observer like 'Munts' group by location  </t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H119" t="b">
         <v>1</v>
@@ -5446,22 +5477,19 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SELECT DISTINCT INVERTEBRATES.Common_Name
-FROM INVERTEBRATES
-WHERE INVERTEBRATES.Habitat IN (
-    SELECT INVERTEBRATES.Habitat
-    FROM INVERTEBRATES
-    WHERE INVERTEBRATES.Common_Name = 'Northern Mockingbird'
-)</t>
+          <t>SELECT DISTINCT i1.Common_Name
+FROM INVERTEBRATES i1
+JOIN INVERTEBRATES i2 ON i1.Habitat = i2.Habitat
+WHERE i2.Common_Name = 'Northern Mockingbird'</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Common_Name  from INVERTEBRATES i where habitat in ( 	select Habitat 	from VERTEBRATES 	where Common_Name like 'Northern mockingbird' ) </t>
+          <t xml:space="preserve">select Common_Name  from INVERTEBRATES i where habitat in ( 	select Habitat 	from VERTEBRATES 	where Common_Name like 'Northern mockingbird' )  </t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="H120" t="b">
         <v>0</v>
@@ -5496,7 +5524,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) codeCount from HABITAT_CODES </t>
+          <t xml:space="preserve">select count(*) codeCount from HABITAT_CODES  </t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -5537,7 +5565,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_Notes, Location_ID from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID where DAY(Start_Date) = 5 	and MONTH(Start_Date) = 8 	and YEAR(Start_Date) = 2011 </t>
+          <t xml:space="preserve">select Event_Notes, Location_ID from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID WHERE date(Start_Date) between date('2011-08-05') AND date('2011-08-05') 	 	  </t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -5548,7 +5576,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -5579,18 +5607,18 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_Notes, Loc_Name from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID where DAY(Start_Date) = 5 	and MONTH(Start_Date) = 8 	and YEAR(Start_Date) = 2011 </t>
+          <t xml:space="preserve">select Event_Notes, Loc_Name from tbl_Event_Details d join tbl_Events e on e.Event_ID = d.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID WHERE date(Start_Date) between date('2011-08-05') AND date('2011-08-05') 	 	  </t>
         </is>
       </c>
       <c r="G123" t="n">
         <v>472</v>
       </c>
       <c r="H123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -5618,7 +5646,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) eventCount from tbl_events </t>
+          <t xml:space="preserve">select count(*) eventCount from tbl_events  </t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -5656,24 +5684,24 @@
 FROM (
     SELECT DISTINCT m.Event_ID
     FROM tbl_MicroHabitat m
-    INNER JOIN tbl_MacroHabitat c ON m.Event_ID = c.Event_ID
+    INNER JOIN tbl_MacroHabitat M ON m.Event_ID = M.Event_ID
 ) AS CombinedEvents</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*)  from tbl_MacroHabitat mac join tbl_MicroHabitat mic on mac.Event_ID = mic.Event_ID </t>
+          <t xml:space="preserve">select count(*)  from tbl_MacroHabitat mac join tbl_MicroHabitat mic on mac.Event_ID = mic.Event_ID  </t>
         </is>
       </c>
       <c r="G125" t="n">
         <v>335</v>
       </c>
       <c r="H125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -5703,7 +5731,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Slope) avgSlope from tbl_MacroHabitat where Hydrology = 'Upland' </t>
+          <t xml:space="preserve">select avg(Slope) avgSlope from tbl_MacroHabitat where Hydrology = 'Upland'  </t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -5735,21 +5763,28 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>SELECT Reason, Table, Field, Date_Change
+FROM tbl_Edit_Log
+ORDER BY Date_Change DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Reason, [Table], Field, Date_Change from tbl_Edit_Log order by Date_change desc </t>
+          <t xml:space="preserve">select  Reason, [Table], Field, Date_Change from tbl_Edit_Log order by Date_change desc limit 1 </t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>-1</v>
+        <v>219</v>
       </c>
       <c r="H127" t="b">
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -5779,7 +5814,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Soil_dist) avgSoilDisturbance from tbl_MicroHabitat where SurfaceWater &gt; 0 </t>
+          <t xml:space="preserve">select avg(Soil_dist) avgSoilDisturbance from tbl_MicroHabitat where SurfaceWater &gt; 0  </t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -5811,21 +5846,41 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>SELECT 
+    mh.LightIndex, 
+    mh.Evergreen, 
+    mh.Litter, 
+    mh.VegHeight, 
+    l.Elevation
+FROM 
+    tbl_MicroHabitat mh
+JOIN 
+    tbl_Events e ON mh.Event_ID = e.Event_ID
+JOIN 
+    tbl_Locations l ON e.Location_ID = l.Location_ID
+WHERE 
+    e.Start_Date = '2009-07-28'
+ORDER BY 
+    l.Elevation DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 LightIndex, Evergreen, Litter, VegHeight, Elevation from tbl_MicroHabitat m join tbl_Events e on m.Event_ID = e.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID where year(Start_Date) = 2009 and month(Start_Date) = 7 and day(Start_Date) = 28 order by Elevation desc </t>
+          <t xml:space="preserve">select LightIndex, Evergreen, Litter, VegHeight, Elevation from tbl_MicroHabitat m join tbl_Events e on m.Event_ID = e.Event_ID join tbl_Locations l on e.Location_ID = l.Location_ID WHERE date(Start_Date) BETWEEN date('2009-07-28') AND date('2009-07-28') order by Elevation desc limit 1  </t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>-1</v>
+        <v>610</v>
       </c>
       <c r="H129" t="b">
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -5853,7 +5908,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Species) SpeciesCount from tlu_Species_CRLA </t>
+          <t xml:space="preserve">select count(distinct Species) SpeciesCount from tlu_Species_CRLA  </t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -5892,7 +5947,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Species from tlu_Species_LABE where SampleYear = 2017 </t>
+          <t xml:space="preserve">select Species from tlu_Species_LABE where SampleYear = 2017  </t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -5934,7 +5989,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_ORCA group by SampleYear </t>
+          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_ORCA group by SampleYear  </t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -5975,7 +6030,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_REDW group by SampleYear </t>
+          <t xml:space="preserve">select SampleYear, count(distinct Species) SpeciesCount from tlu_Species_REDW group by SampleYear  </t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -6018,7 +6073,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Species from tlu_Species_REDW where Species not in ( 	select Species from tlu_Species_WHIS ) </t>
+          <t xml:space="preserve">select distinct Species from tlu_Species_REDW where Species not in ( 	select Species from tlu_Species_WHIS )  </t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -6059,7 +6114,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Species from tlu_Species_LAVO where Species in ( 	select Species 	from tlu_Species_ORCA ) </t>
+          <t xml:space="preserve">select distinct Species from tlu_Species_LAVO where Species in ( 	select Species 	from tlu_Species_ORCA )  </t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -6100,7 +6155,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Position_Title, City, State_Code, Zip_Code from tlu_Contacts where First_Name = 'Ivan' and Last_Name = 'C' </t>
+          <t xml:space="preserve">select Position_Title, City, State_Code, Zip_Code from tlu_Contacts where First_Name = 'Ivan' and Last_Name = 'C'  </t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -6139,7 +6194,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Position_Title  from tlu_Contacts where First_Name = 'Dominic' and Last_Name = 'D' </t>
+          <t xml:space="preserve">select Position_Title  from tlu_Contacts where First_Name = 'Dominic' and Last_Name = 'D'  </t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -6178,7 +6233,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Enum_Group) enumCount from tlu_Enumerations </t>
+          <t xml:space="preserve">select count(distinct Enum_Group) enumCount from tlu_Enumerations  </t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -6219,7 +6274,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Enum_Description from tlu_Enumerations where Enum_Group = 'Land Use' 	and Enum_Code = 'Logging' </t>
+          <t xml:space="preserve">select Enum_Description from tlu_Enumerations where Enum_Group = 'Land Use' 	and Enum_Code = 'Logging'  </t>
         </is>
       </c>
       <c r="G139" t="n">
@@ -6260,7 +6315,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Enum_Group, count(*) codeCount from tlu_Enumerations group by Enum_Group </t>
+          <t xml:space="preserve">select Enum_Group, count(*) codeCount from tlu_Enumerations group by Enum_Group  </t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -6302,7 +6357,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Revision_Reason, Revision_Desc from tbl_Db_Revisions r join tlu_Contacts c on r.Revision_Contact_ID = c.Contact_ID where First_Name = 'Allison' and Last_Name = 'S' </t>
+          <t xml:space="preserve">select Revision_Reason, Revision_Desc from tbl_Db_Revisions r join tlu_Contacts c on r.Revision_Contact_ID = c.Contact_ID where First_Name = 'Allison' and Last_Name = 'S'  </t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -6344,18 +6399,18 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t xml:space="preserve">select year(Revision_Date) YearRevised, count(*) RevisionCount from tbl_Db_Revisions group by year(Revision_Date) </t>
+          <t xml:space="preserve">select strftime('%Y', Revision_Date) YearRevised, count(*) RevisionCount from tbl_Db_Revisions group by strftime('%Y', Revision_Date)  </t>
         </is>
       </c>
       <c r="G142" t="n">
         <v>217</v>
       </c>
       <c r="H142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6376,21 +6431,28 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>SELECT Site_Name, Site_ID, Site_Desc, Length, Route
+FROM tbl_Sites
+ORDER BY Site_Start_Y DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Site_ID, Site_Name, Site_Desc, Length, Route from tbl_Sites order by Site_Start_Y desc </t>
+          <t xml:space="preserve">select  Site_ID, Site_Name, Site_Desc, Length, Route from tbl_Sites order by Site_Start_Y desc limit 1 </t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>-1</v>
+        <v>249</v>
       </c>
       <c r="H143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6420,7 +6482,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Site_Start_X, Site_End_X, Site_Start_Y, Site_End_Y from tbl_Sites where Site_Name = 'Nobles Pass C' </t>
+          <t xml:space="preserve">select Site_Start_X, Site_End_X, Site_Start_Y, Site_End_Y from tbl_Sites where Site_Name = 'Nobles Pass C'  </t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -6452,21 +6514,33 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>SELECT s.Site_Name, s.Site_ID
+FROM tbl_Sites s
+JOIN (
+    SELECT Site_ID, COUNT(*) AS LocationCount
+    FROM tbl_Locations
+    GROUP BY Site_ID
+) l ON s.Site_ID = l.Site_ID
+ORDER BY l.LocationCount DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Site_Name, count(*) LocationCount from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID group by Site_Name order by count(*) desc </t>
+          <t xml:space="preserve">select  Site_Name, count(*) LocationCount from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID group by Site_Name order by count(*) desc limit 1 </t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>-1</v>
+        <v>448</v>
       </c>
       <c r="H145" t="b">
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -6500,7 +6574,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID where site_name = 'North A' </t>
+          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord from tbl_Sites s join tbl_Locations l on s.Site_ID = l.Site_ID where site_name = 'North A'  </t>
         </is>
       </c>
       <c r="G146" t="n">
@@ -6532,21 +6606,36 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>SELECT First_Name
+FROM tlu_Contacts
+WHERE Contact_ID = (
+    SELECT Contact_ID
+    FROM (
+        SELECT xec.Contact_ID, COUNT(DISTINCT xec.Event_ID) AS Event_Count
+        FROM xref_Event_Contacts xec
+        GROUP BY xec.Contact_ID
+        ORDER BY Event_Count DESC
+        LIMIT 1
+    )
+)</t>
+        </is>
+      </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 First_Name from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID group by First_Name order by count(distinct event_id) desc </t>
+          <t xml:space="preserve">select  First_Name from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID group by First_Name order by count(distinct event_id) desc limit 1 </t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>-1</v>
+        <v>342</v>
       </c>
       <c r="H147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6578,18 +6667,18 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct First_Name, Last_Name, Position_Title from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID join tbl_Events e on x.Event_ID = e.Event_ID where year(Start_Date) = 2021 and month(Start_Date) = 8 </t>
+          <t xml:space="preserve">select distinct First_Name, Last_Name, Position_Title from tlu_Contacts c join xref_Event_Contacts x on c.Contact_ID = x.Contact_ID join tbl_Events e on x.Event_ID = e.Event_ID where date(Start_Date) &gt;= date('2021-08-01') and date(Start_Date) &lt;= date('2021-08-31')  </t>
         </is>
       </c>
       <c r="G148" t="n">
         <v>433</v>
       </c>
       <c r="H148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6610,21 +6699,36 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>SELECT 
+    l.Loc_Name, 
+    COUNT(e.Event_ID) AS Event_Count
+FROM 
+    tbl_Locations l
+JOIN 
+    tbl_Events e ON l.Location_ID = e.Location_ID
+GROUP BY 
+    l.Loc_Name
+ORDER BY 
+    Event_Count DESC
+LIMIT 10</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 10 Loc_Name, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID group by Loc_Name order by count(*) desc </t>
+          <t xml:space="preserve">select  Loc_Name, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID group by Loc_Name order by count(*) desc limit 10 </t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>-1</v>
+        <v>471</v>
       </c>
       <c r="H149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6645,21 +6749,40 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>SELECT 
+    s.Site_Name, 
+    s.Site_Desc, 
+    COUNT(e.Event_ID) AS Event_Count
+FROM 
+    tbl_Sites s
+JOIN 
+    tbl_Locations l ON s.Site_ID = l.Site_ID
+JOIN 
+    tbl_Events e ON l.Location_ID = e.Location_ID
+GROUP BY 
+    s.Site_Name, 
+    s.Site_Desc
+ORDER BY 
+    Event_Count DESC
+LIMIT 10</t>
+        </is>
+      </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 10 Site_Name, site_Desc, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID join tbl_Sites s on l.Site_ID = s.Site_ID group by Site_Name, Site_Desc order by count(*) desc </t>
+          <t xml:space="preserve">select  Site_Name, site_Desc, count(*) eventCount from tbl_locations l join tbl_events e on l.Location_ID = e.Location_ID join tbl_Sites s on l.Site_ID = s.Site_ID group by Site_Name, Site_Desc order by count(*) desc limit 10 </t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>-1</v>
+        <v>576</v>
       </c>
       <c r="H150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -6683,8 +6806,8 @@
       <c r="E151" t="inlineStr">
         <is>
           <t>SELECT 
-    EPE AS Estimated_Position_Error, 
-    HDOP AS Horizontal_Dilution_Position, 
+    EPE AS Estimated_Position_Error,
+    HDOP AS Horizontal_Dilution_Position,
     PDOP AS Trimble_Position_Dilution
 FROM 
     tbl_Locations
@@ -6696,11 +6819,11 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PDOP, HDOP, EPE from tbl_locations l join tbl_Sites s on l.Site_ID = s.Site_ID where site_name = 'Mule Town B' </t>
+          <t xml:space="preserve">select PDOP, HDOP, EPE from tbl_locations l join tbl_Sites s on l.Site_ID = s.Site_ID where site_name = 'Mule Town B'  </t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H151" t="b">
         <v>1</v>
@@ -6735,7 +6858,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) locCount from tbl_Locations where county = 'Shasta' </t>
+          <t xml:space="preserve">select count(*) locCount from tbl_Locations where county = 'Shasta'  </t>
         </is>
       </c>
       <c r="G152" t="n">
@@ -6777,11 +6900,11 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Loc_Type, count(*) locCount from tbl_Locations where county = 'Shasta' group by Loc_Type </t>
+          <t xml:space="preserve">select Loc_Type, count(*) locCount from tbl_Locations where county = 'Shasta' group by Loc_Type  </t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H153" t="b">
         <v>1</v>
@@ -6809,21 +6932,38 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>SELECT 
+    s.Site_Name, 
+    COUNT(l.Location_ID) AS Infested_Site_Count
+FROM 
+    tbl_Sites s
+JOIN 
+    tbl_Locations l ON s.Site_ID = l.Site_ID
+WHERE 
+    l.Loc_Type = 'infestation'
+GROUP BY 
+    s.Site_Name
+ORDER BY 
+    COUNT(l.Location_ID) DESC
+LIMIT 10</t>
+        </is>
+      </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 10 Site_Name, count(*) SiteCount from tbl_Locations l join tbl_sites s on l.Site_ID = s.Site_ID where loc_Type = 'Infestation' group by site_Name order by count(*) desc </t>
+          <t xml:space="preserve">select  Site_Name, count(*) SiteCount from tbl_Locations l join tbl_sites s on l.Site_ID = s.Site_ID where loc_Type = 'Infestation' group by site_Name order by count(*) desc limit 10 </t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>-1</v>
+        <v>475</v>
       </c>
       <c r="H154" t="b">
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -6849,16 +6989,17 @@
           <t>SELECT e.Event_ID
 FROM tbl_Events e
 JOIN tbl_Locations l ON e.Location_ID = l.Location_ID
-WHERE l.Watershed = 'Wood River' AND l.Subwatershed = 'Annie Creek'</t>
+WHERE l.Watershed = 'Wood River'
+  AND l.Subwatershed = 'Annie Creek'</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Event_ID from tbl_Events e join tbl_locations l on e.Location_ID = l.Location_ID where Watershed = 'Wood River' and Subwatershed = 'Annie Creek' </t>
+          <t xml:space="preserve">select Event_ID from tbl_Events e join tbl_locations l on e.Location_ID = l.Location_ID where Watershed = 'Wood River' and Subwatershed = 'Annie Creek'  </t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H155" t="b">
         <v>1</v>
@@ -6888,16 +7029,18 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>SELECT AVG(Elevation) FROM tbl_Locations WHERE Subwatershed = 'Annie Creek'</t>
+          <t>SELECT AVG(Elevation) AS Average_Elevation
+FROM tbl_Locations
+WHERE Subwatershed = 'Annie Creek'</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Elevation) avgElevation from tbl_locations where Subwatershed = 'Annie Creek' </t>
+          <t xml:space="preserve">select avg(Elevation) avgElevation from tbl_locations where Subwatershed = 'Annie Creek'  </t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H156" t="b">
         <v>1</v>
@@ -6934,7 +7077,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) LocCount from tbl_locations where Rnd_Plt_In = 'Yes' </t>
+          <t xml:space="preserve">select count(*) LocCount from tbl_locations where Rnd_Plt_In = 'Yes'  </t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -6975,7 +7118,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord, Coord_Units, Coord_System, Datum, Est_H_Error, Accuracy_Notes, Loc_Type from tbl_locations where Loc_Name = 'CRLA-Infestation-3924' </t>
+          <t xml:space="preserve">select Loc_Name, X_Coord, Y_Coord, Coord_Units, Coord_System, Datum, Est_H_Error, Accuracy_Notes, Loc_Type from tbl_locations where Loc_Name = 'CRLA-Infestation-3924'  </t>
         </is>
       </c>
       <c r="G158" t="n">
@@ -7016,7 +7159,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Hydrology, count(*) EventCount from tbl_MacroHabitat group by Hydrology </t>
+          <t xml:space="preserve">select Hydrology, count(*) EventCount from tbl_MacroHabitat group by Hydrology  </t>
         </is>
       </c>
       <c r="G159" t="n">
@@ -7067,18 +7210,18 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t xml:space="preserve">select MacroHab, MicroHab, Hydrology, LandUse, Slope, Aspect from tbl_MacroHabitat mh join tbl_Events e on mh.Event_ID = e.Event_ID where year(Start_Date) = 2015 and month(Start_Date) = 7 </t>
+          <t xml:space="preserve">select MacroHab, MicroHab, Hydrology, LandUse, Slope, Aspect from tbl_MacroHabitat mh join tbl_Events e on mh.Event_ID = e.Event_ID where date(Start_Date) &gt;= date('2015-07-01') and date(Start_Date) &lt;= date('2015-07-31')  </t>
         </is>
       </c>
       <c r="G160" t="n">
         <v>373</v>
       </c>
       <c r="H160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -7101,28 +7244,18 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>SELECT 
-    Deciduous, 
-    Shrub, 
-    Herb, 
-    WoodyDebris, 
-    Litter, 
-    BareGround, 
-    Rock
-FROM 
-    tbl_MicroHabitat
-WHERE 
-    Phenology = 'Flowering' 
-    AND CAST(CoverPercent AS NUMERIC) &gt; 90</t>
+          <t>SELECT Deciduous, Shrub, Herb, WoodyDebris, Litter, BareGround, Rock
+FROM tbl_MicroHabitat
+WHERE Phenology = 'Flowering' AND CAST(CoverPercent AS NUMERIC) &gt; 90</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Deciduous, Shrub, Herb, WoodyDebris, Litter, BareGround, Rock from tbl_MicroHabitat where Phenology = 'Flowering' 	and cast(CoverPercent as float) &gt; 90 </t>
+          <t xml:space="preserve">select Deciduous, Shrub, Herb, WoodyDebris, Litter, BareGround, Rock from tbl_MicroHabitat where Phenology = 'Flowering' 	and cast(CoverPercent as float) &gt; 90  </t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="H161" t="b">
         <v>1</v>
@@ -7160,18 +7293,18 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t xml:space="preserve">select year(Event_Date) EventsYear, count(*) eventCount from tbl_events group by year(Event_Date) </t>
+          <t xml:space="preserve">select strftime('%Y', Event_Date) EventsYear, count(*) eventCount from tbl_events group by strftime('%Y', Event_Date)  </t>
         </is>
       </c>
       <c r="G162" t="n">
         <v>205</v>
       </c>
       <c r="H162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -7199,7 +7332,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(MPD) avgDiameter from tbl_Deadwood where decay = '2a' </t>
+          <t xml:space="preserve">select avg(MPD) avgDiameter from tbl_Deadwood where decay = '2a'  </t>
         </is>
       </c>
       <c r="G163" t="n">
@@ -7238,7 +7371,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t xml:space="preserve">select directions from tbl_Locations where trail = 'maddron bald trail' </t>
+          <t xml:space="preserve">select directions from tbl_Locations where trail = 'maddron bald trail'  </t>
         </is>
       </c>
       <c r="G164" t="n">
@@ -7280,18 +7413,18 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription from tbl_locations l  join tbl_events e on e.Location_ID = l.Location_ID  where year(event_date) = 2001 </t>
+          <t xml:space="preserve">select SiteDescription from tbl_locations l  join tbl_events e on e.Location_ID = l.Location_ID  where strftime('%Y', Event_Date) = '2001'  </t>
         </is>
       </c>
       <c r="G165" t="n">
         <v>418</v>
       </c>
       <c r="H165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -7322,7 +7455,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct genus, species, CommonName from tbl_Nests n join tlu_PlantSpecies s on n.SpCode = s.SpeciesCode where Event_ID = 30 </t>
+          <t xml:space="preserve">select distinct genus, species, CommonName from tbl_Nests n join tlu_PlantSpecies s on n.SpCode = s.SpeciesCode where Event_ID = 30  </t>
         </is>
       </c>
       <c r="G166" t="n">
@@ -7357,20 +7490,19 @@
       <c r="E167" t="inlineStr">
         <is>
           <t>SELECT AVG(DBH) AS Average_Diameter
-FROM tbl_Overstory
-WHERE SpCode IN (
-    SELECT SpeciesCode FROM tlu_PlantSpecies WHERE CommonName LIKE '%montana%'
-)
-AND Event_ID IN (15, 16)</t>
+FROM tbl_Overstory o
+JOIN tlu_PlantSpecies p ON o.SpCode = p.SpeciesCode
+WHERE p.CommonName LIKE '%montana%'
+  AND o.Event_ID IN (15, 16)</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(DBH) avgDiameter from tbl_events e join tbl_Overstory o on e.Event_ID = o.Event_ID join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where species = 'montana' 	and e.Event_ID in (15, 16) </t>
+          <t xml:space="preserve">select avg(DBH) avgDiameter from tbl_events e join tbl_Overstory o on e.Event_ID = o.Event_ID join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where species = 'montana' 	and e.Event_ID in (15, 16)  </t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H167" t="b">
         <v>0</v>
@@ -7407,7 +7539,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t xml:space="preserve">select spcode, DClass1, DClass2, DClass3, DClass4 from tbl_Saplings where spcode = 'Abiefra' </t>
+          <t xml:space="preserve">select spcode, DClass1, DClass2, DClass3, DClass4 from tbl_Saplings where spcode = 'Abiefra'  </t>
         </is>
       </c>
       <c r="G168" t="n">
@@ -7449,7 +7581,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode where genus = 'Acer' </t>
+          <t xml:space="preserve">select avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode where genus = 'Acer'  </t>
         </is>
       </c>
       <c r="G169" t="n">
@@ -7500,7 +7632,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Location_ID, avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode join tbl_Events e on e.Event_ID = s.Event_ID where genus = 'Acer' group by Location_ID </t>
+          <t xml:space="preserve">select Location_ID, avg(Density) avgSeedlingDensity from tbl_seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode join tbl_Events e on e.Event_ID = s.Event_ID where genus = 'Acer' group by Location_ID  </t>
         </is>
       </c>
       <c r="G170" t="n">
@@ -7534,14 +7666,14 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>SELECT AVG(utmN) AS avg_north, AVG(utmE) AS avg_east
+          <t>SELECT AVG(utmE) AS avg_east, AVG(utmN) AS avg_north
 FROM tlu_PlaceNames
 WHERE County = 'Sevier' AND State = 'TN'</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(utmE) ECentroid, avg(utmN) NCentroid from tlu_PlaceNames where County = 'Sevier' and State = 'TN' </t>
+          <t xml:space="preserve">select avg(utmE) ECentroid, avg(utmN) NCentroid from tlu_PlaceNames where County = 'Sevier' and State = 'TN'  </t>
         </is>
       </c>
       <c r="G171" t="n">
@@ -7580,7 +7712,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t xml:space="preserve">select XCoord, Ycoord, SpCode from tbl_Tree_Tags where Tree_Tag_ID = 144 </t>
+          <t xml:space="preserve">select XCoord, Ycoord, SpCode from tbl_Tree_Tags where Tree_Tag_ID = 144  </t>
         </is>
       </c>
       <c r="G172" t="n">
@@ -7622,7 +7754,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TreeCond, count(*) treeCount from tbl_Tree_Tags tt join tbl_Overstory o on o.TreeTag = tt.Tree_Tag_ID where Tag &gt; 220 group by TreeCond </t>
+          <t xml:space="preserve">select TreeCond, count(*) treeCount from tbl_Tree_Tags tt join tbl_Overstory o on o.TreeTag = tt.Tree_Tag_ID where Tag &gt; 220 group by TreeCond  </t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -7656,151 +7788,152 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
+          <t>SELECT TreeCond_Text, COUNT(*) AS TotalCount
+FROM tlu_Tree_Cond
+JOIN tbl_Overstory ON tlu_Tree_Cond.TreeCond_Num = tbl_Overstory.TreeCond
+GROUP BY TreeCond_Text</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">select TreeCond_Text, count(*) TreeCount from tlu_Tree_Cond tc join tbl_Overstory o on o.TreeCond = tc.TreeCond_Num group by TreeCond_Text  </t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>260</v>
+      </c>
+      <c r="H174" t="b">
+        <v>1</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>full tuple compare succeeded</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>NorthernPlainsFireManagement</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>13</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>gpt-4.1-nano</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>SELECT Witness_SpCode, Witness_DBH
+FROM tbl_WitnessTrees
+WHERE Location_ID != 4
+ORDER BY ABS(Witness_Azimuth - Witness_stake) DESC
+LIMIT 1</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">select  Witness_SpCode, Witness_DBH from tbl_WitnessTrees where Location_ID &lt;&gt; 4 order by Witness_stake desc limit 1 </t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>241</v>
+      </c>
+      <c r="H175" t="b">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>full tuple compare failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>NorthernPlainsFireManagement</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>14</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>gpt-4.1-nano</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>SELECT COUNT(*) FROM tbl_Overstory WHERE CanPos = 2</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">select count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos where CanPos_Name = 'codominant'  </t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>221</v>
+      </c>
+      <c r="H176" t="b">
+        <v>1</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>full tuple compare succeeded</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>NorthernPlainsFireManagement</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>15</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>gpt-4.1-nano</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
           <t>SELECT 
-    tlu_Tree_Cond.TreeCond_Text, 
-    COUNT(tbl_Overstory.Overstory_ID) AS TotalCount
+    tlu_Can_Pos.CanPos_Name,
+    COUNT(tbl_Overstory.Overstory_ID) AS OverstoryCount
 FROM 
     tbl_Overstory
 JOIN 
-    tlu_Tree_Cond ON tbl_Overstory.TreeCond = tlu_Tree_Cond.TreeCond_Num
+    tlu_Can_Pos ON tbl_Overstory.CanPos = tlu_Can_Pos.CanPos_Num
+JOIN 
+    tlu_PlantSpecies ON tbl_Overstory.SpCode = tlu_PlantSpecies.SpeciesCode
+WHERE 
+    tlu_PlantSpecies.CommonName = 'Red Maple'
 GROUP BY 
-    tlu_Tree_Cond.TreeCond_Text</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t xml:space="preserve">select TreeCond_Text, count(*) TreeCount from tlu_Tree_Cond tc join tbl_Overstory o on o.TreeCond = tc.TreeCond_Num group by TreeCond_Text </t>
-        </is>
-      </c>
-      <c r="G174" t="n">
-        <v>290</v>
-      </c>
-      <c r="H174" t="b">
-        <v>1</v>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>full tuple compare succeeded</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>NorthernPlainsFireManagement</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>13</v>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>gpt-4.1-nano</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t xml:space="preserve">select top 1 Witness_SpCode, Witness_DBH from tbl_WitnessTrees where Location_ID &lt;&gt; 4 order by Witness_stake desc </t>
-        </is>
-      </c>
-      <c r="G175" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H175" t="b">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>empty result set</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>NorthernPlainsFireManagement</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>14</v>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>gpt-4.1-nano</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>SELECT COUNT(*) FROM tbl_Overstory WHERE CanPos = (SELECT CanPos_Num FROM tlu_Can_Pos WHERE CanPos_Name = 'codominant')</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t xml:space="preserve">select count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos where CanPos_Name = 'codominant' </t>
-        </is>
-      </c>
-      <c r="G176" t="n">
-        <v>240</v>
-      </c>
-      <c r="H176" t="b">
-        <v>1</v>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>full tuple compare succeeded</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>NorthernPlainsFireManagement</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>15</v>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>gpt-4.1-nano</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>SELECT 
-    c.CanPos_Name,
-    o.Overstory_ID,
-    COUNT(*) AS OverstoryCount
-FROM 
-    tbl_Overstory o
-JOIN 
-    tlu_Can_Pos c ON o.CanPos = c.CanPos_Num
-JOIN 
-    tlu_PlantSpecies s ON o.SpCode = s.SpeciesCode
-WHERE 
-    s.CommonName = 'Red Maple'
-GROUP BY 
-    c.CanPos_Name,
-    o.Overstory_ID</t>
+    tlu_Can_Pos.CanPos_Name</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CanPos_Name, count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos join tlu_PlantSpecies s on s.SpeciesCode = o.SpCode where CommonName = 'Red maple' group by CanPos_Name </t>
+          <t xml:space="preserve">select CanPos_Name, count(*) OverstoryCount from tlu_Can_Pos c join tbl_Overstory o on c.CanPos_Num = o.CanPos join tlu_PlantSpecies s on s.SpeciesCode = o.SpCode where CommonName = 'Red maple' group by CanPos_Name  </t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="H177" t="b">
         <v>0</v>
@@ -7838,7 +7971,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SiteDescription, Slope, Aspect, Slope_shape, Elevation from tbl_Locations l join tlu_topo_position p on l.Topo_Position = p.ID where TopoPosition = 'Midslope' </t>
+          <t xml:space="preserve">select SiteDescription, Slope, Aspect, Slope_shape, Elevation from tbl_Locations l join tlu_topo_position p on l.Topo_Position = p.ID where TopoPosition = 'Midslope'  </t>
         </is>
       </c>
       <c r="G178" t="n">
@@ -7880,7 +8013,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SpCode, CoverClass_Text from tbl_Nests n join tlu_Cover_Cls cc on n.cover = cc.CoverClass_Num where Nest_ID = 48 </t>
+          <t xml:space="preserve">select SpCode, CoverClass_Text from tbl_Nests n join tlu_Cover_Cls cc on n.cover = cc.CoverClass_Num where Nest_ID = 48  </t>
         </is>
       </c>
       <c r="G179" t="n">
@@ -7927,7 +8060,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t xml:space="preserve">select DecayStage_Descr, count(*) DeadWoodCount from tlu_DecayStage dc join tbl_Deadwood dw on dc.DecayStage_ID = dw.Decay group by DecayStage_Descr </t>
+          <t xml:space="preserve">select DecayStage_Descr, count(*) DeadWoodCount from tlu_DecayStage dc join tbl_Deadwood dw on dc.DecayStage_ID = dw.Decay group by DecayStage_Descr  </t>
         </is>
       </c>
       <c r="G180" t="n">
@@ -7966,7 +8099,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) from tlu_DecayStage </t>
+          <t xml:space="preserve">select count(*) from tlu_DecayStage  </t>
         </is>
       </c>
       <c r="G181" t="n">
@@ -8002,17 +8135,17 @@
         <is>
           <t>SELECT tbl_Deadwood.Length, tbl_Deadwood.MPD
 FROM tbl_Deadwood
-JOIN tlu_DecayStage ON tbl_Deadwood.Decay = tlu_DecayStage.DecayStage_Descr
+JOIN tlu_DecayStage ON tbl_Deadwood.Decay = tlu_DecayStage.DecayStage_ID
 WHERE tlu_DecayStage.DecayStage_Descr = 'log is flat'</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t xml:space="preserve">select length, mpd from tbl_Deadwood dw join tlu_DecayStage dc on dw.Decay = dc.DecayStage_ID where DecayStage_Descr like '%log is flat%' </t>
+          <t xml:space="preserve">select length, mpd from tbl_Deadwood dw join tlu_DecayStage dc on dw.Decay = dc.DecayStage_ID where DecayStage_Descr like '%log is flat%'  </t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H182" t="b">
         <v>0</v>
@@ -8050,7 +8183,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t xml:space="preserve">select genus from tlu_PlantSpecies sp join tbl_Nests n on n.SpCode = sp.SpeciesCode join tlu_R1_RestOfPlot r on n.R1 = r.Pres_Num where Pres_Text like '%species occurred in rest of plot%' </t>
+          <t xml:space="preserve">select genus from tlu_PlantSpecies sp join tbl_Nests n on n.SpCode = sp.SpeciesCode join tlu_R1_RestOfPlot r on n.R1 = r.Pres_Num where Pres_Text like '%species occurred in rest of plot%'  </t>
         </is>
       </c>
       <c r="G183" t="n">
@@ -8082,21 +8215,30 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>SELECT genus, COUNT(*) AS species_count
+FROM tlu_PlantSpecies
+WHERE SpeciesNotes LIKE '%native%'
+GROUP BY genus
+ORDER BY species_count DESC
+LIMIT 5</t>
+        </is>
+      </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 genus, count(*) speciesCount from tlu_PlantSpecies where SpeciesNotes like '%native%' group by genus order by count(*) desc </t>
+          <t xml:space="preserve">select  genus, count(*) speciesCount from tlu_PlantSpecies where SpeciesNotes like '%native%' group by genus order by count(*) desc limit 5 </t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>-1</v>
+        <v>241</v>
       </c>
       <c r="H184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8126,18 +8268,18 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Database_title, File_name, Release_notes, Author_email, Author_org_name from tsys_App_Releases where year(release_date) = 2015 </t>
+          <t xml:space="preserve">select Database_title, File_name, Release_notes, Author_email, Author_org_name from tsys_App_Releases where date(release_date) &gt;= date('2015-01-01') AND date(release_date) &lt;= date('2015-12-31')  </t>
         </is>
       </c>
       <c r="G185" t="n">
         <v>260</v>
       </c>
       <c r="H185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8165,7 +8307,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) from tlu_Slope_Shape </t>
+          <t xml:space="preserve">select count(*) from tlu_Slope_Shape  </t>
         </is>
       </c>
       <c r="G186" t="n">
@@ -8208,18 +8350,18 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Location_ID, avg(density) seedlingDensity from tbl_Seedlings s join tbl_Events e on s.Event_ID = e.Event_ID  where year(Event_Date) = 1999 group by Location_ID </t>
+          <t xml:space="preserve">select Location_ID, avg(density) seedlingDensity from tbl_Seedlings s join tbl_Events e on s.Event_ID = e.Event_ID  where strftime('%Y', Event_Date) = '1999' group by Location_ID  </t>
         </is>
       </c>
       <c r="G187" t="n">
         <v>279</v>
       </c>
       <c r="H187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8243,7 +8385,7 @@
       <c r="E188" t="inlineStr">
         <is>
           <t>SELECT 
-    strftime('%Y-%m', e.Event_Date) AS YearMonth,
+    strftime('%Y-%m', e.Event_Date) AS Month,
     AVG(o.DBH) AS Average_DBH
 FROM 
     tbl_Overstory o
@@ -8253,31 +8395,26 @@
     tlu_PlantSpecies p ON o.SpCode = p.SpeciesCode
 WHERE 
     p.CommonName = 'fraseri'
-    AND e.Event_ID IN (
-        SELECT Event_ID FROM (
-            SELECT Event_ID, COUNT(*) AS CountMeasurements
-            FROM tbl_Overstory
-            GROUP BY Event_ID
-        ) WHERE CountMeasurements = 1
-    )
 GROUP BY 
-    YearMonth</t>
+    Month
+HAVING 
+    COUNT(*) = 1</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t xml:space="preserve">select month(e.Event_Date) Mon, avg(DBH) avgFraseriDiam from tbl_Overstory o join tbl_events e on e.event_id = o.event_id join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where s.species = 'fraseri' group by month(e.Event_Date) </t>
+          <t xml:space="preserve">select strftime('%m', e.Event_Date) Mon, avg(DBH) avgFraseriDiam from tbl_Overstory o join tbl_events e on e.event_id = o.event_id join tlu_PlantSpecies s on o.SpCode = s.SpeciesCode where s.species = 'fraseri' group by strftime('%m', e.Event_Date)  </t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="H188" t="b">
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -8307,7 +8444,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails group by layer </t>
+          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails group by layer  </t>
         </is>
       </c>
       <c r="G189" t="n">
@@ -8349,7 +8486,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails where ValidName like '%Balsam%' group by layer </t>
+          <t xml:space="preserve">select layer, count(*) from tlu_Roads_and_Trails where ValidName like '%Balsam%' group by layer  </t>
         </is>
       </c>
       <c r="G190" t="n">
@@ -8390,7 +8527,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t xml:space="preserve">select State, count(*) placeCount from tlu_PlaceNames group by state </t>
+          <t xml:space="preserve">select State, count(*) placeCount from tlu_PlaceNames group by state  </t>
         </is>
       </c>
       <c r="G191" t="n">
@@ -8422,21 +8559,28 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>SELECT Name, County, State, utmE, utmN
+FROM tlu_PlaceNames
+ORDER BY utmN DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Name, County, State, utmE, utmN from tlu_PlaceNames order by utmN desc </t>
+          <t xml:space="preserve">select  Name, County, State, utmE, utmN from tlu_PlaceNames order by utmN desc limit 1 </t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>-1</v>
+        <v>214</v>
       </c>
       <c r="H192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8468,7 +8612,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Pres_Text, count(*) nestCount from tlu_Presence p join tbl_Nests n on p.Pres_Num = n.Presence_First where Event_ID = 30 group by Pres_text </t>
+          <t xml:space="preserve">select Pres_Text, count(*) nestCount from tlu_Presence p join tbl_Nests n on p.Pres_Num = n.Presence_First where Event_ID = 30 group by Pres_text  </t>
         </is>
       </c>
       <c r="G193" t="n">
@@ -8510,7 +8654,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t xml:space="preserve">select max(X_Coord) - min(X_Coord) xDist, max(Y_Coord) - min(Y_Coord) yDist from tbl_Locations </t>
+          <t xml:space="preserve">select max(X_Coord) - min(X_Coord) xDist, max(Y_Coord) - min(Y_Coord) yDist from tbl_Locations  </t>
         </is>
       </c>
       <c r="G194" t="n">
@@ -8542,21 +8686,32 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>SELECT genus, species, CommonName
+FROM tlu_PlantSpecies
+WHERE SpeciesCode = (
+    SELECT SpCode
+    FROM tbl_Seedlings
+    ORDER BY Density DESC
+    LIMIT 1
+)</t>
+        </is>
+      </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Genus, species, CommonName from tbl_Seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode order by density desc </t>
+          <t xml:space="preserve">select  Genus, species, CommonName from tbl_Seedlings s join tlu_PlantSpecies sp on s.SpCode = sp.SpeciesCode order by density desc limit 1 </t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>-1</v>
+        <v>277</v>
       </c>
       <c r="H195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -8577,21 +8732,30 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>SELECT strftime('%Y-%m', e.Event_Date) AS Month, AVG(s.Density) AS Avg_Density
+FROM tbl_Seedlings s
+JOIN tbl_Events e ON s.Event_ID = e.Event_ID
+GROUP BY Month
+ORDER BY Avg_Density DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 month(Event_Date) from tbl_seedlings s join tbl_Events e on s.Event_ID = e.Event_ID group by month(Event_Date) order by avg(Density) desc </t>
+          <t xml:space="preserve">select  strftime('%m', Event_Date) from tbl_seedlings s join tbl_Events e on s.Event_ID = e.Event_ID group by strftime('%m', Event_Date) order by avg(Density) desc limit 1  </t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>-1</v>
+        <v>274</v>
       </c>
       <c r="H196" t="b">
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -8629,7 +8793,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t xml:space="preserve">select CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode where Location_ID = 2 group by CommonName </t>
+          <t xml:space="preserve">select CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode where Location_ID = 2 group by CommonName  </t>
         </is>
       </c>
       <c r="G197" t="n">
@@ -8682,11 +8846,11 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t xml:space="preserve">select genus, CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode join tbl_Locations l on tg.Location_ID = l.Location_ID where Elevation &gt; 4000 group by genus, CommonName </t>
+          <t xml:space="preserve">select genus, CommonName, count(*) tagCount from tbl_Tree_Tags tg join tlu_PlantSpecies sp on tg.SpCode = sp.SpeciesCode join tbl_Locations l on tg.Location_ID = l.Location_ID where Elevation &gt; 4000 group by genus, CommonName  </t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H198" t="b">
         <v>1</v>
@@ -8723,7 +8887,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Eco_notes, coord_units, Coord_system, datum from tbl_locations where Plot_ID = 'A14_1' </t>
+          <t xml:space="preserve">select Eco_notes, coord_units, Coord_system, datum from tbl_locations where Plot_ID = 'A14_1'  </t>
         </is>
       </c>
       <c r="G199" t="n">
@@ -8762,7 +8926,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t xml:space="preserve">select loc_notes from tbl_locations where Other_Disturbance like '%probably post logging%' </t>
+          <t xml:space="preserve">select loc_notes from tbl_locations where Other_Disturbance like '%probably post logging%'  </t>
         </is>
       </c>
       <c r="G200" t="n">
@@ -8800,16 +8964,16 @@
     SELECT DISTINCT o.Event_ID
     FROM tbl_Overstory o
     INNER JOIN tbl_Deadwood d ON o.Event_ID = d.Event_ID
-) AS combined_events</t>
+) AS events_with_both</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Event_ID) eventCount from tbl_Deadwood d where d.Event_ID in (select event_id from tbl_Overstory) </t>
+          <t xml:space="preserve">select count(distinct Event_ID) eventCount from tbl_Deadwood d where d.Event_ID in (select event_id from tbl_Overstory)  </t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H201" t="b">
         <v>1</v>
@@ -8844,7 +9008,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT VIN) VEHCOUNT FROM GV </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT VIN) VEHCOUNT FROM GV  </t>
         </is>
       </c>
       <c r="G202" t="n">
@@ -8878,16 +9042,16 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM FIRE WHERE FIRE IS NOT NULL</t>
+          <t>SELECT COUNT(*) FROM FIRE WHERE FIRE IS NOT NULL AND FIRE != 0</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM FIRE </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM FIRE  </t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H203" t="b">
         <v>0</v>
@@ -8922,7 +9086,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT CRASHYEAR FROM CRASH </t>
+          <t xml:space="preserve">SELECT DISTINCT CRASHYEAR FROM CRASH  </t>
         </is>
       </c>
       <c r="G204" t="n">
@@ -8956,16 +9120,16 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM EDREVENT WHERE NUMEVNTS &gt; 0</t>
+          <t>SELECT COUNT(*) AS total_events FROM EDREVENT WHERE NUMEVNTS &gt; 0</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) AS RECORDEDEVENTCOUNT FROM EDREVENT </t>
+          <t xml:space="preserve">SELECT COUNT(*) AS RECORDEDEVENTCOUNT FROM EDREVENT  </t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H205" t="b">
         <v>0</v>
@@ -9002,7 +9166,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE EMSDATA = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE EMSDATA = 1  </t>
         </is>
       </c>
       <c r="G206" t="n">
@@ -9041,7 +9205,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) CASECOUNT FROM JKWGT WHERE CATEGORY = 3 </t>
+          <t xml:space="preserve">SELECT COUNT(*) CASECOUNT FROM JKWGT WHERE CATEGORY = 3  </t>
         </is>
       </c>
       <c r="G207" t="n">
@@ -9075,16 +9239,16 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>SELECT AVG(JKWGT3) AS average_weight FROM JKWGT</t>
+          <t>SELECT AVG(JKWGT3) FROM JKWGT</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(JKWGT3) WGT3AVG FROM JKWGT </t>
+          <t xml:space="preserve">SELECT AVG(JKWGT3) WGT3AVG FROM JKWGT  </t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H208" t="b">
         <v>1</v>
@@ -9115,24 +9279,23 @@
       <c r="E209" t="inlineStr">
         <is>
           <t>SELECT AVG(JKWGT5) AS average_weight
-FROM JKWGT
-GROUP BY CATEGORY</t>
+FROM JKWGT</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CATEGORY, AVG(JKWGT5) WGT5AVG FROM JKWGT GROUP BY CATEGORY </t>
+          <t xml:space="preserve">SELECT CATEGORY, AVG(JKWGT5) WGT5AVG FROM JKWGT GROUP BY CATEGORY  </t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H209" t="b">
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Insufficient number of columns in generated result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -9160,7 +9323,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM GV WHERE ALCTESTRESULT &gt; 250 AND ALCTESTRESULT &lt; 500 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM GV WHERE ALCTESTRESULT &gt; 250 AND ALCTESTRESULT &lt; 500  </t>
         </is>
       </c>
       <c r="G210" t="n">
@@ -9201,7 +9364,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT V.MAKE, V.MODEL, CURBWT FROM GV  JOIN VPICDECODE V ON GV.CASEID = V.CASEID AND GV.VEHNO = V.VEHNO WHERE CURBWT &gt;= 2000 AND CURBWT &lt;= 3000 </t>
+          <t xml:space="preserve">SELECT V.MAKE, V.MODEL, CURBWT FROM GV  JOIN VPICDECODE V ON GV.CASEID = V.CASEID AND GV.VEHNO = V.VEHNO WHERE CURBWT &gt;= 2000 AND CURBWT &lt;= 3000  </t>
         </is>
       </c>
       <c r="G211" t="n">
@@ -9242,7 +9405,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT INSPTYPE, COUNT(*) AS VEHCOUNT FROM GV GROUP BY INSPTYPE </t>
+          <t xml:space="preserve">SELECT INSPTYPE, COUNT(*) AS VEHCOUNT FROM GV GROUP BY INSPTYPE  </t>
         </is>
       </c>
       <c r="G212" t="n">
@@ -9283,7 +9446,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT LIGHTCOND, COUNT(DISTINCT CASEID) FROM GV GROUP BY LIGHTCOND </t>
+          <t xml:space="preserve">SELECT LIGHTCOND, COUNT(DISTINCT CASEID) FROM GV GROUP BY LIGHTCOND  </t>
         </is>
       </c>
       <c r="G213" t="n">
@@ -9317,23 +9480,23 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM GV WHERE DRUGTEST = 1 AND TOWED = 3</t>
+          <t>SELECT COUNT(*) FROM GV WHERE PARDRUG = 1 AND TOWED = 3</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE PARDRUG = 1 AND TOWED = 3 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE PARDRUG = 1 AND TOWED = 3  </t>
         </is>
       </c>
       <c r="G214" t="n">
         <v>714</v>
       </c>
       <c r="H214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>full tuple compare failed</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -9363,11 +9526,11 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RUMBROAD, COUNT(*) VEHCOUNT FROM GV GROUP BY RUMBROAD </t>
+          <t xml:space="preserve">SELECT RUMBROAD, COUNT(*) VEHCOUNT FROM GV GROUP BY RUMBROAD  </t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H215" t="b">
         <v>0</v>
@@ -9399,28 +9562,26 @@
         <is>
           <t>SELECT 
     GV.VEHNO,
-    GV.SPEEDLIMIT AS Road_Speed_Limit,
-    MAX(EDR.PVALUE) AS Max_Speed_Recorded,
-    MAX(EDR.PVALUE) - GV.SPEEDLIMIT AS Speed_Difference
+    GV.SPEEDLIMIT AS road_speed_limit,
+    MAX(EDRPT.PVALUE) AS max_recorded_speed,
+    MAX(EDRPT.PVALUE) - GV.SPEEDLIMIT AS difference
 FROM 
     GV
 JOIN 
-    EDRPRECRASH EDR ON GV.CASEID = EDR.CASEID AND GV.PSU = EDR.PSU AND GV.CASENO = EDR.CASENO
+    EDRPRECRASH EDRPT ON GV.CASEID = EDRPT.CASEID AND GV.PSU = EDRPT.PSU AND GV.CASENO = EDRPT.CASENO
 WHERE 
-    GV.SPEEDLIMIT &lt; 300 AND
-    EDR.PCODE = 1010 AND
-    EDR.PVALUE &lt; 300
+    GV.SPEEDLIMIT &lt; 300 AND EDRPT.PVALUE &lt; 300
 GROUP BY 
     GV.VEHNO, GV.SPEEDLIMIT</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT SPEEDLIMIT, MAXSPEED, MAXSPEED - SPEEDLIMIT DIFF FROM GV JOIN ( 	SELECT CASEID, VEHNO, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH 	WHERE PCODE = 1010 AND PVALUE &lt; 300 	GROUP BY CASEID, VEHNO ) S ON GV.CASEID = S.CASEID AND GV.VEHNO = S.VEHNO WHERE SPEEDLIMIT &lt; 300 </t>
+          <t xml:space="preserve">SELECT SPEEDLIMIT, MAXSPEED, MAXSPEED - SPEEDLIMIT DIFF FROM GV JOIN ( 	SELECT CASEID, VEHNO, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH 	WHERE PCODE = 1010 AND PVALUE &lt; 300 	GROUP BY CASEID, VEHNO ) S ON GV.CASEID = S.CASEID AND GV.VEHNO = S.VEHNO WHERE SPEEDLIMIT &lt; 300  </t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>982</v>
+        <v>912</v>
       </c>
       <c r="H216" t="b">
         <v>0</v>
@@ -9457,7 +9618,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(STRKLENGTH) AVGLENGTH FROM GV WHERE STRKLENGTH BETWEEN 0 AND 120 </t>
+          <t xml:space="preserve">SELECT AVG(STRKLENGTH) AVGLENGTH FROM GV WHERE STRKLENGTH BETWEEN 0 AND 120  </t>
         </is>
       </c>
       <c r="G217" t="n">
@@ -9496,7 +9657,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE TRAFDEV = 3 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE TRAFDEV = 3  </t>
         </is>
       </c>
       <c r="G218" t="n">
@@ -9537,7 +9698,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT INTMAG, COUNT(DISTINCT(CONCAT(CASEID, VEHNO))) VEHCOUNT FROM INTRUSION GROUP BY INTMAG </t>
+          <t xml:space="preserve">SELECT INTMAG, COUNT(DISTINCT(CONCAT(CASEID, VEHNO))) VEHCOUNT FROM INTRUSION GROUP BY INTMAG  </t>
         </is>
       </c>
       <c r="G219" t="n">
@@ -9578,7 +9739,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT INTMAG, (COUNT(DISTINCT CASEID)) CRASHCOUNT FROM INTRUSION GROUP BY INTMAG </t>
+          <t xml:space="preserve">SELECT INTMAG, (COUNT(DISTINCT CASEID)) CRASHCOUNT FROM INTRUSION GROUP BY INTMAG  </t>
         </is>
       </c>
       <c r="G220" t="n">
@@ -9619,7 +9780,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, INTCOMP, INTMAG, INTDIRECT FROM INTRUSION WHERE CASEID &lt; 20392 </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, INTCOMP, INTMAG, INTDIRECT FROM INTRUSION WHERE CASEID &lt; 20392  </t>
         </is>
       </c>
       <c r="G221" t="n">
@@ -9658,7 +9819,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT VEHNO, INTDIRECT FROM INTRUSION WHERE CASEID = 20387 </t>
+          <t xml:space="preserve">SELECT VEHNO, INTDIRECT FROM INTRUSION WHERE CASEID = 20387  </t>
         </is>
       </c>
       <c r="G222" t="n">
@@ -9699,7 +9860,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY GROUP BY REGION </t>
+          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY GROUP BY REGION  </t>
         </is>
       </c>
       <c r="G223" t="n">
@@ -9740,11 +9901,11 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY GROUP BY AIS </t>
+          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY GROUP BY AIS  </t>
         </is>
       </c>
       <c r="G224" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H224" t="b">
         <v>0</v>
@@ -9779,7 +9940,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) INJCOUNT FROM ICS WHERE SOE = 999 </t>
+          <t xml:space="preserve">SELECT COUNT(*) INJCOUNT FROM ICS WHERE SOE = 999  </t>
         </is>
       </c>
       <c r="G225" t="n">
@@ -9821,7 +9982,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY WHERE AIS = 5 GROUP BY REGION </t>
+          <t xml:space="preserve">SELECT REGION, COUNT(*) INJCOUNT FROM INJURY WHERE AIS = 5 GROUP BY REGION  </t>
         </is>
       </c>
       <c r="G226" t="n">
@@ -9863,7 +10024,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY WHERE REGION = 6 GROUP BY AIS </t>
+          <t xml:space="preserve">SELECT AIS, COUNT(*) INJCOUNT FROM INJURY WHERE REGION = 6 GROUP BY AIS  </t>
         </is>
       </c>
       <c r="G227" t="n">
@@ -9899,22 +10060,18 @@
         <is>
           <t>SELECT Make, COUNT(*) AS MinorInjuriesCount
 FROM INJURY
-JOIN VPICDECODE ON INJURY.CASEID = VPICDECODE.CASEID
-  AND INJURY.PSU = VPICDECODE.PSU
-  AND INJURY.CASENO = VPICDECODE.CASENO
-  AND INJURY.CASENUMBER = VPICDECODE.CASENUMBER
-  AND INJURY.CATEGORY = VPICDECODE.CATEGORY
+JOIN VPICDECODE ON INJURY.CASEID = VPICDECODE.CASEID AND INJURY.PSU = VPICDECODE.PSU AND INJURY.CASENO = VPICDECODE.CASENO
 WHERE INJURY.INJLEVEL = 1
 GROUP BY Make</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) MINORINJURIES FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE AIS = 1 GROUP BY MAKE </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) MINORINJURIES FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE AIS = 1 GROUP BY MAKE  </t>
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1509</v>
+        <v>1472</v>
       </c>
       <c r="H228" t="b">
         <v>0</v>
@@ -9942,21 +10099,31 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>SELECT ManufacturerFullName, COUNT(*) AS NeckInjuryCount
+FROM INJURY
+JOIN VPICDECODE ON INJURY.CASEID = VPICDECODE.CASEID AND INJURY.PSU = VPICDECODE.PSU AND INJURY.CASENO = VPICDECODE.CASENO
+WHERE INJURY.INJNO = 1 -- assuming INJNO=1 corresponds to neck injuries
+GROUP BY ManufacturerFullName
+ORDER BY NeckInjuryCount DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 MAKE FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE REGION = 3 GROUP BY MAKE ORDER BY COUNT(*) </t>
+          <t xml:space="preserve">SELECT  MAKE FROM VPICDECODE V JOIN INJURY I ON  V.CASEID = I.CASEID AND V.VEHNO = I.VEHNO WHERE REGION = 3 GROUP BY MAKE ORDER BY COUNT(*) limit 1 </t>
         </is>
       </c>
       <c r="G229" t="n">
-        <v>-1</v>
+        <v>1486</v>
       </c>
       <c r="H229" t="b">
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -9979,16 +10146,18 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>SELECT AVG(NOTIFIED) FROM EMSCARE WHERE NOTIFIED &lt;= 1000</t>
+          <t>SELECT AVG(NOTIFIED) AS average_notification_time
+FROM EMSCARE
+WHERE NOTIFIED &lt;= 1000</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(NOTIFIED) AVGNOTIFICATIONTIME FROM EMSCARE WHERE NOTIFIED &lt;= 1000 </t>
+          <t xml:space="preserve">SELECT AVG(NOTIFIED) AVGNOTIFICATIONTIME FROM EMSCARE WHERE NOTIFIED &lt;= 1000  </t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H230" t="b">
         <v>1</v>
@@ -10025,7 +10194,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(SCENEARR) AVGARRIVALTIME FROM EMSCARE WHERE SCENEARR &lt;= 1600 </t>
+          <t xml:space="preserve">SELECT AVG(SCENEARR) AVGARRIVALTIME FROM EMSCARE WHERE SCENEARR &lt;= 1600  </t>
         </is>
       </c>
       <c r="G231" t="n">
@@ -10066,7 +10235,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(SCENEDEP) AVGDEPTIME FROM EMSCARE WHERE SCENEDEP &lt;= 1600 </t>
+          <t xml:space="preserve">SELECT AVG(SCENEDEP) AVGDEPTIME FROM EMSCARE WHERE SCENEDEP &lt;= 1600  </t>
         </is>
       </c>
       <c r="G232" t="n">
@@ -10107,7 +10276,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(ARRMEDICAL) AVGMEDARRIVE FROM EMSCARE WHERE ARRMEDICAL &lt;= 1600 </t>
+          <t xml:space="preserve">SELECT AVG(ARRMEDICAL) AVGMEDARRIVE FROM EMSCARE WHERE ARRMEDICAL &lt;= 1600  </t>
         </is>
       </c>
       <c r="G233" t="n">
@@ -10144,8 +10313,8 @@
           <t>SELECT 
     CASEID,
     (NOTIFIED - OCCNO) AS TimeToNotify,
-    (SCENEARR - NOTIFIED) AS TimeToArrive,
-    (SCENEDEP - SCENEARR) AS TimeToDepart,
+    (SCENEARR - NOTIFIED) AS TimeToArriveScene,
+    (SCENEDEP - SCENEARR) AS TimeToDepartScene,
     (ARRMEDICAL - SCENEDEP) AS TimeToHospital
 FROM EMSCARE
 WHERE EMSAGENCY = 1</t>
@@ -10153,11 +10322,11 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, NOTIFIED, SCENEARR, SCENEDEP, ARRMEDICAL FROM EMSCARE WHERE EMSTYPE = 1 </t>
+          <t xml:space="preserve">SELECT CASEID, NOTIFIED, SCENEARR, SCENEDEP, ARRMEDICAL FROM EMSCARE WHERE EMSTYPE = 1  </t>
         </is>
       </c>
       <c r="G234" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H234" t="b">
         <v>0</v>
@@ -10192,7 +10361,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) TACOMACOUNT FROM VPICDECODE WHERE MAKE = 'TOYOTA' AND MODEL = 'TACOMA' </t>
+          <t xml:space="preserve">SELECT COUNT(*) TACOMACOUNT FROM VPICDECODE WHERE MAKE = 'TOYOTA' AND MODEL = 'TACOMA'  </t>
         </is>
       </c>
       <c r="G235" t="n">
@@ -10234,7 +10403,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MODELYR, COUNT(*) VEHCOUNT FROM GV GROUP BY MODELYR ORDER BY MODELYR </t>
+          <t xml:space="preserve">SELECT MODELYR, COUNT(*) VEHCOUNT FROM GV GROUP BY MODELYR ORDER BY MODELYR  </t>
         </is>
       </c>
       <c r="G236" t="n">
@@ -10266,21 +10435,29 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>SELECT Make
+FROM VPICDECODE
+GROUP BY Make
+ORDER BY AVG(ModelYear) ASC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 MAKE, AVG(MODELYEAR) AVGYEAR FROM VPICDECODE GROUP BY MAKE ORDER BY AVGYEAR ASC </t>
+          <t xml:space="preserve">SELECT  MAKE, AVG(MODELYEAR) AVGYEAR FROM VPICDECODE GROUP BY MAKE ORDER BY AVGYEAR ASC limit 1 </t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>-1</v>
+        <v>1330</v>
       </c>
       <c r="H237" t="b">
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -10308,11 +10485,11 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE DRPRESENT = 0 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV WHERE DRPRESENT = 0  </t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>703</v>
+        <v>674</v>
       </c>
       <c r="H238" t="b">
         <v>0</v>
@@ -10347,11 +10524,11 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV  WHERE ZIP = 95020 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM GV  WHERE ZIP = 95020  </t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H239" t="b">
         <v>1</v>
@@ -10388,11 +10565,11 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DRUGTEST, COUNT(*) FROM GV GROUP BY DRUGTEST </t>
+          <t xml:space="preserve">SELECT DRUGTEST, COUNT(*) FROM GV GROUP BY DRUGTEST  </t>
         </is>
       </c>
       <c r="G240" t="n">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H240" t="b">
         <v>1</v>
@@ -10422,23 +10599,23 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>SELECT DISTINCT CATEGORY FROM GLAZING</t>
+          <t>SELECT DISTINCT GLAZPRE FROM GLAZING</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT GLAZPRE FROM GLAZING </t>
+          <t xml:space="preserve">SELECT DISTINCT GLAZPRE FROM GLAZING  </t>
         </is>
       </c>
       <c r="G241" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -10468,7 +10645,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CDCPLANE, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC GROUP BY CDCPLANE </t>
+          <t xml:space="preserve">SELECT CDCPLANE, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC GROUP BY CDCPLANE  </t>
         </is>
       </c>
       <c r="G242" t="n">
@@ -10502,18 +10679,16 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) AS total_accidents
-FROM INTERIOR
-WHERE GLAZINGCONT = 1</t>
+          <t>SELECT COUNT(*) FROM INTERIOR WHERE GLAZINGCONT != 0</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) ACCIDENTCOUNT FROM INTERIOR WHERE GLAZINGCONT = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) ACCIDENTCOUNT FROM INTERIOR WHERE GLAZINGCONT = 1  </t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="H243" t="b">
         <v>0</v>
@@ -10541,21 +10716,30 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr"/>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>SELECT RECFRONT1 AS TireSize, COUNT(*) AS Count
+FROM TIREPLAC
+WHERE RECFRONT1 != '9999999999'
+GROUP BY RECFRONT1
+ORDER BY Count DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 RECFRONT1 FROM TIREPLAC T WHERE RECFRONT1 &lt;&gt; '9999999999' GROUP BY RECFRONT1 ORDER BY COUNT(*) DESC </t>
+          <t xml:space="preserve">SELECT  RECFRONT1 FROM TIREPLAC T WHERE RECFRONT1 &lt;&gt; '9999999999' GROUP BY RECFRONT1 ORDER BY COUNT(*) DESC limit 1 </t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>-1</v>
+        <v>323</v>
       </c>
       <c r="H244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -10583,11 +10767,11 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) AS WINDSHIELD_DAMAGE_COUNT FROM GLAZING WHERE GLAZLOC = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(*) AS WINDSHIELD_DAMAGE_COUNT FROM GLAZING WHERE GLAZLOC = 1  </t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="H245" t="b">
         <v>0</v>
@@ -10624,11 +10808,11 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT GLAZIMP, COUNT(DISTINCT VIN) AS VEHCOUNT FROM GLAZING GZ JOIN GV ON GV.CASEID = GZ.CASEID AND GV.VEHNO = GZ.VEHNO GROUP BY GLAZIMP ORDER BY GLAZIMP </t>
+          <t xml:space="preserve">SELECT GLAZIMP, COUNT(DISTINCT VIN) AS VEHCOUNT FROM GLAZING GZ JOIN GV ON GV.CASEID = GZ.CASEID AND GV.VEHNO = GZ.VEHNO GROUP BY GLAZIMP ORDER BY GLAZIMP  </t>
         </is>
       </c>
       <c r="G246" t="n">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H246" t="b">
         <v>0</v>
@@ -10663,7 +10847,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) CRASHCOUNT FROM ADAPT </t>
+          <t xml:space="preserve">SELECT COUNT(*) CRASHCOUNT FROM ADAPT  </t>
         </is>
       </c>
       <c r="G247" t="n">
@@ -10695,21 +10879,25 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr"/>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>SELECT MAX(PTIME) FROM EDRPOSTCRASH</t>
+        </is>
+      </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 PVALUE FROM EDRPOSTCRASH WHERE PCODE = 2060 ORDER BY PVALUE DESC </t>
+          <t xml:space="preserve">SELECT  PVALUE FROM EDRPOSTCRASH WHERE PCODE = 2060 ORDER BY PVALUE DESC limit 1 </t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>-1</v>
+        <v>216</v>
       </c>
       <c r="H248" t="b">
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -10740,7 +10928,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CRASHMONTH, COUNT(*) AS CRASHCOUNT  FROM CRASH GROUP BY CRASHMONTH ORDER BY CRASHMONTH </t>
+          <t xml:space="preserve">SELECT CRASHMONTH, COUNT(*) AS CRASHCOUNT  FROM CRASH GROUP BY CRASHMONTH ORDER BY CRASHMONTH  </t>
         </is>
       </c>
       <c r="G249" t="n">
@@ -10776,24 +10964,24 @@
         <is>
           <t>SELECT CASEID, MAX(PVALUE) AS MaxSpeed
 FROM EDRPRECRASH
-WHERE PCODE = 1010 AND PVALUE &gt; 100 AND PVALUE &lt;= 200
+WHERE PVALUE &gt; 100 AND PVALUE &lt;= 200
 GROUP BY CASEID</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH WHERE PCODE = 1010 AND PVALUE &gt; 100 AND PVALUE &lt; 200 GROUP BY CASEID </t>
+          <t xml:space="preserve">SELECT CASEID, MAX(PVALUE) MAXSPEED FROM EDRPRECRASH WHERE PCODE = 1010 AND PVALUE &gt; 100 AND PVALUE &lt; 200 GROUP BY CASEID  </t>
         </is>
       </c>
       <c r="G250" t="n">
-        <v>321</v>
+        <v>255</v>
       </c>
       <c r="H250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -10824,33 +11012,29 @@
 FROM 
     EDRPRECRASH e
 JOIN 
-    VPICDECODE v ON e.CASEID = v.CASEID AND e.PSU = v.PSU AND e.VEHNO = v.VEHNO
+    VPICDECODE v ON e.CASEID = v.CASEID AND e.VEHNO = v.VEHNO
 WHERE 
-    e.PCODE = 1010
-    AND e.PVALUE &gt; 160
-    AND e.PVALUE &lt;= 300
+    e.PVALUE &gt; 160 AND e.PVALUE &lt;= 300
 GROUP BY 
-    e.CASEID,
-    v.Make,
-    v.Model
+    e.CASEID, v.Make, v.Model
 ORDER BY 
     MaxSpeed DESC</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT PR.CASEID, MAKE, MODEL, MAX(PVALUE) MAXSPEED  FROM EDRPRECRASH PR JOIN VPICDECODE V ON PR.CASEID = V.CASEID AND V.VEHNO = PR.VEHNO WHERE PCODE = 1010 AND PVALUE &gt; 160 AND PVALUE &lt; 300 GROUP BY PR.CASEID, PR.VEHNO, MAKE, MODEL ORDER BY MAX(PVALUE) DESC </t>
+          <t xml:space="preserve">SELECT PR.CASEID, MAKE, MODEL, MAX(PVALUE) MAXSPEED  FROM EDRPRECRASH PR JOIN VPICDECODE V ON PR.CASEID = V.CASEID AND V.VEHNO = PR.VEHNO WHERE PCODE = 1010 AND PVALUE &gt; 160 AND PVALUE &lt; 300 GROUP BY PR.CASEID, PR.VEHNO, MAKE, MODEL ORDER BY MAX(PVALUE) DESC  </t>
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1597</v>
+        <v>1516</v>
       </c>
       <c r="H251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -10878,7 +11062,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT MAKE FROM VPICDECODE </t>
+          <t xml:space="preserve">SELECT DISTINCT MAKE FROM VPICDECODE  </t>
         </is>
       </c>
       <c r="G252" t="n">
@@ -10917,7 +11101,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT ICS_TYPE) TYPECOUNT FROM ICS </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT ICS_TYPE) TYPECOUNT FROM ICS  </t>
         </is>
       </c>
       <c r="G253" t="n">
@@ -10951,22 +11135,18 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>SELECT 
-  INJNO, 
-  COUNT(*) AS injury_count
-FROM 
-  ICS
-GROUP BY 
-  INJNO</t>
+          <t>SELECT INJNO, COUNT(*) AS injury_count
+FROM ICS
+GROUP BY INJNO</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT BRI, COUNT(*) AS INJURY_COUNT  FROM ICS GROUP BY BRI </t>
+          <t xml:space="preserve">SELECT BRI, COUNT(*) AS INJURY_COUNT  FROM ICS GROUP BY BRI  </t>
         </is>
       </c>
       <c r="G254" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="H254" t="b">
         <v>0</v>
@@ -10996,16 +11176,18 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>SELECT AVG(AGE) FROM OCC WHERE AGE &lt;= 130</t>
+          <t>SELECT AVG(AGE) AS average_age
+FROM OCC
+WHERE AGE &lt;= 130</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(AGE) AVGAGE FROM OCC WHERE AGE &lt;= 130 </t>
+          <t xml:space="preserve">SELECT AVG(AGE) AVGAGE FROM OCC WHERE AGE &lt;= 130  </t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="H255" t="b">
         <v>1</v>
@@ -11044,7 +11226,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AGE, AVG(HEIGHT) AVGHEIGHT FROM OCC WHERE AGE &lt;= 120 AND HEIGHT &lt;= 220 GROUP BY AGE ORDER BY AGE ASC </t>
+          <t xml:space="preserve">SELECT AGE, AVG(HEIGHT) AVGHEIGHT FROM OCC WHERE AGE &lt;= 120 AND HEIGHT &lt;= 220 GROUP BY AGE ORDER BY AGE ASC  </t>
         </is>
       </c>
       <c r="G256" t="n">
@@ -11083,7 +11265,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DEATHCOUNT FROM OCC WHERE FETALMORT = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DEATHCOUNT FROM OCC WHERE FETALMORT = 1  </t>
         </is>
       </c>
       <c r="G257" t="n">
@@ -11122,7 +11304,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTAVAIL = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTAVAIL = 1  </t>
         </is>
       </c>
       <c r="G258" t="n">
@@ -11161,7 +11343,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTUSE IN (0, 1) </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) NOBELTCOUNT FROM OCC WHERE BELTUSE IN (0, 1)  </t>
         </is>
       </c>
       <c r="G259" t="n">
@@ -11203,7 +11385,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE BELTUSE IN (0, 1) AND BELTAVAIL IN (2, 3, 4, 5, 6, 7, 8) </t>
+          <t xml:space="preserve">SELECT COUNT(*) OCCCOUNT FROM OCC WHERE BELTUSE IN (0, 1) AND BELTAVAIL IN (2, 3, 4, 5, 6, 7, 8)  </t>
         </is>
       </c>
       <c r="G260" t="n">
@@ -11245,7 +11427,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT BELTUSE, COUNT(*) MORTALCOUNT FROM OCC WHERE MORTALITY = 1 GROUP BY BELTUSE </t>
+          <t xml:space="preserve">SELECT BELTUSE, COUNT(*) MORTALCOUNT FROM OCC WHERE MORTALITY = 1 GROUP BY BELTUSE  </t>
         </is>
       </c>
       <c r="G261" t="n">
@@ -11283,17 +11465,19 @@
     BELTUSE,
     COUNT(*) AS total_occupants,
     SUM(CASE WHEN MORTALITY = 1 THEN 1 ELSE 0 END) AS mortality_count
-FROM OCC
-GROUP BY BELTUSE</t>
+FROM 
+    OCC
+GROUP BY 
+    BELTUSE</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT M.BELTUSE, TOTALCOUNT, MORTALCOUNT FROM ( 	SELECT BELTUSE, COUNT(*) MORTALCOUNT 	FROM OCC 	WHERE MORTALITY = 1 	GROUP BY BELTUSE ) M JOIN ( 	SELECT BELTUSE, COUNT(*) TOTALCOUNT 	FROM OCC 	GROUP BY BELTUSE ) T ON M.BELTUSE = T.BELTUSE </t>
+          <t xml:space="preserve">SELECT M.BELTUSE, TOTALCOUNT, MORTALCOUNT FROM ( 	SELECT BELTUSE, COUNT(*) MORTALCOUNT 	FROM OCC 	WHERE MORTALITY = 1 	GROUP BY BELTUSE ) M JOIN ( 	SELECT BELTUSE, COUNT(*) TOTALCOUNT 	FROM OCC 	GROUP BY BELTUSE ) T ON M.BELTUSE = T.BELTUSE  </t>
         </is>
       </c>
       <c r="G262" t="n">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="H262" t="b">
         <v>0</v>
@@ -11325,12 +11509,12 @@
         <is>
           <t>SELECT COUNT(DISTINCT VEHNO) 
 FROM CDC 
-WHERE DVLONG BETWEEN 150 AND 210</t>
+WHERE HEADINGANG BETWEEN 150 AND 210</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM CDC WHERE PDOF &gt;= 150 AND PDOF &lt;= 210 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM CDC WHERE PDOF &gt;= 150 AND PDOF &lt;= 210  </t>
         </is>
       </c>
       <c r="G263" t="n">
@@ -11364,16 +11548,18 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM CDC WHERE HEADINGANG BETWEEN 0 AND 90</t>
+          <t>SELECT COUNT(*) AS crash_count
+FROM CDC
+WHERE HEADINGANG BETWEEN 0 AND 90</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM CDC WHERE HEADINGANG &gt;= 0 AND HEADINGANG &lt;= 90 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM CDC WHERE HEADINGANG &gt;= 0 AND HEADINGANG &lt;= 90  </t>
         </is>
       </c>
       <c r="G264" t="n">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="H264" t="b">
         <v>0</v>
@@ -11401,21 +11587,27 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr"/>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>SELECT MAX(CMAX) AS MaxDepthOfCrush
+FROM CDC
+WHERE CMAX NOT IN (888, 999)</t>
+        </is>
+      </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 CMAX  FROM CDC WHERE CMAX NOT IN (888, 999) ORDER BY CMAX DESC </t>
+          <t xml:space="preserve">SELECT  CMAX  FROM CDC WHERE CMAX NOT IN (888, 999) ORDER BY CMAX DESC limit 1 </t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>-1</v>
+        <v>430</v>
       </c>
       <c r="H265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -11438,18 +11630,18 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT VEHNO) AS VehiclesWithAPillarDamage
+          <t>SELECT COUNT(DISTINCT VEHNO) AS VehicleCount
 FROM CDC
-WHERE DAMAPILLAR = 1</t>
+WHERE DAMAPILLAR &gt; 0</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMAPILLAR = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMAPILLAR = 1  </t>
         </is>
       </c>
       <c r="G266" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="H266" t="b">
         <v>0</v>
@@ -11479,18 +11671,18 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT VEHNO)
-FROM CDC
-WHERE DAMAPILLAR != 1 AND DAMBPILLAR != 1 AND DAMCPILLAR != 1</t>
+          <t>SELECT COUNT(DISTINCT VEHNO) 
+FROM CDC 
+WHERE DAMAPILLAR NOT IN ('A', 'B', 'C')</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMOTHPILLAR = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHICLECOUNT FROM CDC WHERE DAMOTHPILLAR = 1  </t>
         </is>
       </c>
       <c r="G267" t="n">
-        <v>469</v>
+        <v>432</v>
       </c>
       <c r="H267" t="b">
         <v>0</v>
@@ -11520,25 +11712,26 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>SELECT AVG(DOORSILLDIFF) AS AvgCrushDifference
+          <t>SELECT AVG(DOORSILLDIFF - DVLONG) AS avg_crush_difference
 FROM CDC
-WHERE DOORSILLDIFF NOT IN (888, 999)</t>
+WHERE DOORSILLDIFF NOT IN (888, 999)
+  AND DVLONG NOT IN (888, 999)</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(DOORSILLDIFF) AVGDIFF FROM CDC WHERE DOORSILLDIFF NOT IN (888, 999) </t>
+          <t xml:space="preserve">SELECT AVG(DOORSILLDIFF) AVGDIFF FROM CDC WHERE DOORSILLDIFF NOT IN (888, 999)  </t>
         </is>
       </c>
       <c r="G268" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="H268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -11559,21 +11752,27 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr"/>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>SELECT MAX(DVSPEED) AS MaxSpeedDifference
+FROM CDC
+WHERE DVSPEED != 999</t>
+        </is>
+      </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 DVBARRIER FROM CDC WHERE DVBARRIER &lt;&gt; 999 ORDER BY DVBARRIER DESC </t>
+          <t xml:space="preserve">SELECT  DVBARRIER FROM CDC WHERE DVBARRIER &lt;&gt; 999 ORDER BY DVBARRIER DESC limit 1 </t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>-1</v>
+        <v>443</v>
       </c>
       <c r="H269" t="b">
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -11603,23 +11802,23 @@
     DAMBPILLAR, 
     DAMCPILLAR, 
     DAMOTHPILLAR, 
-    GREATEST(DAMAPILLAR, DAMBPILLAR, DAMCPILLAR, DAMOTHPILLAR) AS MaxCrush
+    GREATEST(DAMAPILLAR, DAMBPILLAR, DAMCPILLAR, DAMOTHPILLAR) AS MaxCrushMeasurement
 FROM 
     CDC
 WHERE 
-    DAMAPILLAR != 888 AND DAMAPILLAR != 999
-    AND DAMBPILLAR != 888 AND DAMBPILLAR != 999
-    AND DAMCPILLAR != 888 AND DAMCPILLAR != 999
-    AND DAMOTHPILLAR != 888 AND DAMOTHPILLAR != 999</t>
+    DAMAPILLAR NOT IN (888, 999) OR
+    DAMBPILLAR NOT IN (888, 999) OR
+    DAMCPILLAR NOT IN (888, 999) OR
+    DAMOTHPILLAR NOT IN (888, 999)</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, CMAX, C1, C2, C3, C4, C5, C6 FROM CDC WHERE CMAX NOT IN (888, 999) </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, CMAX, C1, C2, C3, C4, C5, C6 FROM CDC WHERE CMAX NOT IN (888, 999)  </t>
         </is>
       </c>
       <c r="G270" t="n">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="H270" t="b">
         <v>0</v>
@@ -11656,7 +11855,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, EDRSUMMNO FROM EDREVENT GROUP BY CASEID, VEHNO, EDRSUMMNO HAVING COUNT(*) = 10 </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, EDRSUMMNO FROM EDREVENT GROUP BY CASEID, VEHNO, EDRSUMMNO HAVING COUNT(*) = 10  </t>
         </is>
       </c>
       <c r="G271" t="n">
@@ -11711,7 +11910,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT EV.CASEID, EV.EDREVENTNO, COUNT(*) AS PRECRASHTIMEPOINTS FROM EDRPRECRASH PC JOIN EDREVENT EV ON  	PC.CASEID = EV.CASEID 	AND PC.EDREVENTNO = EV.EDREVENTNO GROUP BY EV.CASEID, EV.EDREVENTNO ORDER BY CASEID </t>
+          <t xml:space="preserve">SELECT EV.CASEID, EV.EDREVENTNO, COUNT(*) AS PRECRASHTIMEPOINTS FROM EDRPRECRASH PC JOIN EDREVENT EV ON  	PC.CASEID = EV.CASEID 	AND PC.EDREVENTNO = EV.EDREVENTNO GROUP BY EV.CASEID, EV.EDREVENTNO ORDER BY EV.CASEID  </t>
         </is>
       </c>
       <c r="G272" t="n">
@@ -11722,7 +11921,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -11764,11 +11963,11 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT MAKE, MODEL, MODELYEAR, IGCYCRASH  FROM EDREVENT E JOIN VPICDECODE V ON E.CASEID = V.CASEID AND E.VEHNO = V.VEHNO WHERE IGCYCRASH &lt; 200 AND IGCYCRASH &gt; 0 ORDER BY MODELYEAR DESC </t>
+          <t xml:space="preserve">SELECT DISTINCT MAKE, MODEL, MODELYEAR, IGCYCRASH  FROM EDREVENT E JOIN VPICDECODE V ON E.CASEID = V.CASEID AND E.VEHNO = V.VEHNO WHERE IGCYCRASH &lt; 200 AND IGCYCRASH &gt; 0 ORDER BY MODELYEAR DESC  </t>
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H273" t="b">
         <v>0</v>
@@ -11803,7 +12002,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) AS VEHICLECOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO, IGCYCRASH 	FROM EDREVENT ) E WHERE IGCYCRASH &gt; 0 AND IGCYCRASH &lt; 400 </t>
+          <t xml:space="preserve">SELECT COUNT(*) AS VEHICLECOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO, IGCYCRASH 	FROM EDREVENT ) E WHERE IGCYCRASH &gt; 0 AND IGCYCRASH &lt; 400  </t>
         </is>
       </c>
       <c r="G274" t="n">
@@ -11837,7 +12036,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>SELECT CASEID, VEHNO, OCCNO, COUNT(*) AS InjuryCount
+          <t>SELECT CASEID, VEHNO, OCCNO, COUNT(*) AS injury_count
 FROM INJURY
 GROUP BY CASEID, VEHNO, OCCNO
 HAVING COUNT(*) &gt; 1</t>
@@ -11845,11 +12044,11 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT CASEID, VEHNO, OCCNO, COUNT(*) AS INJURY_COUNT FROM INJURY GROUP BY CASEID, VEHNO, OCCNO HAVING COUNT(INJNO) &gt; 1 ORDER BY INJURY_COUNT DESC </t>
+          <t xml:space="preserve">SELECT CASEID, VEHNO, OCCNO, COUNT(*) AS INJURY_COUNT FROM INJURY GROUP BY CASEID, VEHNO, OCCNO HAVING COUNT(INJNO) &gt; 1 ORDER BY INJURY_COUNT DESC  </t>
         </is>
       </c>
       <c r="G275" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H275" t="b">
         <v>0</v>
@@ -11886,7 +12085,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT FUELTYPE, COUNT(*) FROM FIRE     JOIN FUEL ON FIRE.CASEID = FUEL.CASEID AND FIRE.VEHNO = FUEL.VEHNO GROUP BY FUELTYPE </t>
+          <t xml:space="preserve">SELECT FUELTYPE, COUNT(*) FROM FIRE     JOIN FUEL ON FIRE.CASEID = FUEL.CASEID AND FIRE.VEHNO = FUEL.VEHNO GROUP BY FUELTYPE  </t>
         </is>
       </c>
       <c r="G276" t="n">
@@ -11927,7 +12126,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT SEX, COUNT(*) FROM OCC JOIN EJECT ON OCC.CASEID = EJECT.CASEID AND OCC.VEHNO = EJECT.VEHNO AND OCC.OCCNO = EJECT.VEHNO GROUP BY SEX </t>
+          <t xml:space="preserve">SELECT SEX, COUNT(*) FROM OCC JOIN EJECT ON OCC.CASEID = EJECT.CASEID AND OCC.VEHNO = EJECT.VEHNO AND OCC.OCCNO = EJECT.VEHNO GROUP BY SEX  </t>
         </is>
       </c>
       <c r="G277" t="n">
@@ -11969,7 +12168,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CRASHCOUNT FROM VPICDECODE GROUP BY MAKE ORDER BY CRASHCOUNT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CRASHCOUNT FROM VPICDECODE GROUP BY MAKE ORDER BY CRASHCOUNT DESC  </t>
         </is>
       </c>
       <c r="G278" t="n">
@@ -12008,7 +12207,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM AVOID WHERE AVAIL = 1 </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) CRASHCOUNT FROM AVOID WHERE AVAIL = 1  </t>
         </is>
       </c>
       <c r="G279" t="n">
@@ -12040,21 +12239,29 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr"/>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>SELECT EQUIP, COUNT(*) AS count
+FROM AVOID
+GROUP BY EQUIP
+ORDER BY count DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 EQUIP FROM AVOID WHERE AVAIL = 1 GROUP BY EQUIP ORDER BY COUNT(*) DESC </t>
+          <t xml:space="preserve">SELECT  EQUIP FROM AVOID WHERE AVAIL = 1 GROUP BY EQUIP ORDER BY COUNT(*) DESC limit 1 </t>
         </is>
       </c>
       <c r="G280" t="n">
-        <v>-1</v>
+        <v>208</v>
       </c>
       <c r="H280" t="b">
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -12078,7 +12285,7 @@
       <c r="E281" t="inlineStr">
         <is>
           <t>SELECT COUNT(*) FROM (
-    SELECT VEHNO, COUNT(*) AS feature_count
+    SELECT VEHNO, COUNT(DISTINCT EQUIP) AS feature_count
     FROM AVOID
     GROUP BY VEHNO
 ) WHERE feature_count &gt; 4</t>
@@ -12086,11 +12293,11 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT CASEID, VEHNO, COUNT(EQUIP) FEATURECOUNT 	FROM AVOID 	WHERE AVAIL = 1 	GROUP BY CASEID, VEHNO 	HAVING COUNT(*) &gt; 4 ) SUBQUERY_T </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT CASEID, VEHNO, COUNT(EQUIP) FEATURECOUNT 	FROM AVOID 	WHERE AVAIL = 1 	GROUP BY CASEID, VEHNO 	HAVING COUNT(*) &gt; 4 ) SUBQUERY_T  </t>
         </is>
       </c>
       <c r="G281" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H281" t="b">
         <v>0</v>
@@ -12125,7 +12332,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO 	FROM TIREDAMAGE ) T </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM ( 	SELECT DISTINCT CASEID, VEHNO 	FROM TIREDAMAGE ) T  </t>
         </is>
       </c>
       <c r="G282" t="n">
@@ -12164,11 +12371,11 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM TIREPLAC WHERE GVWR &lt; 4000 </t>
+          <t xml:space="preserve">SELECT COUNT(*) VEHCOUNT FROM TIREPLAC WHERE GVWR &lt; 4000  </t>
         </is>
       </c>
       <c r="G283" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H283" t="b">
         <v>1</v>
@@ -12205,7 +12412,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT GAWRFRONT, GAWRREAR FROM TIREPLAC WHERE GVWR BETWEEN 4000 AND 9000 </t>
+          <t xml:space="preserve">SELECT GAWRFRONT, GAWRREAR FROM TIREPLAC WHERE GVWR BETWEEN 4000 AND 9000  </t>
         </is>
       </c>
       <c r="G284" t="n">
@@ -12250,7 +12457,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT AVG(RECFRPRESS1) AVGFRONT, AVG(RECRRPRESS1) AVGREAR FROM TIREPLAC WHERE GVWR &lt; 3000 </t>
+          <t xml:space="preserve">SELECT AVG(RECFRPRESS1) AVGFRONT, AVG(RECRRPRESS1) AVGREAR FROM TIREPLAC WHERE GVWR &lt; 3000  </t>
         </is>
       </c>
       <c r="G285" t="n">
@@ -12292,7 +12499,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RECFRONT1, AVG(RECFRPRESS1) AVGPRESS FROM TIREPLAC GROUP BY RECFRONT1 </t>
+          <t xml:space="preserve">SELECT RECFRONT1, AVG(RECFRPRESS1) AVGPRESS FROM TIREPLAC GROUP BY RECFRONT1  </t>
         </is>
       </c>
       <c r="G286" t="n">
@@ -12328,19 +12535,21 @@
         <is>
           <t>SELECT RECFRONT1 AS FrontTireSize, RECREAR1 AS RearTireSize
 FROM TIREPLAC
-WHERE RECFRONT1 IS NOT NULL
-  AND RECREAR1 IS NOT NULL
-  AND VehicleDescriptor LIKE '%Subaru WRX%'
+WHERE VEHNO IN (
+    SELECT VEHNO
+    FROM VPICDECODE
+    WHERE Make = 'Subaru' AND Model = 'WRX'
+)
 LIMIT 1</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'SUBARU' AND MODEL = 'WRX' </t>
+          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'SUBARU' AND MODEL = 'WRX'  </t>
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="H287" t="b">
         <v>0</v>
@@ -12370,21 +12579,20 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>SELECT RECFRONT1 AS FrontTireSize, RECFRPRESS1 AS FrontPressure, RECREAR1 AS RearTireSize, RECRRPRESS1 AS RearPressure
+          <t>SELECT RECFRONT1, RECFRONT2, RECFRONT3, RECFRPRESS1, RECFRPRESS2, RECFRPRESS3
 FROM TIREPLAC
-JOIN VPICDECODE ON TIREPLAC.CASEID = VPICDECODE.CASEID AND TIREPLAC.PSU = VPICDECODE.PSU AND TIREPLAC.CASENO = VPICDECODE.CASENO
-WHERE VPICDECODE.Make = 'Honda' AND VPICDECODE.Model = 'Civic' AND VPICDECODE.ModelYear &lt; 2012
-ORDER BY VPICDECODE.ModelYear ASC
-LIMIT 1</t>
+JOIN VPICDECODE ON TIREPLAC.CASEID = VPICDECODE.CASEID AND TIREPLAC.PSU = VPICDECODE.PSU
+WHERE VPICDECODE.VehicleType = 'Honda Civic'
+  AND VPICDECODE.ModelYear &lt; 2012</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1, RECFRPRESS1, RECRRPRESS1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'HONDA' AND MODEL = 'CIVIC' AND MODELYEAR &lt; 2012 </t>
+          <t xml:space="preserve">SELECT RECFRONT1, RECREAR1, RECFRPRESS1, RECRRPRESS1 FROM VPICDECODE V JOIN TIREPLAC T ON V.CASEID = T.CASEID  AND V.VEHNO = T.VEHNO WHERE MAKE = 'HONDA' AND MODEL = 'CIVIC' AND MODELYEAR &lt; 2012  </t>
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1594</v>
+        <v>1551</v>
       </c>
       <c r="H288" t="b">
         <v>0</v>
@@ -12419,7 +12627,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE WHERE TIREMODEL = 'WRANGLER' </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE WHERE TIREMODEL = 'WRANGLER'  </t>
         </is>
       </c>
       <c r="G289" t="n">
@@ -12461,7 +12669,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT DISTINCT TIREMODEL FROM TIRE T JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE MAKE = 'JEEP' AND MODEL = 'WRANGLER' </t>
+          <t xml:space="preserve">SELECT DISTINCT TIREMODEL FROM TIRE T JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE MAKE = 'JEEP' AND MODEL = 'WRANGLER'  </t>
         </is>
       </c>
       <c r="G290" t="n">
@@ -12503,7 +12711,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE T GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(CASEID, VEHNO)) DESC </t>
+          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(CASEID, VEHNO)) VEHCOUNT FROM TIRE T GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(CASEID, VEHNO)) DESC  </t>
         </is>
       </c>
       <c r="G291" t="n">
@@ -12546,14 +12754,14 @@
   AND TIRE.CATEGORY = TIREDAMAGE.CATEGORY
   AND TIRE.VEHNO = TIREDAMAGE.VEHNO
   AND TIRE.TIRELOC = TIREDAMAGE.TIRELOC
-WHERE TIREDAMAGE.CATEGORY != 0 AND TIREDAMAGE.CATEGORY != 9
+WHERE TIREDAMAGE.CATEGORY &lt;&gt; 0 AND TIREDAMAGE.CATEGORY &lt;&gt; 9
 GROUP BY TIRE.TIREMODEL
 ORDER BY VehicleCount DESC</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) VEHCOUNT FROM TIRE T LEFT JOIN TIREDAMAGE TD ON T.CASEID = TD.CASEID AND T.VEHNO = TD.VEHNO WHERE DAMAGE &gt; 0 AND DAMAGE &lt;&gt; 9 GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) DESC </t>
+          <t xml:space="preserve">SELECT TIREMODEL, COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) VEHCOUNT FROM TIRE T LEFT JOIN TIREDAMAGE TD ON T.CASEID = TD.CASEID AND T.VEHNO = TD.VEHNO WHERE DAMAGE &gt; 0 AND DAMAGE &lt;&gt; 9 GROUP BY TIREMODEL ORDER BY COUNT(DISTINCT CONCAT(T.CASEID, T.VEHNO)) DESC  </t>
         </is>
       </c>
       <c r="G292" t="n">
@@ -12590,24 +12798,24 @@
           <t>SELECT 
     TIRE.CASEID, 
     TIRE.VEHNO, 
-    TIRE.TIRESIZE AS ActualTireSize, 
-    TIRE.TIREMODEL AS ManufacturerFirstRecommendedFrontTireSize
+    TIRE.TIRESIZE AS Actual_Tire_Size, 
+    TIRE.TIREMODEL AS Manufacturer_First_Recommended_Front_Tire_Size
 FROM 
     TIRE
 JOIN 
     TIREPLAC ON TIRE.CASEID = TIREPLAC.CASEID AND TIRE.PSU = TIREPLAC.PSU AND TIRE.CASENO = TIREPLAC.CASENO
 WHERE 
-    TIRE.TIRELOC = 'Left Front' 
+    TIRE.TIRELOC = 'Left Front'
     AND TIRE.TIREMODEL = TIREPLAC.RECFRONT1</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT T.CASEID, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE = RECFRONT1 </t>
+          <t xml:space="preserve">SELECT T.CASEID, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE = RECFRONT1  </t>
         </is>
       </c>
       <c r="G293" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H293" t="b">
         <v>0</v>
@@ -12642,23 +12850,25 @@
     VPICDECODE.Make, 
     VPICDECODE.Model, 
     TIRE.TIRESIZE AS ActualTireSize, 
-    TIRE.TIRETIN AS RecommendedTireSize
+    TIREPLAC.RECFRONT1 AS RecommendedTireSize
 FROM 
     TIRE
 JOIN 
     VPICDECODE ON TIRE.CASEID = VPICDECODE.CASEID AND TIRE.PSU = VPICDECODE.PSU AND TIRE.CASENO = VPICDECODE.CASENO
+JOIN 
+    TIREPLAC ON TIRE.CASEID = TIREPLAC.CASEID AND TIRE.PSU = TIREPLAC.PSU AND TIRE.CASENO = TIREPLAC.CASENO
 WHERE 
-    TIRE.TIRELOC = 'Left Front' AND 
-    TIRE.TIRETIN != TIRE.TIRETREAD</t>
+    TIRE.TIRELOC = 'Left Front' 
+    AND TIRE.TIRESIZE != TIREPLAC.RECFRONT1</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT T.CASEID, MAKE, MODEL, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1 </t>
+          <t xml:space="preserve">SELECT T.CASEID, MAKE, MODEL, T.VEHNO, TIRESIZE, RECFRONT1 FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1  </t>
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1682</v>
+        <v>1732</v>
       </c>
       <c r="H294" t="b">
         <v>0</v>
@@ -12686,21 +12896,32 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr"/>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>SELECT TIRE.TIREMANUF, COUNT(*) AS MismatchCount
+FROM TIRE
+JOIN TIREPLAC ON TIRE.CASEID = TIREPLAC.CASEID AND TIRE.PSU = TIREPLAC.PSU AND TIRE.CASENO = TIREPLAC.CASENO
+WHERE TIRE.TIRELOC = 'Front Left'
+  AND TIRE.TIRESIZE &lt;&gt; TIREPLAC.RECFRONT1
+GROUP BY TIRE.TIREMANUF
+ORDER BY MismatchCount DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT TOP 1 MAKE FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1 GROUP BY MAKE ORDER BY COUNT(DISTINCT T.CASEID) DESC </t>
+          <t xml:space="preserve">SELECT  MAKE FROM TIRE T JOIN TIREPLAC TP ON T.CASEID = TP.CASEID AND T.VEHNO = TP.VEHNO JOIN VPICDECODE V ON T.CASEID = V.CASEID AND T.VEHNO = V.VEHNO WHERE TIRELOC = 'LF' AND TIRESIZE &lt;&gt; RECFRONT1 GROUP BY MAKE ORDER BY COUNT(DISTINCT T.CASEID) DESC limit 1 </t>
         </is>
       </c>
       <c r="G295" t="n">
-        <v>-1</v>
+        <v>1658</v>
       </c>
       <c r="H295" t="b">
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -12728,7 +12949,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DISTRACTACCIDENTCOUNT FROM DISTRACT D </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT CASEID) DISTRACTACCIDENTCOUNT FROM DISTRACT D  </t>
         </is>
       </c>
       <c r="G296" t="n">
@@ -12765,16 +12986,17 @@
           <t>SELECT COUNT(DISTRACT.CASEID) AS distracted_accidents_with_child_seats
 FROM CHILDSEAT
 JOIN DISTRACT ON CHILDSEAT.CASEID = DISTRACT.CASEID AND CHILDSEAT.PSU = DISTRACT.PSU AND CHILDSEAT.CASENO = DISTRACT.CASENO
-WHERE CHILDSEAT.CHILDPOSITION IS NOT NULL</t>
+WHERE CHILDSEAT.CHILDSEATNO IS NOT NULL
+  AND DISTRACT.CATEGORY = 1</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT COUNT(DISTINCT D.CASEID) ACCIDENTCOUNT FROM DISTRACT D JOIN ( 	SELECT DISTINCT CASEID FROM CHILDSEAT WHERE OCCNO IS NOT NULL ) S ON D.CASEID = S.CASEID </t>
+          <t xml:space="preserve">SELECT COUNT(DISTINCT D.CASEID) ACCIDENTCOUNT FROM DISTRACT D JOIN ( 	SELECT DISTINCT CASEID FROM CHILDSEAT WHERE OCCNO IS NOT NULL ) S ON D.CASEID = S.CASEID  </t>
         </is>
       </c>
       <c r="G297" t="n">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="H297" t="b">
         <v>0</v>
@@ -12813,7 +13035,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  GROUP BY MAKE, MODEL ORDER BY VEHICLE_COUNT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  GROUP BY MAKE, MODEL ORDER BY VEHICLE_COUNT DESC  </t>
         </is>
       </c>
       <c r="G298" t="n">
@@ -12850,8 +13072,8 @@
           <t>SELECT 
     VPICDECODE.Make, 
     VPICDECODE.Model, 
-    COUNT(DISTINCT VPICDECODE.VEHNO) AS VehiclesWithChildSeats,
-    SUM(CASE WHEN DISTRACT.CATEGORY IS NOT NULL THEN 1 ELSE 0 END) AS VehiclesWithDistractedDrivers
+    COUNT(DISTINCT CHILDSEAT.CASEID) AS ChildSeatCount,
+    SUM(CASE WHEN DISTRACT.CASEID IS NOT NULL THEN 1 ELSE 0 END) AS DistractedDriverCount
 FROM 
     VPICDECODE
 LEFT JOIN 
@@ -12865,11 +13087,11 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACTION_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  LEFT JOIN DISTRACT D ON D.CASEID = V.CASEID AND D.VEHNO = V.VEHNO GROUP BY MAKE, MODEL ORDER BY DISTRACTION_COUNT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, MODEL, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACTION_COUNT FROM VPICDECODE V JOIN CHILDSEAT C ON V.CASEID = C.CASEID AND V.VEHNO = C.VEHNO  LEFT JOIN DISTRACT D ON D.CASEID = V.CASEID AND D.VEHNO = V.VEHNO GROUP BY MAKE, MODEL ORDER BY DISTRACTION_COUNT DESC  </t>
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="H299" t="b">
         <v>0</v>
@@ -12899,15 +13121,9 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>SELECT Make, COUNT(*) AS TotalVehicles, SUM(DISTRACT.DISTRACTN) AS TotalDistracted, 
-       (SUM(DISTRACT.DISTRACTN) / COUNT(*)) AS DistractedProportion
+          <t>SELECT Make, COUNT(*) AS TotalVehicles, SUM(DISTRACTN) AS DistractedDrivers, (SUM(DISTRACTN) / COUNT(*)) AS DistractedProportion
 FROM DISTRACT
-JOIN VPICDECODE ON DISTRACT.CASEID = VPICDECODE.CASEID
-  AND DISTRACT.PSU = VPICDECODE.PSU
-  AND DISTRACT.CASENO = VPICDECODE.CASENO
-  AND DISTRACT.CASENUMBER = VPICDECODE.CASENUMBER
-  AND DISTRACT.CATEGORY = VPICDECODE.CATEGORY
-  AND DISTRACT.VEHNO = VPICDECODE.VEHNO
+JOIN VPICDECODE ON DISTRACT.CASEID = VPICDECODE.CASEID AND DISTRACT.PSU = VPICDECODE.PSU AND DISTRACT.CASENO = VPICDECODE.CASENO
 GROUP BY Make
 HAVING COUNT(*) &gt; 5
 ORDER BY DistractedProportion DESC
@@ -12916,11 +13132,11 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACT_COUNT, 	CAST(COUNT(DISTRACTN) AS FLOAT) / CAST(COUNT(*) AS FLOAT) AS PROP_DISTRACT FROM VPICDECODE V LEFT JOIN DISTRACT D ON V.CASEID = D.CASEID AND V.VEHNO = D.VEHNO GROUP BY MAKE HAVING COUNT(*) &gt; 5 ORDER BY PROP_DISTRACT DESC </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS VEHICLE_COUNT, COUNT(DISTRACTN) AS DISTRACT_COUNT, 	CAST(COUNT(DISTRACTN) AS FLOAT) / CAST(COUNT(*) AS FLOAT) AS PROP_DISTRACT FROM VPICDECODE V LEFT JOIN DISTRACT D ON V.CASEID = D.CASEID AND V.VEHNO = D.VEHNO GROUP BY MAKE HAVING COUNT(*) &gt; 5 ORDER BY PROP_DISTRACT DESC  </t>
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1558</v>
+        <v>1493</v>
       </c>
       <c r="H300" t="b">
         <v>0</v>
@@ -12953,8 +13169,8 @@
           <t>SELECT 
     VP.Make,
     COUNT(*) AS total_crashes,
-    SUM(CASE WHEN FIRE.FIRE IS NOT NULL AND FIRE.FIRE != 0 THEN 1 ELSE 0 END) AS crashes_with_fire,
-    CAST(SUM(CASE WHEN FIRE.FIRE IS NOT NULL AND FIRE.FIRE != 0 THEN 1 ELSE 0 END) AS FLOAT) / COUNT(*) AS proportion_fire
+    SUM(CASE WHEN FIRE.FIRE IS NOT NULL AND FIRE.FIRE != 0 THEN 1 ELSE 0 END) AS fire_crashes,
+    CAST(SUM(CASE WHEN FIRE.FIRE IS NOT NULL AND FIRE.FIRE != 0 THEN 1 ELSE 0 END) AS FLOAT) / COUNT(*) AS fire_proportion
 FROM 
     FIRE
 JOIN 
@@ -12967,11 +13183,11 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CASE_COUNT, SUM(FIRE) AS FIRE_COUNT, (CAST(SUM(FIRE) AS FLOAT)/ CAST(COUNT(*) AS FLOAT)) AS FIRE_PROPORTION FROM VPICDECODE VD 	JOIN FIRE F ON F.CASEID = VD.CASEID AND F.VEHNO = VD.VEHNO GROUP BY MAKE ORDER BY FIRE_PROPORTION DESC </t>
+          <t xml:space="preserve">SELECT MAKE, COUNT(*) AS CASE_COUNT, SUM(FIRE) AS FIRE_COUNT, (CAST(SUM(FIRE) AS FLOAT)/ CAST(COUNT(*) AS FLOAT)) AS FIRE_PROPORTION FROM VPICDECODE VD 	JOIN FIRE F ON F.CASEID = VD.CASEID AND F.VEHNO = VD.VEHNO GROUP BY MAKE ORDER BY FIRE_PROPORTION DESC  </t>
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="H301" t="b">
         <v>0</v>
@@ -13002,7 +13218,7 @@
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr">
         <is>
-          <t xml:space="preserve">select institution_id, ENTITY_NAME, LEVEL from [Accountability_Levels] where SUBGROUP_NAME = 'Multiracial' and INDICATOR = 'HS Grad Rate' and entity_name like '%friendship%' </t>
+          <t xml:space="preserve">select institution_id, ENTITY_NAME, LEVEL from [Accountability_Levels] where SUBGROUP_NAME = 'Multiracial' and INDICATOR = 'HS Grad Rate' and entity_name like '%friendship%'  </t>
         </is>
       </c>
       <c r="G302" t="n">
@@ -13037,7 +13253,7 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, pct_not_tested from [Annual_EM_ELA] where entity_name = 'PEMBROKE INTERMEDIATE SCHOOL'      and ASSESSMENT_NAME = 'ELA4'     and year = 2021 </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, pct_not_tested from [Annual_EM_ELA] where entity_name = 'PEMBROKE INTERMEDIATE SCHOOL'      and ASSESSMENT_NAME = 'ELA4'     and year = 2021  </t>
         </is>
       </c>
       <c r="G303" t="n">
@@ -13072,7 +13288,7 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) entryCount from [Annual_NYSAA] where year = 2022 </t>
+          <t xml:space="preserve">select count(*) entryCount from [Annual_NYSAA] where year = 2022  </t>
         </is>
       </c>
       <c r="G304" t="n">
@@ -13107,7 +13323,7 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP from [Expenditures_per_Pupil] where entity_name = 'MONTESSORI MAGNET SCHOOL' and year = 2022 </t>
+          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP from [Expenditures_per_Pupil] where entity_name = 'MONTESSORI MAGNET SCHOOL' and year = 2022  </t>
         </is>
       </c>
       <c r="G305" t="n">
@@ -13142,7 +13358,7 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP, SUBGROUP_NAME, MEAN_SCORE from [Expenditures_per_Pupil] ex join [Annual_EM_MATH] mth on ex.ENTITY_CD = mth.ENTITY_CD and ex.YEAR = mth.YEAR where ex.entity_name = 'MONTESSORI MAGNET SCHOOL' and ASSESSMENT_NAME = 'MATH5' and ex.YEAR = 2022 </t>
+          <t xml:space="preserve">select PUPIL_COUNT_TOT, FEDERAL_EXP, PER_FEDERAL_EXP, SUBGROUP_NAME, MEAN_SCORE from [Expenditures_per_Pupil] ex join [Annual_EM_MATH] mth on ex.ENTITY_CD = mth.ENTITY_CD and ex.YEAR = mth.YEAR where ex.entity_name = 'MONTESSORI MAGNET SCHOOL' and ASSESSMENT_NAME = 'MATH5' and ex.YEAR = 2022  </t>
         </is>
       </c>
       <c r="G306" t="n">
@@ -13177,7 +13393,7 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr">
         <is>
-          <t xml:space="preserve">select rate, grad_rate from [ACC_HS_Participation_Rate] p join [ACC_HS_Graduation_Rate] g  	on p.ENTITY_CD = g.ENTITY_CD  	and p.SUBGROUP_NAME = g.SUBGROUP_NAME  	and p.YEAR = g.YEAR  	and p.ENTITY_NAME = g.ENTITY_NAME 	and p.INSTITUTION_ID = g.INSTITUTION_ID where p.ENTITY_NAME = 'Brooklyn Collegiate' and p.SUBGROUP_NAME = 'All Students' and p.year = 2022 </t>
+          <t xml:space="preserve">select rate, grad_rate from [ACC_HS_Participation_Rate] p join [ACC_HS_Graduation_Rate] g  	on p.ENTITY_CD = g.ENTITY_CD  	and p.SUBGROUP_NAME = g.SUBGROUP_NAME  	and p.YEAR = g.YEAR  	and p.ENTITY_NAME = g.ENTITY_NAME 	and p.INSTITUTION_ID = g.INSTITUTION_ID where p.ENTITY_NAME = 'Brooklyn Collegiate' and p.SUBGROUP_NAME = 'All Students' and p.year = 2022  </t>
         </is>
       </c>
       <c r="G307" t="n">
@@ -13212,7 +13428,7 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr">
         <is>
-          <t xml:space="preserve">select enrollment, absent_count, absent_rate from [ACC_EM_Chronic_Absenteeism] where entity_name = 'KENNEY MIDDLE SCHOOL' and year = 2021 and SUBGROUP_NAME = 'Students with disabilities' </t>
+          <t xml:space="preserve">select enrollment, absent_count, absent_rate from [ACC_EM_Chronic_Absenteeism] where entity_name = 'KENNEY MIDDLE SCHOOL' and year = 2021 and SUBGROUP_NAME = 'Students with disabilities'  </t>
         </is>
       </c>
       <c r="G308" t="n">
@@ -13247,7 +13463,7 @@
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, tested, PER_LEVEL1, PER_LEVEL2, PER_LEVEL3, PER_LEVEL4, PER_LEVEL5 from [Annual_Regents_Exams] where ENTITY_NAME like '%LONGWOOD HIGH SCHOOL%' 	and year = 2022 	and subject = 'Regents Common Core Algebra I' </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, tested, PER_LEVEL1, PER_LEVEL2, PER_LEVEL3, PER_LEVEL4, PER_LEVEL5 from [Annual_Regents_Exams] where ENTITY_NAME like '%LONGWOOD HIGH SCHOOL%' 	and year = 2022 	and subject = 'Regents Common Core Algebra I'  </t>
         </is>
       </c>
       <c r="G309" t="n">
@@ -13282,7 +13498,7 @@
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr">
         <is>
-          <t xml:space="preserve">select overall_status, count(*) statusCount from [Accountability_Status] where year = 2022 and ENTITY_CD in ( 	select entity_cd 	from [Institution_Grouping] 	where group_name = 'Public School' ) group by overall_status </t>
+          <t xml:space="preserve">select overall_status, count(*) statusCount from [Accountability_Status] where year = 2022 and ENTITY_CD in ( 	select entity_cd 	from [Institution_Grouping] 	where group_name = 'Public School' ) group by overall_status  </t>
         </is>
       </c>
       <c r="G310" t="n">
@@ -13317,7 +13533,7 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr">
         <is>
-          <t xml:space="preserve">select overall_status, made_progress from [Accountability_Status] where entity_name = 'bronx career and college prep hs' and year = 2022 </t>
+          <t xml:space="preserve">select overall_status, made_progress from [Accountability_Status] where entity_name = 'bronx career and college prep hs' and year = 2022  </t>
         </is>
       </c>
       <c r="G311" t="n">
@@ -13352,7 +13568,7 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr">
         <is>
-          <t xml:space="preserve">select core_cohort, weighted_cohort  from [ACC_EM_Core_and_Weighted_Performance] where entity_name = 'May Moore Primary School' 	and subject = 'combined' 	and SUBGROUP_NAME = 'Students with Disabilities' </t>
+          <t xml:space="preserve">select core_cohort, weighted_cohort  from [ACC_EM_Core_and_Weighted_Performance] where entity_name = 'May Moore Primary School' 	and subject = 'combined' 	and SUBGROUP_NAME = 'Students with Disabilities'  </t>
         </is>
       </c>
       <c r="G312" t="n">
@@ -13387,7 +13603,7 @@
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct entity_name  from [ACC_EM_Core_and_Weighted_Performance] p where not exists ( 	select ENTITY_CD 	from [ACC_EM_Core_and_Weighted_Performance] q 	where subgroup_name = 'Students with Disabilities' and p.ENTITY_CD = q.ENTITY_CD ) 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select distinct entity_name  from [ACC_EM_Core_and_Weighted_Performance] p where p.ENTITY_CD NOT IN( 	select ENTITY_CD 	from [ACC_EM_Core_and_Weighted_Performance] q 	where subgroup_name = 'Students with Disabilities'  ) 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G313" t="n">
@@ -13422,7 +13638,7 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct ENTITY_CD) schoolCount from [ACC_EM_Core_and_Weighted_Performance] where SUBGROUP_NAME = 'multiracial' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(distinct ENTITY_CD) schoolCount from [ACC_EM_Core_and_Weighted_Performance] where SUBGROUP_NAME = 'multiracial' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G314" t="n">
@@ -13457,7 +13673,7 @@
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ENTITY_NAME, ELL_COUNT from [ACC_EM_ELP] where SUBGROUP_NAME = 'all students' 	and ENTITY_NAME like '%preparatory%' </t>
+          <t xml:space="preserve">select ENTITY_NAME, ELL_COUNT from [ACC_EM_ELP] where SUBGROUP_NAME = 'all students' 	and ENTITY_NAME like '%preparatory%'  </t>
         </is>
       </c>
       <c r="G315" t="n">
@@ -13492,7 +13708,7 @@
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) schoolCount from [ACC_EM_ELP] where subgroup_name = 'white' 	and ell_count &lt;&gt; '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(*) schoolCount from [ACC_EM_ELP] where subgroup_name = 'white' 	and ell_count &lt;&gt; '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G316" t="n">
@@ -13527,7 +13743,7 @@
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ell_count, benchmark, progress_rate, success_ratio from [ACC_EM_ELP] where ENTITY_NAME = 'PINE BUSH'  	and SUBGROUP_NAME = 'All Students' </t>
+          <t xml:space="preserve">select ell_count, benchmark, progress_rate, success_ratio from [ACC_EM_ELP] where ENTITY_NAME = 'PINE BUSH'  	and SUBGROUP_NAME = 'All Students'  </t>
         </is>
       </c>
       <c r="G317" t="n">
@@ -13562,7 +13778,7 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct entity_cd) noPartCount from [ACC_EM_NYSESLAT_for_Participation] where NYSESLAT_PART = '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(distinct entity_cd) noPartCount from [ACC_EM_NYSESLAT_for_Participation] where NYSESLAT_PART = '0' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G318" t="n">
@@ -13597,7 +13813,7 @@
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct subject) subjectCount from [ACC_EM_NYSESLAT_for_Participation] </t>
+          <t xml:space="preserve">select count(distinct subject) subjectCount from [ACC_EM_NYSESLAT_for_Participation]  </t>
         </is>
       </c>
       <c r="G319" t="n">
@@ -13632,7 +13848,7 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct entity_name from [ACC_EM_ELP]  where entity_cd in ( 	select distinct entity_cd 	from [ACC_EM_NYSESLAT_for_Participation] 	where NYSESLAT_PART = '0' )  	and ELL_COUNT &lt;&gt; '0'  	and SUBGROUP_NAME = 'all students'  	and level = '2' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select distinct entity_name from [ACC_EM_ELP]  where entity_cd in ( 	select distinct entity_cd 	from [ACC_EM_NYSESLAT_for_Participation] 	where NYSESLAT_PART = '0' )  	and ELL_COUNT &lt;&gt; '0'  	and SUBGROUP_NAME = 'all students'  	and level = '2' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G320" t="n">
@@ -13667,7 +13883,7 @@
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, subject, cohort, rate from [ACC_EM_Participation_Rate] where entity_name = 'elmwood elementary school' and year = 2022 </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, subject, cohort, rate from [ACC_EM_Participation_Rate] where entity_name = 'elmwood elementary school' and year = 2022  </t>
         </is>
       </c>
       <c r="G321" t="n">
@@ -13702,7 +13918,7 @@
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct entity_cd) schoolCount from [ACC_EM_Participation_Rate] where MET_95_PERCENT = 'Y' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select count(distinct entity_cd) schoolCount from [ACC_EM_Participation_Rate] where MET_95_PERCENT = 'Y' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G322" t="n">
@@ -13737,7 +13953,7 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(cast(rate as float)) as avgRate from [ACC_EM_Participation_Rate] where rate &lt;&gt; 's' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) </t>
+          <t xml:space="preserve">select avg(cast(rate as float)) as avgRate from [ACC_EM_Participation_Rate] where rate &lt;&gt; 's' 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	)  </t>
         </is>
       </c>
       <c r="G323" t="n">
@@ -13772,7 +13988,7 @@
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subject, avg(cast(absent_rate as float)) avgRate from [ACC_EM_Chronic_Absenteeism] where ABSENT_RATE &lt;&gt; 's' and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) group by subject </t>
+          <t xml:space="preserve">select subject, avg(cast(absent_rate as float)) avgRate from [ACC_EM_Chronic_Absenteeism] where ABSENT_RATE &lt;&gt; 's' and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) group by subject  </t>
         </is>
       </c>
       <c r="G324" t="n">
@@ -13807,7 +14023,7 @@
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 entity_name from [ACC_EM_Chronic_Absenteeism] where SUBGROUP_NAME = 'students with disabilities' and absent_rate &lt;&gt; 's' order by cast(absent_rate as float) desc </t>
+          <t xml:space="preserve">select  entity_name from [ACC_EM_Chronic_Absenteeism] where SUBGROUP_NAME = 'students with disabilities' and absent_rate &lt;&gt; 's' order by cast(absent_rate as float) desc limit 1 </t>
         </is>
       </c>
       <c r="G325" t="n">
@@ -13818,7 +14034,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -13842,7 +14058,7 @@
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr">
         <is>
-          <t xml:space="preserve">select a.entity_name, subgroup_name, enrollment from [ACC_EM_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where cast(absent_rate as float) = ( 	select max(cast(absent_rate as float))  	from [ACC_EM_Chronic_Absenteeism]  	where absent_rate &lt;&gt; 's' 	and year = 2022 	) 	and absent_rate &lt;&gt; 's' 	and year = 2022 	and group_name = 'public school' </t>
+          <t xml:space="preserve">select a.entity_name, subgroup_name, enrollment from [ACC_EM_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where cast(absent_rate as float) = ( 	select max(cast(absent_rate as float))  	from [ACC_EM_Chronic_Absenteeism]  	where absent_rate &lt;&gt; 's' 	and year = 2022 	) 	and absent_rate &lt;&gt; 's' 	and year = 2022 	and group_name = 'public school'  </t>
         </is>
       </c>
       <c r="G326" t="n">
@@ -13877,7 +14093,7 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subgroup_name, avg(cast(absent_rate as float)) avgRate from [ACC_HS_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where absent_rate &lt;&gt; 's' 	and group_name = 'Public School' group by subgroup_name </t>
+          <t xml:space="preserve">select subgroup_name, avg(cast(absent_rate as float)) avgRate from [ACC_HS_Chronic_Absenteeism] a join [Institution_Grouping] g on a.ENTITY_CD = g.ENTITY_CD where absent_rate &lt;&gt; 's' 	and group_name = 'Public School' group by subgroup_name  </t>
         </is>
       </c>
       <c r="G327" t="n">
@@ -13912,7 +14128,7 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 entity_name, absent_count, absent_rate from [ACC_HS_Chronic_Absenteeism] where enrollment &lt;&gt; 's' 	and year = 2021 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) 	and SUBGROUP_NAME = 'All Students' order by cast(enrollment as float) desc </t>
+          <t xml:space="preserve">select  entity_name, absent_count, absent_rate from [ACC_HS_Chronic_Absenteeism] where enrollment &lt;&gt; 's' 	and year = 2021 	and ENTITY_CD in ( 		select entity_cd 		from [Institution_Grouping] 		where group_name = 'Public School' 	) 	and SUBGROUP_NAME = 'All Students' order by cast(enrollment as float) desc limit 1 </t>
         </is>
       </c>
       <c r="G328" t="n">
@@ -13923,7 +14139,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -13947,7 +14163,7 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
         <is>
-          <t xml:space="preserve">select core_cohort, weighted_cohort, core_index, weighted_index from [ACC_HS_Core_and_Weighted_Performance] where year = 2022 	and subject = 'MATH' 	and subgroup_name = 'Economically Disadvantaged' 	and entity_name = 'ALBANY HIGH SCHOOL' </t>
+          <t xml:space="preserve">select core_cohort, weighted_cohort, core_index, weighted_index from [ACC_HS_Core_and_Weighted_Performance] where year = 2022 	and subject = 'MATH' 	and subgroup_name = 'Economically Disadvantaged' 	and entity_name = 'ALBANY HIGH SCHOOL'  </t>
         </is>
       </c>
       <c r="G329" t="n">
@@ -13982,7 +14198,7 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 p.ENTITY_NAME  from [ACC_HS_Core_and_Weighted_Performance] p join [Institution_Grouping] g on p.ENTITY_CD = g.ENTITY_CD where WEIGHTED_INDEX &lt;&gt; 's' 	and group_name = 'Public School' 	and subject = 'MATH' 	and subgroup_name = 'All Students' 	and year = 2022 order by cast(weighted_index as float) desc </t>
+          <t xml:space="preserve">select  p.ENTITY_NAME  from [ACC_HS_Core_and_Weighted_Performance] p join [Institution_Grouping] g on p.ENTITY_CD = g.ENTITY_CD where WEIGHTED_INDEX &lt;&gt; 's' 	and group_name = 'Public School' 	and subject = 'MATH' 	and subgroup_name = 'All Students' 	and year = 2022 order by cast(weighted_index as float) desc limit 5 </t>
         </is>
       </c>
       <c r="G330" t="n">
@@ -13993,7 +14209,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -14017,7 +14233,7 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 entity_name, avg(cast(weighted_index as float)) averageScienceScore from [ACC_HS_Core_and_Weighted_Performance] where weighted_index &lt;&gt; 's' and subject = 'SCIENCE' and entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school district' ) group by entity_name order by avg(cast(weighted_index as float)) asc </t>
+          <t xml:space="preserve">select  entity_name, avg(cast(weighted_index as float)) averageScienceScore from [ACC_HS_Core_and_Weighted_Performance] where weighted_index &lt;&gt; 's' and subject = 'SCIENCE' and entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school district' ) group by entity_name order by avg(cast(weighted_index as float)) asc limit 5 </t>
         </is>
       </c>
       <c r="G331" t="n">
@@ -14028,7 +14244,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -14052,7 +14268,7 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ELL_COUNT, BENCHMARK, PROGRESS_RATE, SUCCESS_RATIO, LEVEL from [ACC_HS_ELP] where ENTITY_NAME = 'ALFRED E SMITH CAREER-TECH HS' 	and SUBGROUP_NAME = 'All Students' 	and year = 2022 </t>
+          <t xml:space="preserve">select ELL_COUNT, BENCHMARK, PROGRESS_RATE, SUCCESS_RATIO, LEVEL from [ACC_HS_ELP] where ENTITY_NAME = 'ALFRED E SMITH CAREER-TECH HS' 	and SUBGROUP_NAME = 'All Students' 	and year = 2022  </t>
         </is>
       </c>
       <c r="G332" t="n">
@@ -14087,7 +14303,7 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subgroup_name, avg(cast(ell_count as float)) ELLAvg from [ACC_HS_ELP] where entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school' ) group by subgroup_name </t>
+          <t xml:space="preserve">select subgroup_name, avg(cast(ell_count as float)) ELLAvg from [ACC_HS_ELP] where entity_cd in ( 	select entity_cd 	from [Institution_Grouping] 	where GROUP_NAME = 'public school' ) group by subgroup_name  </t>
         </is>
       </c>
       <c r="G333" t="n">
@@ -14122,7 +14338,7 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 el.ENTITY_NAME, ELL_COUNT, PER_FED_STATE_LOCAL_EXP from [ACC_HS_ELP] el join [Expenditures_per_Pupil] ex  	on el.ENTITY_CD = ex.ENTITY_CD  	and el.year = ex.year where SUBGROUP_NAME = 'All Students' 	and ELL_COUNT &lt;&gt; 's' 	and ex.YEAR = 2022 	and el.entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by cast(ELL_COUNT as float) desc </t>
+          <t xml:space="preserve">select  el.ENTITY_NAME, ELL_COUNT, PER_FED_STATE_LOCAL_EXP from [ACC_HS_ELP] el join [Expenditures_per_Pupil] ex  	on el.ENTITY_CD = ex.ENTITY_CD  	and el.year = ex.year where SUBGROUP_NAME = 'All Students' 	and ELL_COUNT &lt;&gt; 's' 	and ex.YEAR = 2022 	and el.entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by cast(ELL_COUNT as float) desc limit 1 </t>
         </is>
       </c>
       <c r="G334" t="n">
@@ -14133,7 +14349,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -14157,7 +14373,7 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr">
         <is>
-          <t xml:space="preserve">select YEAR, OVERALL_STATUS, count(*) entCount from [Accountability_Status_by_Subgroup] where SUBGROUP_NAME = 'All Students' group by year, OVERALL_STATUS </t>
+          <t xml:space="preserve">select YEAR, OVERALL_STATUS, count(*) entCount from [Accountability_Status_by_Subgroup] where SUBGROUP_NAME = 'All Students' group by year, OVERALL_STATUS  </t>
         </is>
       </c>
       <c r="G335" t="n">
@@ -14192,7 +14408,7 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) HSCount from [Accountability_Status_by_Subgroup] where SCHOOL_TYPE = 'HS' 	and SUBGROUP_NAME = 'Multiracial' 	and year = 2021 </t>
+          <t xml:space="preserve">select count(*) HSCount from [Accountability_Status_by_Subgroup] where SCHOOL_TYPE = 'HS' 	and SUBGROUP_NAME = 'Multiracial' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G336" t="n">
@@ -14227,7 +14443,7 @@
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SCHOOL_TYPE, SUBGROUP_NAME, OVERALL_STATUS from [Accountability_Status_by_Subgroup] where year = 2021 	and ENTITY_NAME = 'ALBANY CITY SD' </t>
+          <t xml:space="preserve">select SCHOOL_TYPE, SUBGROUP_NAME, OVERALL_STATUS from [Accountability_Status_by_Subgroup] where year = 2021 	and ENTITY_NAME = 'ALBANY CITY SD'  </t>
         </is>
       </c>
       <c r="G337" t="n">
@@ -14262,7 +14478,7 @@
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
-          <t xml:space="preserve">select ASSESSMENT_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by ASSESSMENT_NAME </t>
+          <t xml:space="preserve">select ASSESSMENT_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by ASSESSMENT_NAME  </t>
         </is>
       </c>
       <c r="G338" t="n">
@@ -14297,7 +14513,7 @@
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr">
         <is>
-          <t xml:space="preserve">select SUBGROUP_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and ASSESSMENT_NAME = 'Science8' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by SUBGROUP_NAME </t>
+          <t xml:space="preserve">select SUBGROUP_NAME, avg(cast([LEVEL1_%TESTED] as float)) L1, avg(cast([LEVEL2_%TESTED] as float)) L2, avg(cast([LEVEL3_%TESTED] as float)) L3, avg(cast([LEVEL4_%TESTED] as float)) L4 from [Annual_EM_Science] where [LEVEL1_%TESTED] &lt;&gt; 's' 	and ASSESSMENT_NAME = 'Science8' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) group by SUBGROUP_NAME  </t>
         </is>
       </c>
       <c r="G339" t="n">
@@ -14332,7 +14548,7 @@
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct subject) subjectCount from [Annual_NYSESLAT] </t>
+          <t xml:space="preserve">select count(distinct subject) subjectCount from [Annual_NYSESLAT]  </t>
         </is>
       </c>
       <c r="G340" t="n">
@@ -14367,7 +14583,7 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G341" t="n">
@@ -14402,7 +14618,7 @@
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PER_ENT, PER_EMER, PER_TRAN, PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select PER_ENT, PER_EMER, PER_TRAN, PER_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G342" t="n">
@@ -14437,7 +14653,7 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subject, avg(cast(per_ent as float)) avgScore from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject </t>
+          <t xml:space="preserve">select subject, avg(cast(per_ent as float)) avgScore from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject  </t>
         </is>
       </c>
       <c r="G343" t="n">
@@ -14472,7 +14688,7 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subject,  	avg(cast(per_ent as float)) avgEnt, 	avg(cast(per_emer as float)) avgEmer, 	avg(cast(per_tran as float)) avgTran, 	avg(cast(per_exp as float)) avgExp, 	avg(cast(per_com as float)) avgCom from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject </t>
+          <t xml:space="preserve">select subject,  	avg(cast(per_ent as float)) avgEnt, 	avg(cast(per_emer as float)) avgEmer, 	avg(cast(per_tran as float)) avgTran, 	avg(cast(per_exp as float)) avgExp, 	avg(cast(per_com as float)) avgCom from [Annual_NYSESLAT] where per_ent &lt;&gt; 's' 	and year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) group by subject  </t>
         </is>
       </c>
       <c r="G344" t="n">
@@ -14507,7 +14723,7 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr">
         <is>
-          <t xml:space="preserve">select NUM_ENT, NUM_EMER, NUM_TRAN, NUM_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select NUM_ENT, NUM_EMER, NUM_TRAN, NUM_EXP from [Annual_NYSESLAT] where SUBGROUP_NAME = 'Parent Not In Armed Forces' 	and SUBJECT = 'TS_6' 	and ENTITY_NAME = 'JOHANNA PERRIN MIDDLE SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G345" t="n">
@@ -14542,7 +14758,7 @@
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr">
         <is>
-          <t xml:space="preserve">select BOCES_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by BOCES_NAME </t>
+          <t xml:space="preserve">select BOCES_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by BOCES_NAME  </t>
         </is>
       </c>
       <c r="G346" t="n">
@@ -14577,7 +14793,7 @@
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr">
         <is>
-          <t xml:space="preserve">select COUNTY_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by COUNTY_NAME </t>
+          <t xml:space="preserve">select COUNTY_NAME, count(distinct school_name) SchoolCount from [BOCES_and_N/RC] where year = 2020 group by COUNTY_NAME  </t>
         </is>
       </c>
       <c r="G347" t="n">
@@ -14612,7 +14828,7 @@
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr">
         <is>
-          <t xml:space="preserve">select BOCES_NAME, avg(cast(PER_FEDERAL_EXP as float)) avgFedExp, avg(cast(PER_STATE_LOCAL_EXP as float)) avgLocExp from [BOCES_and_N/RC] b join [Expenditures_per_Pupil] e on b.ENTITY_CD = e.ENTITY_CD and b.YEAR = e.YEAR where b.year = 2021 group by BOCES_NAME </t>
+          <t xml:space="preserve">select BOCES_NAME, avg(cast(PER_FEDERAL_EXP as float)) avgFedExp, avg(cast(PER_STATE_LOCAL_EXP as float)) avgLocExp from [BOCES_and_N/RC] b join [Expenditures_per_Pupil] e on b.ENTITY_CD = e.ENTITY_CD and b.YEAR = e.YEAR where b.year = 2021 group by BOCES_NAME  </t>
         </is>
       </c>
       <c r="G348" t="n">
@@ -14647,7 +14863,7 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct BOCES_NAME) BOCESCount from [BOCES_and_N/RC] </t>
+          <t xml:space="preserve">select count(distinct BOCES_NAME) BOCESCount from [BOCES_and_N/RC]  </t>
         </is>
       </c>
       <c r="G349" t="n">
@@ -14682,7 +14898,7 @@
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr">
         <is>
-          <t xml:space="preserve">select BOCES_NAME, count(distinct COUNTY_NAME) CountyCount from [BOCES_and_N/RC] group by BOCES_NAME having count(distinct COUNTY_NAME) &gt; 1 </t>
+          <t xml:space="preserve">select BOCES_NAME, count(distinct COUNTY_NAME) CountyCount from [BOCES_and_N/RC] group by BOCES_NAME having count(distinct COUNTY_NAME) &gt; 1  </t>
         </is>
       </c>
       <c r="G350" t="n">
@@ -14717,7 +14933,7 @@
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr">
         <is>
-          <t xml:space="preserve">select NUM_TEACH, NUM_TEACH_INEXP, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] where entity_name = 'SHERIDAN PREP ACADEMY' and year = 2021 </t>
+          <t xml:space="preserve">select NUM_TEACH, NUM_TEACH_INEXP, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] where entity_name = 'SHERIDAN PREP ACADEMY' and year = 2021  </t>
         </is>
       </c>
       <c r="G351" t="n">
@@ -14752,7 +14968,7 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 i.ENTITY_CD, i.ENTITY_NAME, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] i join [Institution_Grouping] g on i.ENTITY_CD = g.ENTITY_CD where year = 2021 	and GROUP_NAME = 'public school' order by PER_TEACH_INEXP desc </t>
+          <t xml:space="preserve">select  i.ENTITY_CD, i.ENTITY_NAME, PER_TEACH_INEXP from [Inexperienced_Teachers_and_Principals] i join [Institution_Grouping] g on i.ENTITY_CD = g.ENTITY_CD where year = 2021 	and GROUP_NAME = 'public school' order by PER_TEACH_INEXP desc limit 5 </t>
         </is>
       </c>
       <c r="G352" t="n">
@@ -14763,7 +14979,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -14787,7 +15003,7 @@
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 5 DISTRICT_NAME, AVG(PER_TEACH_INEXP) teachCount from [Inexperienced_Teachers_and_Principals] i join [BOCES_and_N/RC] b on i.ENTITY_CD = b.ENTITY_CD group by DISTRICT_NAME order by AVG(PER_TEACH_INEXP) desc </t>
+          <t xml:space="preserve">select  DISTRICT_NAME, AVG(PER_TEACH_INEXP) teachCount from [Inexperienced_Teachers_and_Principals] i join [BOCES_and_N/RC] b on i.ENTITY_CD = b.ENTITY_CD group by DISTRICT_NAME order by AVG(PER_TEACH_INEXP) desc limit 5 </t>
         </is>
       </c>
       <c r="G353" t="n">
@@ -14798,7 +15014,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -14822,7 +15038,7 @@
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(TOT_PRINC_LOW) princLow, avg(TOT_TEACH_LOW) teachLow from [Inexperienced_Teachers_and_Principals] </t>
+          <t xml:space="preserve">select avg(TOT_PRINC_LOW) princLow, avg(TOT_TEACH_LOW) teachLow from [Inexperienced_Teachers_and_Principals]  </t>
         </is>
       </c>
       <c r="G354" t="n">
@@ -14857,7 +15073,7 @@
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr">
         <is>
-          <t xml:space="preserve">select sum(cast(OUT_4_YR_CNT as int)) studentCount from [Postsecondary_Enrollment] where SUBGROUP_NAME in ('male', 'female') 	and ENTITY_NAME = 'BROCTON MIDDLE HIGH SCHOOL' </t>
+          <t xml:space="preserve">select sum(cast(OUT_4_YR_CNT as int)) studentCount from [Postsecondary_Enrollment] where SUBGROUP_NAME in ('male', 'female') 	and ENTITY_NAME = 'BROCTON MIDDLE HIGH SCHOOL'  </t>
         </is>
       </c>
       <c r="G355" t="n">
@@ -14892,7 +15108,7 @@
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr">
         <is>
-          <t xml:space="preserve">select PER_NYS_PUB_2_YR, PER_NYS_PUB_4_YR from [Postsecondary_Enrollment] where year = 2022 	and ENTITY_NAME = 'ONEIDA SENIOR HIGH SCHOOL' 	and SUBGROUP_NAME = 'All Students' </t>
+          <t xml:space="preserve">select PER_NYS_PUB_2_YR, PER_NYS_PUB_4_YR from [Postsecondary_Enrollment] where year = 2022 	and ENTITY_NAME = 'ONEIDA SENIOR HIGH SCHOOL' 	and SUBGROUP_NAME = 'All Students'  </t>
         </is>
       </c>
       <c r="G356" t="n">
@@ -14927,7 +15143,7 @@
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 ENTITY_NAME from [Teachers_Teaching_Out_of_Certification] where year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by NUM_OUT_CERT desc </t>
+          <t xml:space="preserve">select  ENTITY_NAME from [Teachers_Teaching_Out_of_Certification] where year = 2021 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school district' 	) order by NUM_OUT_CERT desc limit 1 </t>
         </is>
       </c>
       <c r="G357" t="n">
@@ -14938,7 +15154,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -14962,7 +15178,7 @@
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr">
         <is>
-          <t xml:space="preserve">select NUM_OUT_CERT, PER_OUT_CERT from [Teachers_Teaching_Out_of_Certification] where ENTITY_NAME = 'BOLTON CENTRAL SCHOOL' 	and year = 2021 </t>
+          <t xml:space="preserve">select NUM_OUT_CERT, PER_OUT_CERT from [Teachers_Teaching_Out_of_Certification] where ENTITY_NAME = 'BOLTON CENTRAL SCHOOL' 	and year = 2021  </t>
         </is>
       </c>
       <c r="G358" t="n">
@@ -14997,7 +15213,7 @@
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr">
         <is>
-          <t xml:space="preserve">select COUNTY_NAME, sum(NUM_OUT_CERT) OOCCount from [Teachers_Teaching_Out_of_Certification] c join [BOCES_and_N/RC] b on c.ENTITY_CD = b.ENTITY_CD group by COUNTY_NAME </t>
+          <t xml:space="preserve">select COUNTY_NAME, sum(NUM_OUT_CERT) OOCCount from [Teachers_Teaching_Out_of_Certification] c join [BOCES_and_N/RC] b on c.ENTITY_CD = b.ENTITY_CD group by COUNTY_NAME  </t>
         </is>
       </c>
       <c r="G359" t="n">
@@ -15032,7 +15248,7 @@
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr">
         <is>
-          <t xml:space="preserve">select subgroup_name, COHORT_COUNT, TEST_COUNT, LEVEL1_COUNT, LEVEL2_COUNT, LEVEL3_COUNT, LEVEL4_COUNT from [Total_Cohort_Regents_Exams] where ENTITY_NAME = 'WAVERLY HIGH SCHOOL' 	and COHORT = 2017 	and SUBGROUP_NAME in ('female', 'male') 	and SUBJECT = 'MATH' </t>
+          <t xml:space="preserve">select subgroup_name, COHORT_COUNT, TEST_COUNT, LEVEL1_COUNT, LEVEL2_COUNT, LEVEL3_COUNT, LEVEL4_COUNT from [Total_Cohort_Regents_Exams] where ENTITY_NAME = 'WAVERLY HIGH SCHOOL' 	and COHORT = 2017 	and SUBGROUP_NAME in ('female', 'male') 	and SUBJECT = 'MATH'  </t>
         </is>
       </c>
       <c r="G360" t="n">
@@ -15067,7 +15283,7 @@
       <c r="E361" t="inlineStr"/>
       <c r="F361" t="inlineStr">
         <is>
-          <t xml:space="preserve">select TOP 1 ENTITY_NAME from [Total_Cohort_Regents_Exams] where COHORT = 2017 	and SUBGROUP_NAME = 'All Students' 	and SUBJECT = 'MATH' 	and [LEVEL4_%COHORT] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast([LEVEL4_%COHORT] as int) desc </t>
+          <t xml:space="preserve">select  ENTITY_NAME from [Total_Cohort_Regents_Exams] where COHORT = 2017 	and SUBGROUP_NAME = 'All Students' 	and SUBJECT = 'MATH' 	and [LEVEL4_%COHORT] &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast([LEVEL4_%COHORT] as int) desc limit 1 </t>
         </is>
       </c>
       <c r="G361" t="n">
@@ -15078,7 +15294,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -15102,7 +15318,7 @@
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct ASSESSMENT_NAME) AssessmentCount from [Annual_EM_MATH] </t>
+          <t xml:space="preserve">select count(distinct ASSESSMENT_NAME) AssessmentCount from [Annual_EM_MATH]  </t>
         </is>
       </c>
       <c r="G362" t="n">
@@ -15137,7 +15353,7 @@
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr">
         <is>
-          <t xml:space="preserve">select total_count from [Annual_EM_Science] where year = 2021 	and SUBGROUP_NAME = 'male' 	and ASSESSMENT_NAME = 'Science4' 	and ENTITY_NAME = 'FORTS FERRY SCHOOL' </t>
+          <t xml:space="preserve">select total_count from [Annual_EM_Science] where year = 2021 	and SUBGROUP_NAME = 'male' 	and ASSESSMENT_NAME = 'Science4' 	and ENTITY_NAME = 'FORTS FERRY SCHOOL'  </t>
         </is>
       </c>
       <c r="G363" t="n">
@@ -15172,7 +15388,7 @@
       <c r="E364" t="inlineStr"/>
       <c r="F364" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 ENTITY_NAME from [Postsecondary_Enrollment] where year = 2022 	and SUBGROUP_NAME = 'All Students' 	and PER_OUT_4_YR &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast(PER_OUT_4_YR as int) desc </t>
+          <t xml:space="preserve">select  ENTITY_NAME from [Postsecondary_Enrollment] where year = 2022 	and SUBGROUP_NAME = 'All Students' 	and PER_OUT_4_YR &lt;&gt; 's' 	and entity_cd in ( 		select entity_cd 		from [Institution_Grouping] 		where GROUP_NAME = 'public school' 	) order by cast(PER_OUT_4_YR as int) desc limit 1 </t>
         </is>
       </c>
       <c r="G364" t="n">
@@ -15183,7 +15399,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -15211,7 +15427,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) as station_count  from tbl_stations </t>
+          <t xml:space="preserve">select count(*) as station_count  from tbl_stations  </t>
         </is>
       </c>
       <c r="G365" t="n">
@@ -15250,7 +15466,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct Island) from tbl_locations </t>
+          <t xml:space="preserve">select count(distinct Island) from tbl_locations  </t>
         </is>
       </c>
       <c r="G366" t="n">
@@ -15291,7 +15507,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Island, count(distinct site_id) as site_count from tbl_locations group by Island </t>
+          <t xml:space="preserve">select Island, count(distinct site_id) as site_count from tbl_locations group by Island  </t>
         </is>
       </c>
       <c r="G367" t="n">
@@ -15332,7 +15548,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) densityCount from tbl_Density where Half_meter &gt; 8 </t>
+          <t xml:space="preserve">select count(*) densityCount from tbl_Density where Half_meter &gt; 8  </t>
         </is>
       </c>
       <c r="G368" t="n">
@@ -15373,7 +15589,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t xml:space="preserve">select station_id, count(*) event_count from tbl_events group by station_id </t>
+          <t xml:space="preserve">select station_id, count(*) event_count from tbl_events group by station_id  </t>
         </is>
       </c>
       <c r="G369" t="n">
@@ -15414,7 +15630,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t xml:space="preserve">select organization, count(*) person_count from tlu_contacts group by organization </t>
+          <t xml:space="preserve">select organization, count(*) person_count from tlu_contacts group by organization  </t>
         </is>
       </c>
       <c r="G370" t="n">
@@ -15453,7 +15669,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct zip_code  from tlu_contacts where city = 'Hilo' </t>
+          <t xml:space="preserve">select distinct zip_code  from tlu_contacts where city = 'Hilo'  </t>
         </is>
       </c>
       <c r="G371" t="n">
@@ -15495,7 +15711,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t xml:space="preserve">select event_id, station_id, start_date  from tbl_events where repeat_sample = 1 and verified_by = 'Lauren Smith' </t>
+          <t xml:space="preserve">select event_id, station_id, start_date  from tbl_events where repeat_sample = 1 and verified_by = 'Lauren Smith'  </t>
         </is>
       </c>
       <c r="G372" t="n">
@@ -15537,7 +15753,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obsCount from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID where habitat = 'Forest Bird' </t>
+          <t xml:space="preserve">select count(*) obsCount from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID where habitat = 'Forest Bird'  </t>
         </is>
       </c>
       <c r="G373" t="n">
@@ -15579,7 +15795,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t xml:space="preserve">select habitat, count(*) obsCount from tlu_species s join tbl_observations o on o.Species_ID = s.Species_ID group by habitat </t>
+          <t xml:space="preserve">select habitat, count(*) obsCount from tlu_species s join tbl_observations o on o.Species_ID = s.Species_ID group by habitat  </t>
         </is>
       </c>
       <c r="G374" t="n">
@@ -15622,7 +15838,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t xml:space="preserve">select e.event_id from tbl_events e join tbl_observations o on e.Event_ID = o.Event_ID group by e.event_id having count(*) &gt; 7 </t>
+          <t xml:space="preserve">select e.event_id from tbl_events e join tbl_observations o on e.Event_ID = o.Event_ID group by e.event_id having count(*) &gt; 7  </t>
         </is>
       </c>
       <c r="G375" t="n">
@@ -15654,21 +15870,33 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E376" t="inlineStr"/>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>SELECT s.Scientific_Name, s.Common_Name
+FROM tlu_Species s
+JOIN (
+    SELECT Species_ID, COUNT(*) AS observation_count
+    FROM tbl_Observations
+    GROUP BY Species_ID
+    ORDER BY observation_count DESC
+    LIMIT 3
+) o ON s.Species_ID = o.Species_ID</t>
+        </is>
+      </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 3 scientific_name, common_name from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID group by scientific_name, common_name order by count(*) desc </t>
+          <t xml:space="preserve">select  scientific_name, common_name from tbl_observations o join tlu_species s on o.Species_ID = s.Species_ID group by scientific_name, common_name order by count(*) desc limit 3 </t>
         </is>
       </c>
       <c r="G376" t="n">
-        <v>-1</v>
+        <v>294</v>
       </c>
       <c r="H376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -15689,21 +15917,40 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E377" t="inlineStr"/>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>SELECT 
+    Habitat_Understory_Comp, 
+    Canopy_Comp, 
+    COUNT(*) AS combination_count
+FROM 
+    tbl_Habitat
+JOIN 
+    tbl_Events ON tbl_Habitat.Event_ID = tbl_Events.Event_ID
+WHERE 
+    tbl_Events.Entered_by = 'Caitlin Jensen'
+GROUP BY 
+    Habitat_Understory_Comp, 
+    Canopy_Comp
+ORDER BY 
+    combination_count DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 canopy_comp, understory_comp from tbl_habitat h join tbl_events e on h.event_id = e.event_id where entered_by = 'caitlin jensen' group by canopy_comp, understory_comp order by count(*) desc </t>
+          <t xml:space="preserve">select  canopy_comp, understory_comp from tbl_habitat h join tbl_events e on h.event_id = e.event_id where entered_by = 'caitlin jensen' group by canopy_comp, understory_comp order by count(*) desc limit 1 </t>
         </is>
       </c>
       <c r="G377" t="n">
-        <v>-1</v>
+        <v>425</v>
       </c>
       <c r="H377" t="b">
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -15734,7 +15981,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t xml:space="preserve">select cloud, rain, wind, gust  from tbl_events e join tbl_Event_Details ed on e.Event_ID = ed.Event_ID where updated_by = 'Seth Judge' and entered_by = 'Cari Squibb' </t>
+          <t xml:space="preserve">select cloud, rain, wind, gust  from tbl_events e join tbl_Event_Details ed on e.Event_ID = ed.Event_ID where updated_by = 'Seth Judge' and entered_by = 'Cari Squibb'  </t>
         </is>
       </c>
       <c r="G378" t="n">
@@ -15770,20 +16017,20 @@
         <is>
           <t>SELECT COUNT(DISTINCT Observation_ID) 
 FROM (
-    SELECT Observation_ID, SUM(Detection) AS Total_Detections
+    SELECT Observation_ID, SUM(Detection) AS TotalDetections
     FROM tbl_Detections
     GROUP BY Observation_ID
 ) 
-WHERE Total_Detections &gt; 15</t>
+WHERE TotalDetections &gt; 15</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obsCount from ( 	select observation_id  	from tbl_detections d 	group by Observation_ID 	having count(Detection_ID) &gt; 15 ) t </t>
+          <t xml:space="preserve">select count(*) obsCount from ( 	select observation_id  	from tbl_detections d 	group by Observation_ID 	having count(Detection_ID) &gt; 15 ) t  </t>
         </is>
       </c>
       <c r="G379" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H379" t="b">
         <v>0</v>
@@ -15818,7 +16065,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t xml:space="preserve">select avg(distance) avgdist from tbl_detections </t>
+          <t xml:space="preserve">select avg(distance) avgdist from tbl_detections  </t>
         </is>
       </c>
       <c r="G380" t="n">
@@ -15850,21 +16097,30 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E381" t="inlineStr"/>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>SELECT tlu_Species.Common_Name
+FROM tbl_Detections
+JOIN tbl_Observations ON tbl_Detections.Observation_ID = tbl_Observations.Observation_ID
+JOIN tlu_Species ON tbl_Observations.Species_ID = tlu_Species.Species_ID
+ORDER BY tbl_Detections.Distance DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 common_name from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_detections t on t.observation_id = o.observation_id order by distance desc </t>
+          <t xml:space="preserve">select  common_name from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_detections t on t.observation_id = o.observation_id order by distance desc limit 1 </t>
         </is>
       </c>
       <c r="G381" t="n">
-        <v>-1</v>
+        <v>322</v>
       </c>
       <c r="H381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -15887,19 +16143,26 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>SELECT s.Common_Name, a.Alternate_Name
-FROM tlu_Species s
-JOIN xref_Species_Alternate_Names a ON s.Species_ID = a.Species_ID
-WHERE s.Family = 'Laridae'</t>
+          <t>SELECT 
+    s.Common_Name, 
+    a.Alternate_Name
+FROM 
+    tlu_Species s
+JOIN 
+    xref_Species_Alternate_Names a
+ON 
+    s.Species_ID = a.Species_ID
+WHERE 
+    s.Family = 'Laridae'</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t xml:space="preserve">select common_name, alternate_name from tlu_species s join xref_species_alternate_names a on s.species_id = a.species_id where family = 'laridae' </t>
+          <t xml:space="preserve">select common_name, alternate_name from tlu_species s join xref_species_alternate_names a on s.species_id = a.species_id where family = 'laridae'  </t>
         </is>
       </c>
       <c r="G382" t="n">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="H382" t="b">
         <v>0</v>
@@ -15934,7 +16197,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct source from tlu_species </t>
+          <t xml:space="preserve">select distinct source from tlu_species  </t>
         </is>
       </c>
       <c r="G383" t="n">
@@ -15979,7 +16242,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Station  from tbl_stations  join tbl_Stations_UTMs on tbl_stations.Station_ID = tbl_stations_utms.Station_ID where X_final = 272454 and Y_final = 2141631 </t>
+          <t xml:space="preserve">select Station  from tbl_stations  join tbl_Stations_UTMs on tbl_stations.Station_ID = tbl_stations_utms.Station_ID where X_final = 272454 and Y_final = 2141631  </t>
         </is>
       </c>
       <c r="G384" t="n">
@@ -16018,7 +16281,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t xml:space="preserve">select position_title, organization from tlu_contacts where First_Name = 'Patrick' and Last_Name = 'Hart' </t>
+          <t xml:space="preserve">select position_title, organization from tlu_contacts where First_Name = 'Patrick' and Last_Name = 'Hart'  </t>
         </is>
       </c>
       <c r="G385" t="n">
@@ -16059,7 +16322,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct Island, Site_name from tbl_locations join tbl_sites on tbl_locations.site_id = tbl_sites.site_id </t>
+          <t xml:space="preserve">select distinct Island, Site_name from tbl_locations join tbl_sites on tbl_locations.site_id = tbl_sites.site_id  </t>
         </is>
       </c>
       <c r="G386" t="n">
@@ -16098,7 +16361,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Island from tbl_locations where loc_name = 'Northwest Kahuku' </t>
+          <t xml:space="preserve">select Island from tbl_locations where loc_name = 'Northwest Kahuku'  </t>
         </is>
       </c>
       <c r="G387" t="n">
@@ -16134,23 +16397,23 @@
         <is>
           <t>SELECT Family, Scientific_Name, Common_Name
 FROM tlu_Species
-WHERE Habitat LIKE '%Forest Bird%'</t>
+WHERE Habitat = 'Forest Bird'</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct family, scientific_name, common_name  from tlu_species where habitat = 'Forest Bird' </t>
+          <t xml:space="preserve">select distinct family, scientific_name, common_name  from tlu_species where habitat = 'Forest Bird'  </t>
         </is>
       </c>
       <c r="G388" t="n">
         <v>227</v>
       </c>
       <c r="H388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -16174,18 +16437,18 @@
       <c r="E389" t="inlineStr">
         <is>
           <t>SELECT 
-    SUM(CASE WHEN Datum = 'WGS84' THEN 1 ELSE 0 END) AS WGS84_Count,
-    SUM(CASE WHEN Datum = 'NAD83' THEN 1 ELSE 0 END) AS NAD83_Count
+    SUM(CASE WHEN Coord_Syst = 'WGS84' THEN 1 ELSE 0 END) AS WGS84_Count,
+    SUM(CASE WHEN Coord_Syst = 'NAD83' THEN 1 ELSE 0 END) AS NAD83_Count
 FROM tbl_Stations_UTMs</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct datum, count(*) stationCount from tbl_stations_utms where datum in ('WGS84', 'NAD83') group by datum </t>
+          <t xml:space="preserve">select distinct datum, count(*) stationCount from tbl_stations_utms where datum in ('WGS84', 'NAD83') group by datum  </t>
         </is>
       </c>
       <c r="G389" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H389" t="b">
         <v>0</v>
@@ -16223,7 +16486,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) obs_count from tbl_observations obs join tbl_event_details det on obs.Event_ID = det.Event_ID where Cloud = 0 </t>
+          <t xml:space="preserve">select count(*) obs_count from tbl_observations obs join tbl_event_details det on obs.Event_ID = det.Event_ID where Cloud = 0  </t>
         </is>
       </c>
       <c r="G390" t="n">
@@ -16264,11 +16527,11 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(*) windy_day_count from tbl_event_details where wind in ( 	select max(wind) from tbl_event_details ) </t>
+          <t xml:space="preserve">select count(*) windy_day_count from tbl_event_details where wind in ( 	select max(wind) from tbl_event_details )  </t>
         </is>
       </c>
       <c r="G391" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H391" t="b">
         <v>1</v>
@@ -16311,7 +16574,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island </t>
+          <t xml:space="preserve">select Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island  </t>
         </is>
       </c>
       <c r="G392" t="n">
@@ -16343,21 +16606,30 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E393" t="inlineStr"/>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>SELECT Island, COUNT(*) AS Station_Count
+FROM tbl_Locations
+JOIN tbl_Stations ON tbl_Locations.Location_ID = tbl_Stations.Station_ID
+GROUP BY Island
+ORDER BY Station_Count ASC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island order by station_count asc </t>
+          <t xml:space="preserve">select  Island, count(*) as station_count from tbl_locations loc join tbl_transect trans on loc.location_id = trans.location_id join tbl_stations sta on trans.transect_id = sta.Transect_ID group by Island order by station_count asc limit 1 </t>
         </is>
       </c>
       <c r="G393" t="n">
-        <v>-1</v>
+        <v>352</v>
       </c>
       <c r="H393" t="b">
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -16381,20 +16653,19 @@
       <c r="E394" t="inlineStr">
         <is>
           <t>SELECT DISTINCT s.Family, s.Species_Code
-FROM tlu_Species s
-JOIN tbl_Observations o ON s.Species_ID = o.Species_ID
-JOIN tbl_Events e ON o.Event_ID = e.Event_ID
-JOIN tbl_Event_Details ed ON e.Event_ID = ed.Event_ID
+FROM tbl_Observations o
+JOIN tbl_Event_Details ed ON o.Event_ID = ed.Event_ID
+JOIN tlu_Species s ON o.Species_ID = s.Species_ID
 WHERE ed.Rain = 1</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct family, species_code from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_events e on o.event_id = e.event_id join tbl_event_details ed on e.event_id = ed.event_id where rain = 1 </t>
+          <t xml:space="preserve">select distinct family, species_code from tlu_species s join tbl_observations o on s.species_id = o.species_id join tbl_events e on o.event_id = e.event_id join tbl_event_details ed on e.event_id = ed.event_id where rain = 1  </t>
         </is>
       </c>
       <c r="G394" t="n">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="H394" t="b">
         <v>1</v>
@@ -16425,20 +16696,20 @@
       <c r="E395" t="inlineStr">
         <is>
           <t>SELECT DISTINCT s.Scientific_Name, s.Common_Name
-FROM tlu_Contacts c
-JOIN xref_Event_Contacts xec ON c.Contact_ID = xec.Contact_ID
-JOIN tbl_Observations o ON xec.Event_ID = o.Event_ID
+FROM tbl_Observations o
+JOIN xref_Event_Contacts ec ON o.Event_ID = ec.Event_ID
+JOIN tlu_Contacts c ON ec.Contact_ID = c.Contact_ID
 JOIN tlu_Species s ON o.Species_ID = s.Species_ID
 WHERE c.First_Name = 'Patrick' AND c.Last_Name = 'Hart'</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t xml:space="preserve">select distinct scientific_name, common_name from tlu_species spc join tbl_observations obs on spc.Species_ID = obs.species_id join xref_event_contacts xcon on xcon.Event_ID = obs.event_id join tlu_contacts con on xcon.Contact_ID = con.Contact_ID where last_name = 'Hart' and first_name = 'Patrick' order by Scientific_Name </t>
+          <t xml:space="preserve">select distinct scientific_name, common_name from tlu_species spc join tbl_observations obs on spc.Species_ID = obs.species_id join xref_event_contacts xcon on xcon.Event_ID = obs.event_id join tlu_contacts con on xcon.Contact_ID = con.Contact_ID where last_name = 'Hart' and first_name = 'Patrick' order by Scientific_Name  </t>
         </is>
       </c>
       <c r="G395" t="n">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H395" t="b">
         <v>1</v>
@@ -16486,7 +16757,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Station, Common_Name, count(*) NumObservations from tbl_Stations t_s  join tbl_Events t_e on t_e.Station_ID = t_s.Station_ID join tbl_Observations t_o on t_o.Event_ID = t_e.Event_ID join tlu_Species t_sp on t_o.Species_ID = t_sp.Species_iD where Station = '2' or Station = '3' group by Station, Common_Name order by Station </t>
+          <t xml:space="preserve">select Station, Common_Name, count(*) NumObservations from tbl_Stations t_s  join tbl_Events t_e on t_e.Station_ID = t_s.Station_ID join tbl_Observations t_o on t_o.Event_ID = t_e.Event_ID join tlu_Species t_sp on t_o.Species_ID = t_sp.Species_iD where Station = '2' or Station = '3' group by Station, Common_Name order by Station  </t>
         </is>
       </c>
       <c r="G396" t="n">
@@ -16520,26 +16791,20 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>SELECT 
-    s.Station, 
-    COUNT(e.Event_ID) AS Event_Count
-FROM 
-    tbl_Stations s
-LEFT JOIN 
-    tbl_Events e ON s.Station_ID = e.Station_ID
-GROUP BY 
-    s.Station
-ORDER BY 
-    Event_Count DESC</t>
+          <t>SELECT s.Station, COUNT(e.Event_ID) AS Event_Count
+FROM tbl_Stations s
+LEFT JOIN tbl_Events e ON s.Station_ID = e.Station_ID
+GROUP BY s.Station
+ORDER BY Event_Count DESC</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t xml:space="preserve">select station, count(*) as event_count from tbl_stations ts join tbl_events te on ts.station_id = te.station_id group by ts.station order by event_count desc </t>
+          <t xml:space="preserve">select station, count(*) as event_count from tbl_stations ts join tbl_events te on ts.station_id = te.station_id group by ts.station order by event_count desc  </t>
         </is>
       </c>
       <c r="G397" t="n">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="H397" t="b">
         <v>0</v>
@@ -16567,21 +16832,28 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E398" t="inlineStr"/>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>SELECT Station, Lat_final, Long_final
+FROM tbl_Stations
+ORDER BY Lat_final DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 lat_final, long_final, Station  from tbl_stations order by lat_final desc </t>
+          <t xml:space="preserve">select  lat_final, long_final, Station  from tbl_stations order by lat_final desc limit 1 </t>
         </is>
       </c>
       <c r="G398" t="n">
-        <v>-1</v>
+        <v>231</v>
       </c>
       <c r="H398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -16604,7 +16876,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>SELECT COUNT(DISTINCT s.Station_ID)
+          <t>SELECT COUNT(DISTINCT s.Station) 
 FROM tbl_Stations s
 JOIN tbl_Observations o ON s.Station_ID = o.Event_ID
 JOIN tlu_Species sp ON o.Species_ID = sp.Species_ID
@@ -16613,7 +16885,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t xml:space="preserve">select count(distinct tbl_stations.station_id) as station_count from tbl_stations join tbl_events on tbl_stations.station_id = tbl_events.station_id join tbl_observations on tbl_observations.event_id = tbl_events.event_id join tlu_species on tlu_species.species_id = tbl_observations.species_id where common_name = 'Hawaii Amakihi' </t>
+          <t xml:space="preserve">select count(distinct tbl_stations.station_id) as station_count from tbl_stations join tbl_events on tbl_stations.station_id = tbl_events.station_id join tbl_observations on tbl_observations.event_id = tbl_events.event_id join tlu_species on tlu_species.species_id = tbl_observations.species_id where common_name = 'Hawaii Amakihi'  </t>
         </is>
       </c>
       <c r="G399" t="n">
@@ -16662,7 +16934,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t xml:space="preserve">select 100 * (sum(sighted) / count(distinct station_id)) as perc_stations from ( 	select distinct tbl_stations.station_id, case  			when tlu_species.common_name = 'Hawaii Amakihi' then 1.0 else 0.0 			end as sighted 	from tbl_stations 	join tbl_events on tbl_stations.station_id = tbl_events.station_id 	join tbl_observations on tbl_observations.event_id = tbl_events.event_id 	join tlu_species on tlu_species.species_id = tbl_observations.species_id ) sightings </t>
+          <t xml:space="preserve">select 100 * (sum(sighted) / count(distinct station_id)) as perc_stations from ( 	select distinct tbl_stations.station_id, case  			when tlu_species.common_name = 'Hawaii Amakihi' then 1.0 else 0.0 			end as sighted 	from tbl_stations 	join tbl_events on tbl_stations.station_id = tbl_events.station_id 	join tbl_observations on tbl_observations.event_id = tbl_events.event_id 	join tlu_species on tlu_species.species_id = tbl_observations.species_id ) sightings  </t>
         </is>
       </c>
       <c r="G400" t="n">
@@ -16705,7 +16977,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t xml:space="preserve">select last_name, first_name, count(*) num_events from tlu_contacts tlc join xref_event_contacts xrec on tlc.Contact_ID = xrec.Contact_ID where organization = 'National Park Service' group by last_name, first_name, organization order by last_name desc </t>
+          <t xml:space="preserve">select last_name, first_name, count(*) num_events from tlu_contacts tlc join xref_event_contacts xrec on tlc.Contact_ID = xrec.Contact_ID where organization = 'National Park Service' group by last_name, first_name, organization order by last_name desc  </t>
         </is>
       </c>
       <c r="G401" t="n">
@@ -16746,7 +17018,7 @@
 FROM 
     tbl_Habitat h
 JOIN 
-    tlu_Species s ON h.Noted_Canopy_Spp_Scientific = s.Scientific_Name
+    tlu_Species s ON h.Event_ID IN (SELECT Event_ID FROM tbl_Events WHERE Event_ID = h.Event_ID)
 GROUP BY 
     s.Common_Name,
     s.Scientific_Name</t>
@@ -16754,11 +17026,11 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t xml:space="preserve">select Scientific_Name, Common_Name, avg(cast(canopy_height as float)) as avg_canopy_height from tbl_habitat hab join tbl_events ev on hab.Event_ID = ev.Event_ID join tbl_Observations obs on obs.Event_ID = ev.Event_ID join tlu_species spec on spec.species_id = obs.species_id group by Scientific_Name, common_name order by Scientific_Name </t>
+          <t xml:space="preserve">select Scientific_Name, Common_Name, avg(cast(canopy_height as float)) as avg_canopy_height from tbl_habitat hab join tbl_events ev on hab.Event_ID = ev.Event_ID join tbl_Observations obs on obs.Event_ID = ev.Event_ID join tlu_species spec on spec.species_id = obs.species_id group by Scientific_Name, common_name order by Scientific_Name  </t>
         </is>
       </c>
       <c r="G402" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H402" t="b">
         <v>0</v>
@@ -16825,7 +17097,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t xml:space="preserve">select island, site_name, Loc_Name, transect, transect_type, Station, lat_final, te.event_id, last_name, event_notes, family, Scientific_Name, Common_Name, Alternate_Name from tbl_locations tl join tbl_sites ts on tl.Site_ID = ts.Site_ID join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID join xref_Species_Alternate_Names spc_alt on spc.Species_ID = spc_alt.Species_ID </t>
+          <t xml:space="preserve">select island, site_name, Loc_Name, transect, transect_type, Station, lat_final, te.event_id, last_name, event_notes, family, Scientific_Name, Common_Name, Alternate_Name from tbl_locations tl join tbl_sites ts on tl.Site_ID = ts.Site_ID join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID join xref_Species_Alternate_Names spc_alt on spc.Species_ID = spc_alt.Species_ID  </t>
         </is>
       </c>
       <c r="G403" t="n">
@@ -16857,21 +17129,33 @@
           <t>gpt-4.1-nano</t>
         </is>
       </c>
-      <c r="E404" t="inlineStr"/>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>SELECT l.Island
+FROM tbl_Observations o
+JOIN tbl_Species s ON o.Species_ID = s.Species_ID
+JOIN tbl_Events e ON o.Event_ID = e.Event_ID
+JOIN tbl_Locations l ON e.Station_ID = l.Location_ID
+WHERE s.Common_Name = 'Pacific Kingfisher'
+GROUP BY l.Island
+ORDER BY COUNT(*) DESC
+LIMIT 1</t>
+        </is>
+      </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t xml:space="preserve">select top 1 island, count(*) as kingfisher_count from tbl_locations tl join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID where common_name = 'Pacific Kingfisher' group by island order by kingfisher_count </t>
+          <t xml:space="preserve">select  island, count(*) as kingfisher_count from tbl_locations tl join tbl_transect tr on tr.Location_ID = tl.Location_ID join tbl_stations st on st.Transect_ID = tr.Transect_ID join tbl_events te on te.station_id = st.station_id join xref_Event_Contacts ec on ec.Event_ID = te.Event_ID join tlu_Contacts con on ec.Contact_ID = con.Contact_ID join tbl_Observations obs on te.Event_ID = obs.Event_ID join tlu_species spc on obs.Species_ID = spc.Species_ID where common_name = 'Pacific Kingfisher' group by island order by kingfisher_count limit 1 </t>
         </is>
       </c>
       <c r="G404" t="n">
-        <v>-1</v>
+        <v>723</v>
       </c>
       <c r="H404" t="b">
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -17108,8 +17392,7 @@
     CheckSum AS WithholdingTaxPosted,
     CheckAct AS AccountNumber,
     CheckSumFC AS FunctionalCurrencySum
-FROM 
-    RCT1
+FROM RCT1
 WHERE 
     CountryCod = 'CA' AND
     CheckAct IS NOT NULL</t>
@@ -17121,7 +17404,7 @@
         </is>
       </c>
       <c r="G410" t="n">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="H410" t="b">
         <v>0</v>
@@ -17151,7 +17434,7 @@
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM RCT2 WHERE vatApplied &gt; 700</t>
+          <t>SELECT COUNT(*) FROM RCT2 WHERE InvType = 'Incoming' AND vatApplied &gt; 700</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
@@ -17160,14 +17443,14 @@
         </is>
       </c>
       <c r="G411" t="n">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="H411" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>full tuple compare succeeded</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -17231,7 +17514,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>SELECT RctAbs, CrdCardNum, CreditAcct
+          <t>SELECT DepositNum, RctAbs, CreditAcct
 FROM OCRH
 WHERE DeposDate = '2012-01-31' AND Deposited = 'Y'</t>
         </is>
@@ -17242,14 +17525,14 @@
         </is>
       </c>
       <c r="G413" t="n">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H413" t="b">
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>empty result set</t>
+          <t>Insufficient number of columns in generated result set</t>
         </is>
       </c>
     </row>
@@ -17435,13 +17718,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>SELECT SlpName
-FROM OSLP
-WHERE GroupCode IN (
-    SELECT GroupCode
-    FROM OCOG
-    WHERE Commission = (SELECT MAX(Commission) FROM OCOG)
-)</t>
+          <t>SELECT SlpName FROM OSLP WHERE GroupCode IN (SELECT GroupCode FROM OCOG WHERE Commission = (SELECT MAX(Commission) FROM OCOG))</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -17450,7 +17727,7 @@
         </is>
       </c>
       <c r="G418" t="n">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="H418" t="b">
         <v>1</v>
@@ -17536,7 +17813,7 @@
         </is>
       </c>
       <c r="G420" t="n">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="H420" t="b">
         <v>0</v>
@@ -17732,10 +18009,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>SELECT OACT.AcctName, OACT.AcctCode
-FROM OACT
-JOIN JDT1 ON OACT.AcctCode = JDT1.Account
-WHERE OACT.AcctCode = '_SYS00000000002'</t>
+          <t>SELECT AcctName, AcctCode FROM OACT WHERE AcctCode = '_SYS00000000002'</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -17744,14 +18018,14 @@
         </is>
       </c>
       <c r="G425" t="n">
-        <v>1619</v>
+        <v>1595</v>
       </c>
       <c r="H425" t="b">
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare failed</t>
         </is>
       </c>
     </row>
@@ -17818,13 +18092,13 @@
       <c r="E427" t="inlineStr">
         <is>
           <t>SELECT 
-    AcctName,
-    AVG(DebLTotal) AS AvgMonthlyBudgetDebit,
-    AVG(CredLTotal) AS AvgMonthlyBudgetCredit
+    OACT.AcctName,
+    AVG(BGT1.DebLTotal) AS AvgMonthlyBudgetDebit,
+    AVG(BGT1.CredLTotal) AS AvgMonthlyBudgetCredit
 FROM 
-    BGT1
+    OACT
 JOIN 
-    OACT ON BGT1.AcctCode = OACT.AcctCode
+    BGT1 ON OACT.AcctCode = BGT1.AcctCode
 WHERE 
     OACT.AcctName LIKE '%Travel Expense%'
 GROUP BY 
@@ -17837,7 +18111,7 @@
         </is>
       </c>
       <c r="G427" t="n">
-        <v>1061</v>
+        <v>1069</v>
       </c>
       <c r="H427" t="b">
         <v>1</v>
@@ -18066,7 +18340,7 @@
         <is>
           <t>SELECT OFRC.Name AS CategoryName, OFRC.Furmula AS CalculationMethod1, OFRC.CalMethod2 AS CalculationMethod2, OFRC.CalMethod3 AS CalculationMethod3
 FROM OFRC
-WHERE OFRC.ExtFromBS = 'F' AND OFRC.LineNum &gt; 30</t>
+WHERE OFRC.Frmula = 'extended category f financial reports' AND OFRC.LineNum &gt; 30</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
@@ -18075,7 +18349,7 @@
         </is>
       </c>
       <c r="G433" t="n">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="H433" t="b">
         <v>0</v>
@@ -18233,7 +18507,7 @@
         </is>
       </c>
       <c r="G437" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H437" t="b">
         <v>1</v>
@@ -18385,7 +18659,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>SELECT AVG(RSC6.CapFactor1) AS AvgDailyCapFactor1
+          <t>SELECT AVG(RSC6.CapFactor1) AS AvgCapacityFactor1
 FROM RSC6
 JOIN ORSC ON RSC6.ResCode = ORSC.ResCode
 WHERE ORSC.ResName = 'Testing Machine'
@@ -18398,7 +18672,7 @@
         </is>
       </c>
       <c r="G441" t="n">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H441" t="b">
         <v>1</v>
@@ -18428,16 +18702,10 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>SELECT 
-    OPMG.NAME AS ProjectName,
-    PMG2.REMARKS AS OpenIssueRemarks,
-    PMG2.SOLUTION AS OpenIssueSolution
-FROM 
-    OPMG
-JOIN 
-    PMG2 ON OPMG.AbsEntry = PMG2.LineID
-WHERE 
-    PMG2.CLOSED = 'N'</t>
+          <t>SELECT OPMG.NAME AS ProjectName, PMG2.REMARKS AS Remarks, PMG2.SOLUTION AS Solution
+FROM OPMG
+JOIN PMG2 ON OPMG.AbsEntry = PMG2.LineID
+WHERE PMG2.CLOSED = 'N'</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
@@ -18446,7 +18714,7 @@
         </is>
       </c>
       <c r="G442" t="n">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="H442" t="b">
         <v>0</v>
@@ -18556,10 +18824,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>SELECT lastName, firstName
-FROM OHEM
-JOIN HTM1 ON OHEM.empID = HTM1.empID
-WHERE HTM1.role = 'Sales'</t>
+          <t>SELECT lastName, firstName FROM OHEM WHERE empID IN (SELECT empID FROM HTM1 WHERE role = 'Sales')</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
@@ -18568,7 +18833,7 @@
         </is>
       </c>
       <c r="G445" t="n">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="H445" t="b">
         <v>0</v>
@@ -18639,7 +18904,7 @@
         <is>
           <t>SELECT AVG(salary) AS average_salary
 FROM OHEM
-WHERE dept = (SELECT dept FROM OHEM WHERE jobTitle LIKE '%Purchasing%' LIMIT 1)</t>
+WHERE dept = (SELECT dept FROM OHEM WHERE jobTitle LIKE '%purchasing%' LIMIT 1)</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
@@ -18648,7 +18913,7 @@
         </is>
       </c>
       <c r="G447" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H447" t="b">
         <v>1</v>
@@ -18926,10 +19191,11 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>SELECT AVG(VacPreYear) AS AvgVacationDays
+          <t>SELECT AVG(VacCurYear) AS AverageVacationDays
 FROM OHEM
 JOIN HTM1 ON OHEM.empID = HTM1.empID
-WHERE HTM1.role = 'S' AND strftime('%Y', 'now') = strftime('%Y', 'VacPreYear')</t>
+WHERE HTM1.role = 'sales'
+  AND strftime('%Y', 'now') = strftime('%Y', 'VacCurYear')</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -18938,7 +19204,7 @@
         </is>
       </c>
       <c r="G454" t="n">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H454" t="b">
         <v>1</v>
@@ -19128,9 +19394,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>SELECT status AS professional_status, citizenshp AS citizenship, passportNo AS passport_number
-FROM OHEM
-WHERE lastName = 'Buyer'</t>
+          <t>SELECT status, citizenshp, passportNo FROM OHEM WHERE lastName = 'Buyer'</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -19139,7 +19403,7 @@
         </is>
       </c>
       <c r="G459" t="n">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="H459" t="b">
         <v>1</v>
@@ -19211,11 +19475,11 @@
       <c r="E461" t="inlineStr">
         <is>
           <t>SELECT 
-    homeCounty AS municipalityKey,
+    homeCounty AS municipality_key,
     homeCity,
-    homeTel AS homePhoneNumber,
+    homeTel AS home_phone_number,
     workCity,
-    officeTel AS officePhoneNumber
+    officeTel AS office_phone_number
 FROM 
     OHEM
 WHERE 
@@ -19529,9 +19793,9 @@
       <c r="E468" t="inlineStr">
         <is>
           <t>SELECT 
-    ITM4.Height1 AS Height1, 
-    ITM4.Width1 AS Width1, 
-    ITM4.Length1 AS Length1, 
+    ITM4.Height1 AS Height1,
+    ITM4.Width1 AS Width1,
+    ITM4.Length1 AS Length1,
     ITM4.Volume AS Volume
 FROM 
     ITM4
@@ -19548,7 +19812,7 @@
         </is>
       </c>
       <c r="G468" t="n">
-        <v>2246</v>
+        <v>2243</v>
       </c>
       <c r="H468" t="b">
         <v>1</v>
@@ -20064,7 +20328,9 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>SELECT DocCode, TypeCode FROM RDOC WHERE TypeCode IN (SELECT CODE FROM RTYP WHERE NAME LIKE '%Service Call%')</t>
+          <t>SELECT DocCode, TypeCode FROM RDOC WHERE TypeCode IN (
+    SELECT CODE FROM RTYP WHERE NAME LIKE '%Service Call%'
+)</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
@@ -20073,7 +20339,7 @@
         </is>
       </c>
       <c r="G481" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H481" t="b">
         <v>1</v>
@@ -20106,7 +20372,7 @@
           <t>SELECT 
     RDOC.DocCode, 
     RDOC.DocName, 
-    COUNT(RITM.ItemId) AS ReportingElementsCount
+    COUNT(RITM.ItemId) AS ReportingElementCount
 FROM 
     RDOC
 LEFT JOIN 
@@ -20156,7 +20422,7 @@
         <is>
           <t>SELECT Action, NumRepArs
 FROM RDOC
-WHERE ExtName LIKE 'extension error%' AND UseSysPref = 'Y'</t>
+WHERE ExtOnErr = 'Y'</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -20165,7 +20431,7 @@
         </is>
       </c>
       <c r="G483" t="n">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H483" t="b">
         <v>0</v>
@@ -20236,7 +20502,7 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>SELECT CardGroup, AVG(MaxSumLoc) AS AvgMaxSalesOpportunity
+          <t>SELECT CardGroup, AVG(MaxSumLoc) AS AvgMaxSales
 FROM OOPR
 GROUP BY CardGroup</t>
         </is>
@@ -20247,7 +20513,7 @@
         </is>
       </c>
       <c r="G485" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H485" t="b">
         <v>1</v>
@@ -20278,9 +20544,9 @@
       <c r="E486" t="inlineStr">
         <is>
           <t>SELECT 
-  (SUM(PrcnProf) * 100.0) / SUM(MaxSumLoc) AS PercentProfit,
-  SUM(SumProfL) AS GrossProfitTotalLoc,
-  SUM(SumProfS) AS GrossProfitTotalSys
+    (SUM(PrcnProf) * 100.0) / SUM(MaxSumLoc) AS PercentProfit,
+    SUM(SumProfL) AS GrossProfitTotalLoc,
+    SUM(SumProfS) AS GrossProfitTotalSys
 FROM OOPR
 WHERE Status = 'W'</t>
         </is>
@@ -20322,13 +20588,13 @@
       <c r="E487" t="inlineStr">
         <is>
           <t>SELECT 
-    ROW_NUMBER() OVER (ORDER BY OOPR.OpprId) AS sequence_number,
-    OOPR.CprCode AS card_code,
-    AVG(OOPR.IntRate) AS average_percentage_rate
+    ROW_NUMBER() OVER (ORDER BY OpprId) AS sequence_number,
+    CardCode,
+    AVG(PrcnProf) AS average_percentage_rate
 FROM 
     OOPR
 GROUP BY 
-    OOPR.OpprId, OOPR.CprCode</t>
+    CardCode</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
@@ -20337,14 +20603,14 @@
         </is>
       </c>
       <c r="G487" t="n">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="H487" t="b">
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>full tuple compare failed</t>
+          <t>asymmetrical tuple result size</t>
         </is>
       </c>
     </row>
@@ -20367,7 +20633,7 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>SELECT WtSumSys, WtSumLoc
+          <t>SELECT WtSumSys AS WeightedAmountSys, WtSumLoc AS WeightedAmountLoc
 FROM OPR1
 WHERE strftime('%Y', CloseDate) = '2014'</t>
         </is>
@@ -20378,7 +20644,7 @@
         </is>
       </c>
       <c r="G488" t="n">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="H488" t="b">
         <v>0</v>
@@ -20541,7 +20807,7 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>SELECT Status, MAX(OpenDate) AS NewestOpenDate
+          <t>SELECT Status, MAX(OpenDate) AS NewestStartDate
 FROM OOPR
 GROUP BY Status</t>
         </is>
@@ -20908,7 +21174,7 @@
         <is>
           <t>SELECT AssignDate, respOnDate, resolOnDat
 FROM OSCL
-WHERE origin = (SELECT originID FROM OSCO WHERE Name = 'web')</t>
+WHERE origin = 1</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
@@ -20917,7 +21183,7 @@
         </is>
       </c>
       <c r="G501" t="n">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="H501" t="b">
         <v>0</v>
@@ -20948,11 +21214,12 @@
       <c r="E502" t="inlineStr">
         <is>
           <t>SELECT DISTINCT
-    BPShipAddr,
-    BPBillAddr,
-    BPE_Mail
+    BPShipAddr AS ShippingAddress,
+    BPBillAddr AS BillingAddress,
+    BPE_Mail AS Email
 FROM OSCL
-WHERE customer = 'Aquent Systems'</t>
+WHERE custmrName = 'Aquent Systems'
+LIMIT 1</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
@@ -20961,14 +21228,14 @@
         </is>
       </c>
       <c r="G502" t="n">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="H502" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>asymmetrical tuple result size</t>
+          <t>full tuple compare succeeded</t>
         </is>
       </c>
     </row>
@@ -20991,11 +21258,17 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>SELECT OSCL.customer AS CustomerName, COUNT(*) AS CallCount
-FROM OSCL
-JOIN OCTR ON OSCL.contractID = OCTR.ContractID
-WHERE OCTR.CntrcTmplt = 'Silver Warranty'
-GROUP BY OSCL.customer</t>
+          <t>SELECT 
+    OSCL.customer AS CustomerName,
+    COUNT(*) AS CallCount
+FROM 
+    OSCL
+JOIN 
+    OCTR ON OSCL.contractID = OCTR.ContractID
+WHERE 
+    OCTR.CntrcTmplt = 'Silver Warranty'
+GROUP BY 
+    OSCL.customer</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
@@ -21004,7 +21277,7 @@
         </is>
       </c>
       <c r="G503" t="n">
-        <v>1035</v>
+        <v>1045</v>
       </c>
       <c r="H503" t="b">
         <v>0</v>
